--- a/etf_dfs/EWH.xlsx
+++ b/etf_dfs/EWH.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Open</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Return</t>
   </si>
   <si>
-    <t>Return_12</t>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
   </si>
   <si>
     <t>EWH</t>
@@ -404,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J311"/>
+  <dimension ref="A1:K312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>35125</v>
       </c>
@@ -456,13 +462,13 @@
         <v>13.4375</v>
       </c>
       <c r="F2">
-        <v>6.253875732421875</v>
+        <v>6.25172233581543</v>
       </c>
       <c r="G2">
         <v>3500</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>35156</v>
       </c>
@@ -479,7 +485,7 @@
         <v>13.625</v>
       </c>
       <c r="F3">
-        <v>6.341139316558838</v>
+        <v>6.338953495025635</v>
       </c>
       <c r="G3">
         <v>7200</v>
@@ -488,7 +494,7 @@
         <v>0.01395348837209309</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>35186</v>
       </c>
@@ -505,7 +511,7 @@
         <v>13.875</v>
       </c>
       <c r="F4">
-        <v>6.457489967346191</v>
+        <v>6.455265045166016</v>
       </c>
       <c r="G4">
         <v>13200</v>
@@ -513,8 +519,11 @@
       <c r="H4">
         <v>0.0183486238532109</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4">
+        <v>0.003107830102932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>35217</v>
       </c>
@@ -531,7 +540,7 @@
         <v>13.6875</v>
       </c>
       <c r="F5">
-        <v>6.370225429534912</v>
+        <v>6.368033885955811</v>
       </c>
       <c r="G5">
         <v>14000</v>
@@ -539,8 +548,11 @@
       <c r="H5">
         <v>-0.01351351351351349</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5">
+        <v>0.01726725806286429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>35247</v>
       </c>
@@ -557,7 +569,7 @@
         <v>13</v>
       </c>
       <c r="F6">
-        <v>6.0502610206604</v>
+        <v>6.048176765441895</v>
       </c>
       <c r="G6">
         <v>7300</v>
@@ -565,8 +577,11 @@
       <c r="H6">
         <v>-0.05022831050228316</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6">
+        <v>0.03156874081050814</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>35278</v>
       </c>
@@ -583,7 +598,7 @@
         <v>13</v>
       </c>
       <c r="F7">
-        <v>6.139481067657471</v>
+        <v>6.137364864349365</v>
       </c>
       <c r="G7">
         <v>500</v>
@@ -591,8 +606,11 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7">
+        <v>0.02756437448481549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>35309</v>
       </c>
@@ -609,7 +627,7 @@
         <v>13.75</v>
       </c>
       <c r="F8">
-        <v>6.493679523468018</v>
+        <v>6.49144458770752</v>
       </c>
       <c r="G8">
         <v>39400</v>
@@ -617,8 +635,11 @@
       <c r="H8">
         <v>0.05769230769230771</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8">
+        <v>0.03591770026059671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>35339</v>
       </c>
@@ -635,7 +656,7 @@
         <v>14.5625</v>
       </c>
       <c r="F9">
-        <v>6.877397060394287</v>
+        <v>6.875030040740967</v>
       </c>
       <c r="G9">
         <v>4400</v>
@@ -643,8 +664,11 @@
       <c r="H9">
         <v>0.05909090909090908</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9">
+        <v>0.038765332417696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>35370</v>
       </c>
@@ -661,7 +685,7 @@
         <v>15.875</v>
       </c>
       <c r="F10">
-        <v>7.497248649597168</v>
+        <v>7.494668006896973</v>
       </c>
       <c r="G10">
         <v>3300</v>
@@ -669,8 +693,11 @@
       <c r="H10">
         <v>0.09012875536480691</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10">
+        <v>0.04524755121509891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>35400</v>
       </c>
@@ -687,7 +714,7 @@
         <v>15.375</v>
       </c>
       <c r="F11">
-        <v>7.312332630157471</v>
+        <v>7.309813022613525</v>
       </c>
       <c r="G11">
         <v>9300</v>
@@ -695,8 +722,11 @@
       <c r="H11">
         <v>-0.03149606299212604</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11">
+        <v>0.04591971813866149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>35431</v>
       </c>
@@ -713,7 +743,7 @@
         <v>15.3125</v>
       </c>
       <c r="F12">
-        <v>7.28260612487793</v>
+        <v>7.280098438262939</v>
       </c>
       <c r="G12">
         <v>30500</v>
@@ -721,8 +751,11 @@
       <c r="H12">
         <v>-0.004065040650406471</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12">
+        <v>0.04375590610074406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>35462</v>
       </c>
@@ -739,7 +772,7 @@
         <v>14.875</v>
       </c>
       <c r="F13">
-        <v>7.07452917098999</v>
+        <v>7.07209587097168</v>
       </c>
       <c r="G13">
         <v>1600</v>
@@ -747,8 +780,11 @@
       <c r="H13">
         <v>-0.02857142857142858</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13">
+        <v>0.04344893076154081</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>35490</v>
       </c>
@@ -765,7 +801,7 @@
         <v>13.5</v>
       </c>
       <c r="F14">
-        <v>6.420583248138428</v>
+        <v>6.418372631072998</v>
       </c>
       <c r="G14">
         <v>64900</v>
@@ -774,13 +810,16 @@
         <v>-0.09243697478991597</v>
       </c>
       <c r="I14">
-        <v>0.004651162790697771</v>
+        <v>0.05091871571510734</v>
       </c>
       <c r="J14">
         <v>0.004651162790697771</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0.004651162790697771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>35521</v>
       </c>
@@ -797,7 +836,7 @@
         <v>14.25</v>
       </c>
       <c r="F15">
-        <v>6.777281761169434</v>
+        <v>6.77495002746582</v>
       </c>
       <c r="G15">
         <v>20900</v>
@@ -806,13 +845,16 @@
         <v>0.05555555555555558</v>
       </c>
       <c r="I15">
-        <v>0.04587155963302747</v>
+        <v>0.05099804166196153</v>
       </c>
       <c r="J15">
         <v>0.04587155963302747</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>0.04587155963302747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>35551</v>
       </c>
@@ -829,7 +871,7 @@
         <v>15.875</v>
       </c>
       <c r="F16">
-        <v>7.550129890441895</v>
+        <v>7.547532081604004</v>
       </c>
       <c r="G16">
         <v>16100</v>
@@ -838,13 +880,16 @@
         <v>0.1140350877192982</v>
       </c>
       <c r="I16">
-        <v>0.1441441441441442</v>
+        <v>0.05690898862885489</v>
       </c>
       <c r="J16">
         <v>0.1441441441441442</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>0.1441441441441442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>35582</v>
       </c>
@@ -861,7 +906,7 @@
         <v>17</v>
       </c>
       <c r="F17">
-        <v>8.085177421569824</v>
+        <v>8.082395553588867</v>
       </c>
       <c r="G17">
         <v>79200</v>
@@ -870,13 +915,16 @@
         <v>0.07086614173228356</v>
       </c>
       <c r="I17">
-        <v>0.2420091324200913</v>
+        <v>0.0568064304522723</v>
       </c>
       <c r="J17">
         <v>0.2420091324200913</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>0.2420091324200913</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>35612</v>
       </c>
@@ -893,7 +941,7 @@
         <v>17.625</v>
       </c>
       <c r="F18">
-        <v>8.382428169250488</v>
+        <v>8.379542350769043</v>
       </c>
       <c r="G18">
         <v>19100</v>
@@ -902,13 +950,16 @@
         <v>0.03676470588235303</v>
       </c>
       <c r="I18">
-        <v>0.3557692307692308</v>
+        <v>0.05509574969064644</v>
       </c>
       <c r="J18">
         <v>0.3557692307692308</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0.3557692307692308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>35643</v>
       </c>
@@ -925,7 +976,7 @@
         <v>14.625</v>
       </c>
       <c r="F19">
-        <v>7.215044021606445</v>
+        <v>7.212559700012207</v>
       </c>
       <c r="G19">
         <v>120000</v>
@@ -934,13 +985,16 @@
         <v>-0.1702127659574468</v>
       </c>
       <c r="I19">
-        <v>0.125</v>
+        <v>0.07029115235781527</v>
       </c>
       <c r="J19">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>35674</v>
       </c>
@@ -957,7 +1011,7 @@
         <v>15.5625</v>
       </c>
       <c r="F20">
-        <v>7.677545547485352</v>
+        <v>7.674904346466064</v>
       </c>
       <c r="G20">
         <v>5300</v>
@@ -966,13 +1020,16 @@
         <v>0.0641025641025641</v>
       </c>
       <c r="I20">
-        <v>0.1318181818181818</v>
+        <v>0.06948948075867731</v>
       </c>
       <c r="J20">
         <v>0.1318181818181818</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0.1318181818181818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>35704</v>
       </c>
@@ -989,7 +1046,7 @@
         <v>11.1875</v>
       </c>
       <c r="F21">
-        <v>5.519200325012207</v>
+        <v>5.5173020362854</v>
       </c>
       <c r="G21">
         <v>137700</v>
@@ -998,13 +1055,16 @@
         <v>-0.2811244979919679</v>
       </c>
       <c r="I21">
-        <v>-0.2317596566523605</v>
+        <v>0.09506995363246978</v>
       </c>
       <c r="J21">
         <v>-0.2317596566523605</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>-0.2317596566523605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>35735</v>
       </c>
@@ -1021,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="F22">
-        <v>5.426699161529541</v>
+        <v>5.424831867218018</v>
       </c>
       <c r="G22">
         <v>15000</v>
@@ -1030,13 +1090,16 @@
         <v>-0.01675977653631289</v>
       </c>
       <c r="I22">
-        <v>-0.3070866141732284</v>
+        <v>0.09257296441257205</v>
       </c>
       <c r="J22">
         <v>-0.3070866141732284</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>-0.3070866141732284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>35765</v>
       </c>
@@ -1053,7 +1116,7 @@
         <v>10.875</v>
       </c>
       <c r="F23">
-        <v>5.414835929870605</v>
+        <v>5.412971496582031</v>
       </c>
       <c r="G23">
         <v>36600</v>
@@ -1062,13 +1125,16 @@
         <v>-0.01136363636363635</v>
       </c>
       <c r="I23">
-        <v>-0.2926829268292683</v>
+        <v>0.09023836938782111</v>
       </c>
       <c r="J23">
         <v>-0.2926829268292683</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>-0.2926829268292683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>35796</v>
       </c>
@@ -1085,7 +1151,7 @@
         <v>10.0625</v>
       </c>
       <c r="F24">
-        <v>5.010280132293701</v>
+        <v>5.008555889129639</v>
       </c>
       <c r="G24">
         <v>320900</v>
@@ -1094,13 +1160,16 @@
         <v>-0.07471264367816088</v>
       </c>
       <c r="I24">
-        <v>-0.3428571428571429</v>
+        <v>0.08928510985980288</v>
       </c>
       <c r="J24">
         <v>-0.3428571428571429</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>-0.3428571428571429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>35827</v>
       </c>
@@ -1117,7 +1186,7 @@
         <v>11.0625</v>
       </c>
       <c r="F25">
-        <v>5.508195877075195</v>
+        <v>5.506299018859863</v>
       </c>
       <c r="G25">
         <v>64400</v>
@@ -1126,13 +1195,16 @@
         <v>0.09937888198757761</v>
       </c>
       <c r="I25">
-        <v>-0.2563025210084033</v>
+        <v>0.09010235751928188</v>
       </c>
       <c r="J25">
         <v>-0.2563025210084033</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>-0.2563025210084033</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>35855</v>
       </c>
@@ -1149,7 +1221,7 @@
         <v>11.0625</v>
       </c>
       <c r="F26">
-        <v>5.508195877075195</v>
+        <v>5.506299018859863</v>
       </c>
       <c r="G26">
         <v>86600</v>
@@ -1158,13 +1230,16 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>-0.1805555555555556</v>
+        <v>0.08812584071140681</v>
       </c>
       <c r="J26">
         <v>-0.1805555555555556</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>-0.1805555555555556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>35886</v>
       </c>
@@ -1181,7 +1256,7 @@
         <v>10</v>
       </c>
       <c r="F27">
-        <v>4.979159832000732</v>
+        <v>4.977445602416992</v>
       </c>
       <c r="G27">
         <v>104900</v>
@@ -1190,13 +1265,16 @@
         <v>-0.096045197740113</v>
       </c>
       <c r="I27">
-        <v>-0.2982456140350878</v>
+        <v>0.08821511207352982</v>
       </c>
       <c r="J27">
         <v>-0.2982456140350878</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>-0.2982456140350878</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>35916</v>
       </c>
@@ -1213,7 +1291,7 @@
         <v>8.3125</v>
       </c>
       <c r="F28">
-        <v>4.138926982879639</v>
+        <v>4.137502193450928</v>
       </c>
       <c r="G28">
         <v>58500</v>
@@ -1222,13 +1300,16 @@
         <v>-0.16875</v>
       </c>
       <c r="I28">
-        <v>-0.4763779527559056</v>
+        <v>0.09202796319114372</v>
       </c>
       <c r="J28">
         <v>-0.4763779527559056</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>-0.4763779527559056</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>35947</v>
       </c>
@@ -1245,7 +1326,7 @@
         <v>7.75</v>
       </c>
       <c r="F29">
-        <v>3.858847379684448</v>
+        <v>3.857520580291748</v>
       </c>
       <c r="G29">
         <v>194700</v>
@@ -1254,13 +1335,16 @@
         <v>-0.06766917293233088</v>
       </c>
       <c r="I29">
-        <v>-0.5441176470588236</v>
+        <v>0.0908339176079801</v>
       </c>
       <c r="J29">
         <v>-0.5441176470588236</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>-0.5441176470588236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>35977</v>
       </c>
@@ -1277,7 +1361,7 @@
         <v>7.125</v>
       </c>
       <c r="F30">
-        <v>3.547650575637817</v>
+        <v>3.546430587768555</v>
       </c>
       <c r="G30">
         <v>52800</v>
@@ -1286,13 +1370,16 @@
         <v>-0.08064516129032262</v>
       </c>
       <c r="I30">
-        <v>-0.5957446808510638</v>
+        <v>0.0899739745741672</v>
       </c>
       <c r="J30">
         <v>-0.5957446808510638</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>-0.5957446808510638</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>36008</v>
       </c>
@@ -1309,7 +1396,7 @@
         <v>5.5625</v>
       </c>
       <c r="F31">
-        <v>2.89380955696106</v>
+        <v>2.892813920974731</v>
       </c>
       <c r="G31">
         <v>475400</v>
@@ -1318,13 +1405,16 @@
         <v>-0.2192982456140351</v>
       </c>
       <c r="I31">
-        <v>-0.6196581196581197</v>
+        <v>0.09592523335693118</v>
       </c>
       <c r="J31">
         <v>-0.6196581196581197</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>-0.6196581196581197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>36039</v>
       </c>
@@ -1341,7 +1431,7 @@
         <v>7</v>
       </c>
       <c r="F32">
-        <v>3.641648530960083</v>
+        <v>3.640394926071167</v>
       </c>
       <c r="G32">
         <v>51900</v>
@@ -1350,13 +1440,16 @@
         <v>0.2584269662921348</v>
       </c>
       <c r="I32">
-        <v>-0.5502008032128514</v>
+        <v>0.1075329446717005</v>
       </c>
       <c r="J32">
         <v>-0.5502008032128514</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>-0.5502008032128514</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>36069</v>
       </c>
@@ -1373,7 +1466,7 @@
         <v>9.6875</v>
       </c>
       <c r="F33">
-        <v>5.03978157043457</v>
+        <v>5.038045406341553</v>
       </c>
       <c r="G33">
         <v>96200</v>
@@ -1382,13 +1475,16 @@
         <v>0.3839285714285714</v>
       </c>
       <c r="I33">
-        <v>-0.1340782122905028</v>
+        <v>0.1277790770912896</v>
       </c>
       <c r="J33">
         <v>-0.1340782122905028</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>-0.1340782122905028</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>36100</v>
       </c>
@@ -1405,7 +1501,7 @@
         <v>9.5</v>
       </c>
       <c r="F34">
-        <v>4.942236423492432</v>
+        <v>4.940535068511963</v>
       </c>
       <c r="G34">
         <v>56000</v>
@@ -1414,13 +1510,16 @@
         <v>-0.01935483870967747</v>
       </c>
       <c r="I34">
-        <v>-0.1363636363636364</v>
+        <v>0.1257355821295787</v>
       </c>
       <c r="J34">
         <v>-0.1363636363636364</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>-0.1363636363636364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>36130</v>
       </c>
@@ -1437,7 +1536,7 @@
         <v>9.375</v>
       </c>
       <c r="F35">
-        <v>4.929962158203125</v>
+        <v>4.928264617919922</v>
       </c>
       <c r="G35">
         <v>30400</v>
@@ -1446,13 +1545,16 @@
         <v>-0.01315789473684215</v>
       </c>
       <c r="I35">
-        <v>-0.1379310344827587</v>
+        <v>0.1237673904250709</v>
       </c>
       <c r="J35">
         <v>-0.1379310344827587</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>-0.1379310344827587</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>36161</v>
       </c>
@@ -1469,7 +1571,7 @@
         <v>8.6875</v>
       </c>
       <c r="F36">
-        <v>4.56843090057373</v>
+        <v>4.566857814788818</v>
       </c>
       <c r="G36">
         <v>70200</v>
@@ -1478,13 +1580,16 @@
         <v>-0.07333333333333336</v>
       </c>
       <c r="I36">
-        <v>-0.1366459627329193</v>
+        <v>0.1224638845952983</v>
       </c>
       <c r="J36">
         <v>-0.1366459627329193</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>-0.1366459627329193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>36192</v>
       </c>
@@ -1501,7 +1606,7 @@
         <v>8.6875</v>
       </c>
       <c r="F37">
-        <v>4.56843090057373</v>
+        <v>4.566857814788818</v>
       </c>
       <c r="G37">
         <v>56500</v>
@@ -1510,13 +1615,16 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>-0.2146892655367232</v>
+        <v>0.1206532202708956</v>
       </c>
       <c r="J37">
         <v>-0.2146892655367232</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>-0.2146892655367232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>36220</v>
       </c>
@@ -1533,7 +1641,7 @@
         <v>9.75</v>
       </c>
       <c r="F38">
-        <v>5.127159118652344</v>
+        <v>5.125394821166992</v>
       </c>
       <c r="G38">
         <v>19700</v>
@@ -1542,13 +1650,16 @@
         <v>0.1223021582733812</v>
       </c>
       <c r="I38">
-        <v>-0.1186440677966102</v>
+        <v>0.1208079979170955</v>
       </c>
       <c r="J38">
         <v>-0.1186440677966102</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>-0.1186440677966102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>36251</v>
       </c>
@@ -1565,7 +1676,7 @@
         <v>12.0625</v>
       </c>
       <c r="F39">
-        <v>6.343214988708496</v>
+        <v>6.341032028198242</v>
       </c>
       <c r="G39">
         <v>68600</v>
@@ -1574,13 +1685,16 @@
         <v>0.2371794871794872</v>
       </c>
       <c r="I39">
-        <v>0.20625</v>
+        <v>0.1254349259407122</v>
       </c>
       <c r="J39">
         <v>0.20625</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>0.20625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>36281</v>
       </c>
@@ -1597,7 +1711,7 @@
         <v>11.3125</v>
       </c>
       <c r="F40">
-        <v>5.948821067810059</v>
+        <v>5.946771621704102</v>
       </c>
       <c r="G40">
         <v>33300</v>
@@ -1606,13 +1720,16 @@
         <v>-0.06217616580310881</v>
       </c>
       <c r="I40">
-        <v>0.3609022556390977</v>
+        <v>0.1242010896438993</v>
       </c>
       <c r="J40">
         <v>0.3609022556390977</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>0.3609022556390977</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>36312</v>
       </c>
@@ -1629,7 +1746,7 @@
         <v>12.875</v>
       </c>
       <c r="F41">
-        <v>6.770480155944824</v>
+        <v>6.768147945404053</v>
       </c>
       <c r="G41">
         <v>155300</v>
@@ -1638,13 +1755,16 @@
         <v>0.1381215469613259</v>
       </c>
       <c r="I41">
-        <v>0.6612903225806452</v>
+        <v>0.124456505747683</v>
       </c>
       <c r="J41">
         <v>0.6612903225806452</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>0.6612903225806452</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>36342</v>
       </c>
@@ -1661,7 +1781,7 @@
         <v>11.75</v>
       </c>
       <c r="F42">
-        <v>6.178882598876953</v>
+        <v>6.1767578125</v>
       </c>
       <c r="G42">
         <v>15100</v>
@@ -1670,13 +1790,16 @@
         <v>-0.08737864077669899</v>
       </c>
       <c r="I42">
-        <v>0.6491228070175439</v>
+        <v>0.1237398909789842</v>
       </c>
       <c r="J42">
         <v>0.6491228070175439</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>0.6491228070175439</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>36373</v>
       </c>
@@ -1693,7 +1816,7 @@
         <v>11.8125</v>
       </c>
       <c r="F43">
-        <v>6.342217922210693</v>
+        <v>6.340038776397705</v>
       </c>
       <c r="G43">
         <v>75300</v>
@@ -1702,13 +1825,16 @@
         <v>0.005319148936170137</v>
       </c>
       <c r="I43">
-        <v>1.123595505617978</v>
+        <v>0.1221835423657137</v>
       </c>
       <c r="J43">
         <v>1.123595505617978</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>1.123595505617978</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>36404</v>
       </c>
@@ -1725,7 +1851,7 @@
         <v>11.375</v>
       </c>
       <c r="F44">
-        <v>6.107323169708252</v>
+        <v>6.105221271514893</v>
       </c>
       <c r="G44">
         <v>35800</v>
@@ -1734,13 +1860,16 @@
         <v>-0.03703703703703709</v>
       </c>
       <c r="I44">
-        <v>0.625</v>
+        <v>0.1208500903177065</v>
       </c>
       <c r="J44">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>36434</v>
       </c>
@@ -1757,7 +1886,7 @@
         <v>12</v>
       </c>
       <c r="F45">
-        <v>6.442888259887695</v>
+        <v>6.440671920776367</v>
       </c>
       <c r="G45">
         <v>25100</v>
@@ -1766,13 +1895,16 @@
         <v>0.05494505494505497</v>
       </c>
       <c r="I45">
-        <v>0.2387096774193549</v>
+        <v>0.1196652456400416</v>
       </c>
       <c r="J45">
         <v>0.2387096774193549</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>0.2387096774193549</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>36465</v>
       </c>
@@ -1789,7 +1921,7 @@
         <v>13.0625</v>
       </c>
       <c r="F46">
-        <v>7.013356685638428</v>
+        <v>7.010937213897705</v>
       </c>
       <c r="G46">
         <v>26000</v>
@@ -1798,13 +1930,16 @@
         <v>0.08854166666666674</v>
       </c>
       <c r="I46">
-        <v>0.375</v>
+        <v>0.1189470690284223</v>
       </c>
       <c r="J46">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>36495</v>
       </c>
@@ -1821,7 +1956,7 @@
         <v>14.25</v>
       </c>
       <c r="F47">
-        <v>7.722782135009766</v>
+        <v>7.720126628875732</v>
       </c>
       <c r="G47">
         <v>31400</v>
@@ -1830,13 +1965,16 @@
         <v>0.09090909090909083</v>
       </c>
       <c r="I47">
-        <v>0.52</v>
+        <v>0.1182649746862281</v>
       </c>
       <c r="J47">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>36526</v>
       </c>
@@ -1853,7 +1991,7 @@
         <v>13</v>
       </c>
       <c r="F48">
-        <v>7.045347213745117</v>
+        <v>7.04292106628418</v>
       </c>
       <c r="G48">
         <v>55000</v>
@@ -1862,13 +2000,16 @@
         <v>-0.08771929824561409</v>
       </c>
       <c r="I48">
-        <v>0.4964028776978417</v>
+        <v>0.1177921593528134</v>
       </c>
       <c r="J48">
         <v>0.4964028776978417</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>0.4964028776978417</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>36557</v>
       </c>
@@ -1885,7 +2026,7 @@
         <v>13.3125</v>
       </c>
       <c r="F49">
-        <v>7.214706420898438</v>
+        <v>7.212223052978516</v>
       </c>
       <c r="G49">
         <v>117400</v>
@@ -1894,13 +2035,16 @@
         <v>0.02403846153846145</v>
       </c>
       <c r="I49">
-        <v>0.5323741007194245</v>
+        <v>0.1165347307621736</v>
       </c>
       <c r="J49">
         <v>0.5323741007194245</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>0.5323741007194245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>36586</v>
       </c>
@@ -1917,7 +2061,7 @@
         <v>13.6875</v>
       </c>
       <c r="F50">
-        <v>7.4179368019104</v>
+        <v>7.415384292602539</v>
       </c>
       <c r="G50">
         <v>24500</v>
@@ -1926,13 +2070,16 @@
         <v>0.028169014084507</v>
       </c>
       <c r="I50">
-        <v>0.4038461538461537</v>
+        <v>0.1153314975242583</v>
       </c>
       <c r="J50">
         <v>0.4038461538461537</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>0.4038461538461537</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>36617</v>
       </c>
@@ -1949,7 +2096,7 @@
         <v>12.5625</v>
       </c>
       <c r="F51">
-        <v>6.808244228363037</v>
+        <v>6.805900096893311</v>
       </c>
       <c r="G51">
         <v>90800</v>
@@ -1958,13 +2105,16 @@
         <v>-0.0821917808219178</v>
       </c>
       <c r="I51">
-        <v>0.04145077720207246</v>
+        <v>0.1148291819686336</v>
       </c>
       <c r="J51">
         <v>0.04145077720207246</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>0.04145077720207246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>36647</v>
       </c>
@@ -1981,7 +2131,7 @@
         <v>11.625</v>
       </c>
       <c r="F52">
-        <v>6.300167083740234</v>
+        <v>6.297996044158936</v>
       </c>
       <c r="G52">
         <v>42000</v>
@@ -1990,13 +2140,16 @@
         <v>-0.07462686567164178</v>
       </c>
       <c r="I52">
-        <v>0.02762430939226523</v>
+        <v>0.1142072426189531</v>
       </c>
       <c r="J52">
         <v>0.02762430939226523</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>0.02762430939226523</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>36678</v>
       </c>
@@ -2013,7 +2166,7 @@
         <v>12.4375</v>
       </c>
       <c r="F53">
-        <v>6.740500450134277</v>
+        <v>6.738179683685303</v>
       </c>
       <c r="G53">
         <v>19300</v>
@@ -2022,13 +2175,16 @@
         <v>0.06989247311827951</v>
       </c>
       <c r="I53">
-        <v>-0.03398058252427183</v>
+        <v>0.113442617780427</v>
       </c>
       <c r="J53">
         <v>-0.03398058252427183</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>-0.03398058252427183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>36708</v>
       </c>
@@ -2045,7 +2201,7 @@
         <v>13.1875</v>
       </c>
       <c r="F54">
-        <v>7.146961212158203</v>
+        <v>7.14450216293335</v>
       </c>
       <c r="G54">
         <v>49900</v>
@@ -2054,13 +2210,16 @@
         <v>0.06030150753768848</v>
       </c>
       <c r="I54">
-        <v>0.1223404255319149</v>
+        <v>0.1125896129618214</v>
       </c>
       <c r="J54">
         <v>0.1223404255319149</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>0.1223404255319149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>36739</v>
       </c>
@@ -2077,7 +2236,7 @@
         <v>13.5</v>
       </c>
       <c r="F55">
-        <v>7.428726673126221</v>
+        <v>7.426172256469727</v>
       </c>
       <c r="G55">
         <v>37500</v>
@@ -2086,13 +2245,16 @@
         <v>0.02369668246445489</v>
       </c>
       <c r="I55">
-        <v>0.1428571428571428</v>
+        <v>0.111529063844906</v>
       </c>
       <c r="J55">
         <v>0.1428571428571428</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>36770</v>
       </c>
@@ -2109,7 +2271,7 @@
         <v>12.125</v>
       </c>
       <c r="F56">
-        <v>6.672096729278564</v>
+        <v>6.669801712036133</v>
       </c>
       <c r="G56">
         <v>51400</v>
@@ -2118,13 +2280,16 @@
         <v>-0.1018518518518519</v>
       </c>
       <c r="I56">
-        <v>0.06593406593406592</v>
+        <v>0.1114438642690765</v>
       </c>
       <c r="J56">
         <v>0.06593406593406592</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>0.06593406593406592</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>36800</v>
       </c>
@@ -2141,7 +2306,7 @@
         <v>11.4375</v>
       </c>
       <c r="F57">
-        <v>6.293783664703369</v>
+        <v>6.291616439819336</v>
       </c>
       <c r="G57">
         <v>244200</v>
@@ -2150,13 +2315,16 @@
         <v>-0.05670103092783507</v>
       </c>
       <c r="I57">
-        <v>-0.046875</v>
+        <v>0.1107108626987821</v>
       </c>
       <c r="J57">
         <v>-0.046875</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>-0.046875</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>36831</v>
       </c>
@@ -2173,7 +2341,7 @@
         <v>10.5</v>
       </c>
       <c r="F58">
-        <v>5.777898788452148</v>
+        <v>5.7759108543396</v>
       </c>
       <c r="G58">
         <v>57900</v>
@@ -2182,13 +2350,16 @@
         <v>-0.08196721311475408</v>
       </c>
       <c r="I58">
-        <v>-0.1961722488038278</v>
+        <v>0.110285381014362</v>
       </c>
       <c r="J58">
         <v>-0.1961722488038278</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>-0.1961722488038278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>36861</v>
       </c>
@@ -2205,7 +2376,7 @@
         <v>11.5</v>
       </c>
       <c r="F59">
-        <v>6.36267614364624</v>
+        <v>6.36048412322998</v>
       </c>
       <c r="G59">
         <v>78500</v>
@@ -2214,13 +2385,16 @@
         <v>0.09523809523809534</v>
       </c>
       <c r="I59">
-        <v>-0.1929824561403509</v>
+        <v>0.1099999307112332</v>
       </c>
       <c r="J59">
         <v>-0.1929824561403509</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>-0.1929824561403509</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>36892</v>
       </c>
@@ -2237,7 +2411,7 @@
         <v>12.14999961853027</v>
       </c>
       <c r="F60">
-        <v>6.722304344177246</v>
+        <v>6.719990253448486</v>
       </c>
       <c r="G60">
         <v>61600</v>
@@ -2246,13 +2420,16 @@
         <v>0.05652170595915429</v>
       </c>
       <c r="I60">
-        <v>-0.06538464472844052</v>
+        <v>0.10925618675438</v>
       </c>
       <c r="J60">
         <v>-0.06538464472844052</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>-0.06538464472844052</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>36923</v>
       </c>
@@ -2269,7 +2446,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="F61">
-        <v>6.606117725372314</v>
+        <v>6.603841781616211</v>
       </c>
       <c r="G61">
         <v>91100</v>
@@ -2278,13 +2455,16 @@
         <v>-0.01728395429961138</v>
       </c>
       <c r="I61">
-        <v>-0.103098623069799</v>
+        <v>0.1083457278846527</v>
       </c>
       <c r="J61">
         <v>-0.103098623069799</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>-0.103098623069799</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>36951</v>
       </c>
@@ -2301,7 +2481,7 @@
         <v>10.67000007629395</v>
       </c>
       <c r="F62">
-        <v>5.903455257415771</v>
+        <v>5.901425361633301</v>
       </c>
       <c r="G62">
         <v>24600</v>
@@ -2310,13 +2490,16 @@
         <v>-0.1063651213334955</v>
       </c>
       <c r="I62">
-        <v>-0.2204566154305794</v>
+        <v>0.1083585839161172</v>
       </c>
       <c r="J62">
         <v>-0.2204566154305794</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>-0.2204566154305794</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>36982</v>
       </c>
@@ -2333,7 +2516,7 @@
         <v>10.73999977111816</v>
       </c>
       <c r="F63">
-        <v>5.94218635559082</v>
+        <v>5.94013786315918</v>
       </c>
       <c r="G63">
         <v>52800</v>
@@ -2342,13 +2525,16 @@
         <v>0.006560421211218248</v>
       </c>
       <c r="I63">
-        <v>-0.1450746450851212</v>
+        <v>0.1074535132187958</v>
       </c>
       <c r="J63">
         <v>-0.1450746450851212</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>-0.1450746450851212</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>37012</v>
       </c>
@@ -2365,7 +2551,7 @@
         <v>10.63000011444092</v>
       </c>
       <c r="F64">
-        <v>5.881326675415039</v>
+        <v>5.879300117492676</v>
       </c>
       <c r="G64">
         <v>15000</v>
@@ -2374,13 +2560,16 @@
         <v>-0.01024205391261324</v>
       </c>
       <c r="I64">
-        <v>-0.08559138800508237</v>
+        <v>0.1065802652829603</v>
       </c>
       <c r="J64">
         <v>-0.08559138800508237</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>-0.08559138800508237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>37043</v>
       </c>
@@ -2397,7 +2586,7 @@
         <v>10.07999992370605</v>
       </c>
       <c r="F65">
-        <v>5.577022075653076</v>
+        <v>5.575101852416992</v>
       </c>
       <c r="G65">
         <v>27800</v>
@@ -2406,13 +2595,16 @@
         <v>-0.05174037486487748</v>
       </c>
       <c r="I65">
-        <v>-0.1895477448276539</v>
+        <v>0.1059314774940867</v>
       </c>
       <c r="J65">
         <v>-0.1895477448276539</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>-0.1895477448276539</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>37073</v>
       </c>
@@ -2429,7 +2621,7 @@
         <v>9.800000190734863</v>
       </c>
       <c r="F66">
-        <v>5.422105312347412</v>
+        <v>5.420240879058838</v>
       </c>
       <c r="G66">
         <v>27000</v>
@@ -2438,13 +2630,16 @@
         <v>-0.02777775149706996</v>
       </c>
       <c r="I66">
-        <v>-0.2568720234513848</v>
+        <v>0.1051483281092831</v>
       </c>
       <c r="J66">
         <v>-0.2568720234513848</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>-0.2568720234513848</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>37104</v>
       </c>
@@ -2461,7 +2656,7 @@
         <v>9.039999961853027</v>
       </c>
       <c r="F67">
-        <v>5.098464965820312</v>
+        <v>5.096710681915283</v>
       </c>
       <c r="G67">
         <v>25000</v>
@@ -2470,13 +2665,16 @@
         <v>-0.07755104225409681</v>
       </c>
       <c r="I67">
-        <v>-0.3303703731960721</v>
+        <v>0.1047708150585036</v>
       </c>
       <c r="J67">
         <v>-0.3303703731960721</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>-0.3303703731960721</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>37135</v>
       </c>
@@ -2493,7 +2691,7 @@
         <v>7.929999828338623</v>
       </c>
       <c r="F68">
-        <v>4.472435474395752</v>
+        <v>4.47089672088623</v>
       </c>
       <c r="G68">
         <v>699900</v>
@@ -2502,13 +2700,16 @@
         <v>-0.1227876259069005</v>
       </c>
       <c r="I68">
-        <v>-0.3459793956009383</v>
+        <v>0.1050407297427574</v>
       </c>
       <c r="J68">
         <v>-0.3459793956009383</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>-0.3459793956009383</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>37165</v>
       </c>
@@ -2525,7 +2726,7 @@
         <v>8.029999732971191</v>
       </c>
       <c r="F69">
-        <v>4.528834342956543</v>
+        <v>4.527276039123535</v>
       </c>
       <c r="G69">
         <v>82700</v>
@@ -2534,13 +2735,16 @@
         <v>0.01261032872601198</v>
       </c>
       <c r="I69">
-        <v>-0.2979235206145406</v>
+        <v>0.1042585741535207</v>
       </c>
       <c r="J69">
         <v>-0.2979235206145406</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>-0.2979235206145406</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>37196</v>
       </c>
@@ -2557,7 +2761,7 @@
         <v>8.850000381469727</v>
       </c>
       <c r="F70">
-        <v>4.991305828094482</v>
+        <v>4.989589214324951</v>
       </c>
       <c r="G70">
         <v>39200</v>
@@ -2566,13 +2770,16 @@
         <v>0.1021171451764327</v>
       </c>
       <c r="I70">
-        <v>-0.157142820812407</v>
+        <v>0.1042510969693572</v>
       </c>
       <c r="J70">
         <v>-0.157142820812407</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>-0.157142820812407</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>37226</v>
       </c>
@@ -2589,7 +2796,7 @@
         <v>9.170000076293945</v>
       </c>
       <c r="F71">
-        <v>5.205921173095703</v>
+        <v>5.204127311706543</v>
       </c>
       <c r="G71">
         <v>54200</v>
@@ -2598,13 +2805,16 @@
         <v>0.03615815604869788</v>
       </c>
       <c r="I71">
-        <v>-0.2026086890179178</v>
+        <v>0.1035776905476575</v>
       </c>
       <c r="J71">
         <v>-0.2026086890179178</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>-0.2026086890179178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>37257</v>
       </c>
@@ -2621,7 +2831,7 @@
         <v>9.090000152587891</v>
       </c>
       <c r="F72">
-        <v>5.160502910614014</v>
+        <v>5.158726692199707</v>
       </c>
       <c r="G72">
         <v>36300</v>
@@ -2630,13 +2840,16 @@
         <v>-0.008724091934619316</v>
       </c>
       <c r="I72">
-        <v>-0.2518518158038047</v>
+        <v>0.1028292748399173</v>
       </c>
       <c r="J72">
         <v>-0.2518518158038047</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>-0.2518518158038047</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>37288</v>
       </c>
@@ -2653,7 +2866,7 @@
         <v>8.670000076293945</v>
       </c>
       <c r="F73">
-        <v>4.922063827514648</v>
+        <v>4.920370578765869</v>
       </c>
       <c r="G73">
         <v>12100</v>
@@ -2662,13 +2875,16 @@
         <v>-0.04620462807961256</v>
       </c>
       <c r="I73">
-        <v>-0.2738693148249157</v>
+        <v>0.1022364013888585</v>
       </c>
       <c r="J73">
         <v>-0.2738693148249157</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>-0.2738693148249157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>37316</v>
       </c>
@@ -2685,7 +2901,7 @@
         <v>9.189999580383301</v>
       </c>
       <c r="F74">
-        <v>5.217275619506836</v>
+        <v>5.215478420257568</v>
       </c>
       <c r="G74">
         <v>13400</v>
@@ -2694,13 +2910,16 @@
         <v>0.05997687422300846</v>
       </c>
       <c r="I74">
-        <v>-0.1387066996558728</v>
+        <v>0.101768753111378</v>
       </c>
       <c r="J74">
         <v>-0.1387066996558728</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>-0.1387066996558728</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>37347</v>
       </c>
@@ -2717,7 +2936,7 @@
         <v>9.890000343322754</v>
       </c>
       <c r="F75">
-        <v>5.614673137664795</v>
+        <v>5.612741947174072</v>
       </c>
       <c r="G75">
         <v>242400</v>
@@ -2726,13 +2945,16 @@
         <v>0.07616983622432949</v>
       </c>
       <c r="I75">
-        <v>-0.07914333760799652</v>
+        <v>0.1014546158326173</v>
       </c>
       <c r="J75">
         <v>-0.07914333760799652</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>-0.07914333760799652</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>37377</v>
       </c>
@@ -2749,7 +2971,7 @@
         <v>9.510000228881836</v>
       </c>
       <c r="F76">
-        <v>5.398943901062012</v>
+        <v>5.39708423614502</v>
       </c>
       <c r="G76">
         <v>459200</v>
@@ -2758,13 +2980,16 @@
         <v>-0.03842265937811373</v>
       </c>
       <c r="I76">
-        <v>-0.1053621706021955</v>
+        <v>0.1008604075270171</v>
       </c>
       <c r="J76">
         <v>-0.1053621706021955</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>-0.1053621706021955</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>37408</v>
       </c>
@@ -2781,7 +3006,7 @@
         <v>8.890000343322754</v>
       </c>
       <c r="F77">
-        <v>5.046961784362793</v>
+        <v>5.045223712921143</v>
       </c>
       <c r="G77">
         <v>75900</v>
@@ -2790,13 +3015,16 @@
         <v>-0.06519451846868995</v>
       </c>
       <c r="I77">
-        <v>-0.1180555148204585</v>
+        <v>0.1004613485957641</v>
       </c>
       <c r="J77">
         <v>-0.1180555148204585</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>-0.1180555148204585</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>37438</v>
       </c>
@@ -2813,7 +3041,7 @@
         <v>8.369999885559082</v>
       </c>
       <c r="F78">
-        <v>4.75175142288208</v>
+        <v>4.750115394592285</v>
       </c>
       <c r="G78">
         <v>71100</v>
@@ -2822,13 +3050,16 @@
         <v>-0.05849273764699481</v>
       </c>
       <c r="I78">
-        <v>-0.1459183956473527</v>
+        <v>0.1000100130240347</v>
       </c>
       <c r="J78">
         <v>-0.1459183956473527</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>-0.1459183956473527</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>37469</v>
       </c>
@@ -2845,7 +3076,7 @@
         <v>7.820000171661377</v>
       </c>
       <c r="F79">
-        <v>4.439508438110352</v>
+        <v>4.437981128692627</v>
       </c>
       <c r="G79">
         <v>18300</v>
@@ -2854,13 +3085,16 @@
         <v>-0.06571083887905782</v>
       </c>
       <c r="I79">
-        <v>-0.1349557295729871</v>
+        <v>0.09962007835834275</v>
       </c>
       <c r="J79">
         <v>-0.1349557295729871</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>-0.1349557295729871</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>37500</v>
       </c>
@@ -2877,7 +3111,7 @@
         <v>7.130000114440918</v>
       </c>
       <c r="F80">
-        <v>4.047787666320801</v>
+        <v>4.046394824981689</v>
       </c>
       <c r="G80">
         <v>48800</v>
@@ -2886,13 +3120,16 @@
         <v>-0.08823529949793685</v>
       </c>
       <c r="I80">
-        <v>-0.100882689938886</v>
+        <v>0.09944928584643109</v>
       </c>
       <c r="J80">
         <v>-0.100882689938886</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>-0.100882689938886</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>37530</v>
       </c>
@@ -2909,7 +3146,7 @@
         <v>7.610000133514404</v>
       </c>
       <c r="F81">
-        <v>4.320290088653564</v>
+        <v>4.318802833557129</v>
       </c>
       <c r="G81">
         <v>29700</v>
@@ -2918,13 +3155,16 @@
         <v>0.06732117971517382</v>
       </c>
       <c r="I81">
-        <v>-0.05230381238149584</v>
+        <v>0.09912875532333747</v>
       </c>
       <c r="J81">
         <v>-0.05230381238149584</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>-0.05230381238149584</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>37561</v>
       </c>
@@ -2941,7 +3181,7 @@
         <v>8.010000228881836</v>
       </c>
       <c r="F82">
-        <v>4.547374725341797</v>
+        <v>4.545809268951416</v>
       </c>
       <c r="G82">
         <v>49000</v>
@@ -2950,13 +3190,16 @@
         <v>0.05256242948089218</v>
       </c>
       <c r="I82">
-        <v>-0.09491526738763723</v>
+        <v>0.09869095672011999</v>
       </c>
       <c r="J82">
         <v>-0.09491526738763723</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>-0.09491526738763723</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>37591</v>
       </c>
@@ -2973,7 +3216,7 @@
         <v>7.429999828338623</v>
       </c>
       <c r="F83">
-        <v>4.298198223114014</v>
+        <v>4.296719074249268</v>
       </c>
       <c r="G83">
         <v>28000</v>
@@ -2982,13 +3225,16 @@
         <v>-0.07240953607615297</v>
       </c>
       <c r="I83">
-        <v>-0.1897492075767292</v>
+        <v>0.09838615050149933</v>
       </c>
       <c r="J83">
         <v>-0.1897492075767292</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>-0.1897492075767292</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>37622</v>
       </c>
@@ -3005,7 +3251,7 @@
         <v>7.480000019073486</v>
       </c>
       <c r="F84">
-        <v>4.327123165130615</v>
+        <v>4.325634002685547</v>
       </c>
       <c r="G84">
         <v>25200</v>
@@ -3014,13 +3260,16 @@
         <v>0.006729500927329601</v>
       </c>
       <c r="I84">
-        <v>-0.1771177234860709</v>
+        <v>0.0977823703619406</v>
       </c>
       <c r="J84">
         <v>-0.1771177234860709</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>-0.1771177234860709</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>37653</v>
       </c>
@@ -3037,7 +3286,7 @@
         <v>7.340000152587891</v>
       </c>
       <c r="F85">
-        <v>4.246135234832764</v>
+        <v>4.244673728942871</v>
       </c>
       <c r="G85">
         <v>11100</v>
@@ -3046,13 +3295,16 @@
         <v>-0.01871655964286167</v>
       </c>
       <c r="I85">
-        <v>-0.1534025273359135</v>
+        <v>0.09720063459709143</v>
       </c>
       <c r="J85">
         <v>-0.1534025273359135</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>-0.1534025273359135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>37681</v>
       </c>
@@ -3069,7 +3321,7 @@
         <v>6.829999923706055</v>
       </c>
       <c r="F86">
-        <v>3.951103925704956</v>
+        <v>3.949743747711182</v>
       </c>
       <c r="G86">
         <v>167400</v>
@@ -3078,13 +3330,16 @@
         <v>-0.06948231856671327</v>
       </c>
       <c r="I86">
-        <v>-0.2568008448786908</v>
+        <v>0.09688784830626998</v>
       </c>
       <c r="J86">
         <v>-0.2568008448786908</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>-0.2568008448786908</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>37712</v>
       </c>
@@ -3101,7 +3356,7 @@
         <v>6.929999828338623</v>
       </c>
       <c r="F87">
-        <v>4.008951187133789</v>
+        <v>4.007572650909424</v>
       </c>
       <c r="G87">
         <v>594800</v>
@@ -3110,13 +3365,16 @@
         <v>0.01464127463391063</v>
       </c>
       <c r="I87">
-        <v>-0.299292256039463</v>
+        <v>0.09632945639499602</v>
       </c>
       <c r="J87">
         <v>-0.299292256039463</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>-0.299292256039463</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>37742</v>
       </c>
@@ -3133,7 +3391,7 @@
         <v>7.610000133514404</v>
       </c>
       <c r="F88">
-        <v>4.402327537536621</v>
+        <v>4.400813102722168</v>
       </c>
       <c r="G88">
         <v>374000</v>
@@ -3142,13 +3400,16 @@
         <v>0.09812414459161722</v>
       </c>
       <c r="I88">
-        <v>-0.1997897002775182</v>
+        <v>0.09638321805959749</v>
       </c>
       <c r="J88">
         <v>-0.1997897002775182</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>-0.1997897002775182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>37773</v>
       </c>
@@ -3165,7 +3426,7 @@
         <v>7.650000095367432</v>
       </c>
       <c r="F89">
-        <v>4.425467967987061</v>
+        <v>4.423945426940918</v>
       </c>
       <c r="G89">
         <v>1176800</v>
@@ -3174,13 +3435,16 @@
         <v>0.005256236682160909</v>
       </c>
       <c r="I89">
-        <v>-0.1394825871842268</v>
+        <v>0.09582444435619415</v>
       </c>
       <c r="J89">
         <v>-0.1394825871842268</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>-0.1394825871842268</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>37803</v>
       </c>
@@ -3197,7 +3461,7 @@
         <v>8.149999618530273</v>
       </c>
       <c r="F90">
-        <v>4.714713573455811</v>
+        <v>4.713090419769287</v>
       </c>
       <c r="G90">
         <v>258500</v>
@@ -3206,13 +3470,16 @@
         <v>0.06535941397773626</v>
       </c>
       <c r="I90">
-        <v>-0.02628438112745723</v>
+        <v>0.09554235312012557</v>
       </c>
       <c r="J90">
         <v>-0.02628438112745723</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>-0.02628438112745723</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>37834</v>
       </c>
@@ -3229,7 +3496,7 @@
         <v>9.060000419616699</v>
       </c>
       <c r="F91">
-        <v>5.241141796112061</v>
+        <v>5.239339828491211</v>
       </c>
       <c r="G91">
         <v>698000</v>
@@ -3238,13 +3505,16 @@
         <v>0.1116565452368119</v>
       </c>
       <c r="I91">
-        <v>0.1585678031630888</v>
+        <v>0.09574866646707647</v>
       </c>
       <c r="J91">
         <v>0.1585678031630888</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>0.1585678031630888</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>37865</v>
       </c>
@@ -3261,7 +3531,7 @@
         <v>9.470000267028809</v>
       </c>
       <c r="F92">
-        <v>5.478322505950928</v>
+        <v>5.476437568664551</v>
       </c>
       <c r="G92">
         <v>610700</v>
@@ -3270,13 +3540,16 @@
         <v>0.04525384419678158</v>
       </c>
       <c r="I92">
-        <v>0.3281907594711695</v>
+        <v>0.09532848030818721</v>
       </c>
       <c r="J92">
         <v>0.3281907594711695</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>0.3281907594711695</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>37895</v>
       </c>
@@ -3293,7 +3566,7 @@
         <v>10.05000019073486</v>
       </c>
       <c r="F93">
-        <v>5.813849925994873</v>
+        <v>5.811847686767578</v>
       </c>
       <c r="G93">
         <v>332500</v>
@@ -3302,13 +3575,16 @@
         <v>0.06124603034335796</v>
       </c>
       <c r="I93">
-        <v>0.3206307509082307</v>
+        <v>0.09501078546485123</v>
       </c>
       <c r="J93">
         <v>0.3206307509082307</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>0.3206307509082307</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>37926</v>
       </c>
@@ -3325,7 +3601,7 @@
         <v>9.939999580383301</v>
       </c>
       <c r="F94">
-        <v>5.750215530395508</v>
+        <v>5.748235702514648</v>
       </c>
       <c r="G94">
         <v>975000</v>
@@ -3334,13 +3610,16 @@
         <v>-0.0109453341556125</v>
       </c>
       <c r="I94">
-        <v>0.2409487261364143</v>
+        <v>0.09449579425616747</v>
       </c>
       <c r="J94">
         <v>0.2409487261364143</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>0.2409487261364143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>37956</v>
       </c>
@@ -3357,7 +3636,7 @@
         <v>10</v>
       </c>
       <c r="F95">
-        <v>5.957452297210693</v>
+        <v>5.955402374267578</v>
       </c>
       <c r="G95">
         <v>263300</v>
@@ -3366,13 +3645,16 @@
         <v>0.006036259773603003</v>
       </c>
       <c r="I95">
-        <v>0.3458950512837413</v>
+        <v>0.09398223741247716</v>
       </c>
       <c r="J95">
         <v>0.3458950512837413</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>0.3458950512837413</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>37987</v>
       </c>
@@ -3389,7 +3671,7 @@
         <v>10.89000034332275</v>
       </c>
       <c r="F96">
-        <v>6.487666606903076</v>
+        <v>6.485433578491211</v>
       </c>
       <c r="G96">
         <v>642900</v>
@@ -3398,13 +3680,16 @@
         <v>0.08900003433227544</v>
       </c>
       <c r="I96">
-        <v>0.4558823951275401</v>
+        <v>0.09391398567428444</v>
       </c>
       <c r="J96">
         <v>0.4558823951275401</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>0.4558823951275401</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>38018</v>
       </c>
@@ -3421,7 +3706,7 @@
         <v>11.28999996185303</v>
       </c>
       <c r="F97">
-        <v>6.72596263885498</v>
+        <v>6.723648071289062</v>
       </c>
       <c r="G97">
         <v>306500</v>
@@ -3430,13 +3715,16 @@
         <v>0.03673090963450099</v>
       </c>
       <c r="I97">
-        <v>0.5381471017916084</v>
+        <v>0.09348081469590108</v>
       </c>
       <c r="J97">
         <v>0.5381471017916084</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>0.5381471017916084</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>38047</v>
       </c>
@@ -3453,7 +3741,7 @@
         <v>10.60000038146973</v>
       </c>
       <c r="F98">
-        <v>6.314900398254395</v>
+        <v>6.312726020812988</v>
       </c>
       <c r="G98">
         <v>400900</v>
@@ -3462,13 +3750,16 @@
         <v>-0.06111599492601338</v>
       </c>
       <c r="I98">
-        <v>0.5519766471268153</v>
+        <v>0.09321337020436445</v>
       </c>
       <c r="J98">
         <v>0.5519766471268153</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>0.5519766471268153</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>38078</v>
       </c>
@@ -3485,7 +3776,7 @@
         <v>9.810000419616699</v>
       </c>
       <c r="F99">
-        <v>5.844262599945068</v>
+        <v>5.842250823974609</v>
       </c>
       <c r="G99">
         <v>849400</v>
@@ -3494,13 +3785,16 @@
         <v>-0.07452829560591878</v>
       </c>
       <c r="I99">
-        <v>0.4155845112002721</v>
+        <v>0.09304959527719259</v>
       </c>
       <c r="J99">
         <v>0.4155845112002721</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>0.4155845112002721</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>38108</v>
       </c>
@@ -3517,7 +3811,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="F100">
-        <v>5.993196964263916</v>
+        <v>5.991135120391846</v>
       </c>
       <c r="G100">
         <v>97500</v>
@@ -3526,13 +3820,16 @@
         <v>0.02548419870605545</v>
       </c>
       <c r="I100">
-        <v>0.3219448414084127</v>
+        <v>0.0926018162442781</v>
       </c>
       <c r="J100">
         <v>0.3219448414084127</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <v>0.3219448414084127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>38139</v>
       </c>
@@ -3549,7 +3846,7 @@
         <v>10.13000011444092</v>
       </c>
       <c r="F101">
-        <v>6.03489875793457</v>
+        <v>6.032822132110596</v>
       </c>
       <c r="G101">
         <v>662200</v>
@@ -3558,13 +3855,16 @@
         <v>0.006958219871216142</v>
       </c>
       <c r="I101">
-        <v>0.3241830049878414</v>
+        <v>0.09212994800189282</v>
       </c>
       <c r="J101">
         <v>0.3241830049878414</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>0.3241830049878414</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>38169</v>
       </c>
@@ -3581,7 +3881,7 @@
         <v>10.14000034332275</v>
       </c>
       <c r="F102">
-        <v>6.040858745574951</v>
+        <v>6.038778305053711</v>
       </c>
       <c r="G102">
         <v>166800</v>
@@ -3590,13 +3890,16 @@
         <v>0.0009871894144977134</v>
       </c>
       <c r="I102">
-        <v>0.2441718795014307</v>
+        <v>0.09166346904959551</v>
       </c>
       <c r="J102">
         <v>0.2441718795014307</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>0.2441718795014307</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>38200</v>
       </c>
@@ -3613,7 +3916,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="F103">
-        <v>6.517452716827393</v>
+        <v>6.515210151672363</v>
       </c>
       <c r="G103">
         <v>314900</v>
@@ -3622,13 +3925,16 @@
         <v>0.07889538559901044</v>
       </c>
       <c r="I103">
-        <v>0.2075054165225014</v>
+        <v>0.09153039714628865</v>
       </c>
       <c r="J103">
         <v>0.2075054165225014</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <v>0.2075054165225014</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>38231</v>
       </c>
@@ -3645,7 +3951,7 @@
         <v>11.11999988555908</v>
       </c>
       <c r="F104">
-        <v>6.624686717987061</v>
+        <v>6.622406959533691</v>
       </c>
       <c r="G104">
         <v>387200</v>
@@ -3654,13 +3960,16 @@
         <v>0.01645341061059491</v>
       </c>
       <c r="I104">
-        <v>0.1742343793035559</v>
+        <v>0.09108731576868462</v>
       </c>
       <c r="J104">
         <v>0.1742343793035559</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>0.1742343793035559</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>38261</v>
       </c>
@@ -3677,7 +3986,7 @@
         <v>11.13000011444092</v>
       </c>
       <c r="F105">
-        <v>6.630645275115967</v>
+        <v>6.628361701965332</v>
       </c>
       <c r="G105">
         <v>182900</v>
@@ -3686,13 +3995,16 @@
         <v>0.0008993011676936558</v>
       </c>
       <c r="I105">
-        <v>0.1074626769362363</v>
+        <v>0.09063979881512721</v>
       </c>
       <c r="J105">
         <v>0.1074626769362363</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>0.1074626769362363</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>38292</v>
       </c>
@@ -3709,7 +4021,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="F106">
-        <v>7.184688568115234</v>
+        <v>7.182215213775635</v>
       </c>
       <c r="G106">
         <v>544900</v>
@@ -3718,13 +4030,16 @@
         <v>0.08355797804252729</v>
       </c>
       <c r="I106">
-        <v>0.2132797715019268</v>
+        <v>0.09055103723877611</v>
       </c>
       <c r="J106">
         <v>0.2132797715019268</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>0.2132797715019268</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>38322</v>
       </c>
@@ -3741,7 +4056,7 @@
         <v>12.09000015258789</v>
       </c>
       <c r="F107">
-        <v>7.366806030273438</v>
+        <v>7.364267349243164</v>
       </c>
       <c r="G107">
         <v>265600</v>
@@ -3750,13 +4065,16 @@
         <v>0.002487539960810858</v>
       </c>
       <c r="I107">
-        <v>0.209000015258789</v>
+        <v>0.09011465597053951</v>
       </c>
       <c r="J107">
         <v>0.209000015258789</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>0.209000015258789</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>38353</v>
       </c>
@@ -3773,7 +4091,7 @@
         <v>11.52000045776367</v>
       </c>
       <c r="F108">
-        <v>7.019487857818604</v>
+        <v>7.017068862915039</v>
       </c>
       <c r="G108">
         <v>236200</v>
@@ -3782,13 +4100,16 @@
         <v>-0.04714637614807715</v>
       </c>
       <c r="I108">
-        <v>0.05785124835438649</v>
+        <v>0.08981644126176944</v>
       </c>
       <c r="J108">
         <v>0.05785124835438649</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>0.05785124835438649</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>38384</v>
       </c>
@@ -3805,7 +4126,7 @@
         <v>11.90999984741211</v>
       </c>
       <c r="F109">
-        <v>7.257123947143555</v>
+        <v>7.254626750946045</v>
       </c>
       <c r="G109">
         <v>617700</v>
@@ -3814,13 +4135,16 @@
         <v>0.03385411233951863</v>
       </c>
       <c r="I109">
-        <v>0.05491584478777289</v>
+        <v>0.08944320510823718</v>
       </c>
       <c r="J109">
         <v>0.05491584478777289</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>0.05491584478777289</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>38412</v>
       </c>
@@ -3837,7 +4161,7 @@
         <v>11.51000022888184</v>
       </c>
       <c r="F110">
-        <v>7.013391017913818</v>
+        <v>7.010978221893311</v>
       </c>
       <c r="G110">
         <v>322300</v>
@@ -3846,13 +4170,16 @@
         <v>-0.03358519090301992</v>
       </c>
       <c r="I110">
-        <v>0.08584903911917929</v>
+        <v>0.08909299647036648</v>
       </c>
       <c r="J110">
         <v>0.08584903911917929</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <v>0.08584903911917929</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>38443</v>
       </c>
@@ -3869,7 +4196,7 @@
         <v>12.05000019073486</v>
       </c>
       <c r="F111">
-        <v>7.342430114746094</v>
+        <v>7.339904308319092</v>
       </c>
       <c r="G111">
         <v>750300</v>
@@ -3878,13 +4205,16 @@
         <v>0.0469157212089375</v>
       </c>
       <c r="I111">
-        <v>0.2283383970747768</v>
+        <v>0.08878183342310871</v>
       </c>
       <c r="J111">
         <v>0.2283383970747768</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <v>0.2283383970747768</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>38473</v>
       </c>
@@ -3901,7 +4231,7 @@
         <v>12.05000019073486</v>
       </c>
       <c r="F112">
-        <v>7.342430114746094</v>
+        <v>7.339904308319092</v>
       </c>
       <c r="G112">
         <v>367300</v>
@@ -3910,13 +4240,16 @@
         <v>0</v>
       </c>
       <c r="I112">
-        <v>0.1978130902696311</v>
+        <v>0.08837405603127875</v>
       </c>
       <c r="J112">
         <v>0.1978130902696311</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <v>0.1978130902696311</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>38504</v>
       </c>
@@ -3933,7 +4266,7 @@
         <v>12.42000007629395</v>
       </c>
       <c r="F113">
-        <v>7.567883491516113</v>
+        <v>7.565275192260742</v>
       </c>
       <c r="G113">
         <v>262200</v>
@@ -3942,13 +4275,16 @@
         <v>0.03070538420767588</v>
       </c>
       <c r="I113">
-        <v>0.2260611980239267</v>
+        <v>0.08801124049946887</v>
       </c>
       <c r="J113">
         <v>0.2260611980239267</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <v>0.2260611980239267</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>38534</v>
       </c>
@@ -3965,7 +4301,7 @@
         <v>13.18000030517578</v>
       </c>
       <c r="F114">
-        <v>8.030974388122559</v>
+        <v>8.02820873260498</v>
       </c>
       <c r="G114">
         <v>410400</v>
@@ -3974,13 +4310,16 @@
         <v>0.06119164446161696</v>
       </c>
       <c r="I114">
-        <v>0.2998027474283946</v>
+        <v>0.08778583911511141</v>
       </c>
       <c r="J114">
         <v>0.2998027474283946</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <v>0.2998027474283946</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>38565</v>
       </c>
@@ -3997,7 +4336,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="F115">
-        <v>7.957852363586426</v>
+        <v>7.955116271972656</v>
       </c>
       <c r="G115">
         <v>477600</v>
@@ -4006,13 +4345,16 @@
         <v>-0.009104695203380087</v>
       </c>
       <c r="I115">
-        <v>0.1937843620245479</v>
+        <v>0.08740122088742552</v>
       </c>
       <c r="J115">
         <v>0.1937843620245479</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <v>0.1937843620245479</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>38596</v>
       </c>
@@ -4029,7 +4371,7 @@
         <v>13.57999992370605</v>
       </c>
       <c r="F116">
-        <v>8.274703979492188</v>
+        <v>8.271856307983398</v>
       </c>
       <c r="G116">
         <v>1097700</v>
@@ -4038,13 +4380,16 @@
         <v>0.03981619352081278</v>
       </c>
       <c r="I116">
-        <v>0.2212230272899225</v>
+        <v>0.08708015780405856</v>
       </c>
       <c r="J116">
         <v>0.2212230272899225</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>0.2212230272899225</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>38626</v>
       </c>
@@ -4061,7 +4406,7 @@
         <v>12.63000011444092</v>
       </c>
       <c r="F117">
-        <v>7.695841312408447</v>
+        <v>7.693192005157471</v>
       </c>
       <c r="G117">
         <v>466800</v>
@@ -4070,13 +4415,16 @@
         <v>-0.06995580372624011</v>
       </c>
       <c r="I117">
-        <v>0.134770888102129</v>
+        <v>0.08696975478411208</v>
       </c>
       <c r="J117">
         <v>0.134770888102129</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <v>0.134770888102129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>38657</v>
       </c>
@@ -4093,7 +4441,7 @@
         <v>12.88000011444092</v>
       </c>
       <c r="F118">
-        <v>7.848174571990967</v>
+        <v>7.845476627349854</v>
       </c>
       <c r="G118">
         <v>509100</v>
@@ -4102,13 +4450,16 @@
         <v>0.01979414075492802</v>
       </c>
       <c r="I118">
-        <v>0.06799333883027181</v>
+        <v>0.08660457707916215</v>
       </c>
       <c r="J118">
         <v>0.06799333883027181</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <v>0.06799333883027181</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>38687</v>
       </c>
@@ -4125,7 +4476,7 @@
         <v>12.61999988555908</v>
       </c>
       <c r="F119">
-        <v>7.904619216918945</v>
+        <v>7.901898384094238</v>
       </c>
       <c r="G119">
         <v>671400</v>
@@ -4134,13 +4485,16 @@
         <v>-0.02018635299469651</v>
       </c>
       <c r="I119">
-        <v>0.0438378599075322</v>
+        <v>0.08625780735766564</v>
       </c>
       <c r="J119">
         <v>0.0438378599075322</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <v>0.0438378599075322</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>38718</v>
       </c>
@@ -4157,7 +4511,7 @@
         <v>13.40999984741211</v>
       </c>
       <c r="F120">
-        <v>8.399440765380859</v>
+        <v>8.396549224853516</v>
       </c>
       <c r="G120">
         <v>1145600</v>
@@ -4166,13 +4520,16 @@
         <v>0.06259904667328997</v>
       </c>
       <c r="I120">
-        <v>0.1640624404988378</v>
+        <v>0.08606286987962235</v>
       </c>
       <c r="J120">
         <v>0.1640624404988378</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>0.1640624404988378</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>38749</v>
       </c>
@@ -4189,7 +4546,7 @@
         <v>13.22999954223633</v>
       </c>
       <c r="F121">
-        <v>8.286698341369629</v>
+        <v>8.283846855163574</v>
       </c>
       <c r="G121">
         <v>838000</v>
@@ -4198,13 +4555,16 @@
         <v>-0.01342284170200925</v>
       </c>
       <c r="I121">
-        <v>0.110831210053377</v>
+        <v>0.08571163370104042</v>
       </c>
       <c r="J121">
         <v>0.110831210053377</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121">
+        <v>0.110831210053377</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>38777</v>
       </c>
@@ -4221,7 +4581,7 @@
         <v>13.48999977111816</v>
       </c>
       <c r="F122">
-        <v>8.44954776763916</v>
+        <v>8.446640968322754</v>
       </c>
       <c r="G122">
         <v>287100</v>
@@ -4230,13 +4590,16 @@
         <v>0.01965232334678424</v>
       </c>
       <c r="I122">
-        <v>0.1720242834807206</v>
+        <v>0.08536353844364537</v>
       </c>
       <c r="J122">
         <v>0.1720242834807206</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122">
+        <v>0.1720242834807206</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>38808</v>
       </c>
@@ -4253,7 +4616,7 @@
         <v>14.3100004196167</v>
       </c>
       <c r="F123">
-        <v>8.963165283203125</v>
+        <v>8.960077285766602</v>
       </c>
       <c r="G123">
         <v>1321700</v>
@@ -4262,13 +4625,16 @@
         <v>0.06078581633886615</v>
       </c>
       <c r="I123">
-        <v>0.1875518832455729</v>
+        <v>0.08551820549239142</v>
       </c>
       <c r="J123">
         <v>0.1875518832455729</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <v>0.1875518832455729</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="2">
         <v>38838</v>
       </c>
@@ -4285,7 +4651,7 @@
         <v>13.39999961853027</v>
       </c>
       <c r="F124">
-        <v>8.39317798614502</v>
+        <v>8.390287399291992</v>
       </c>
       <c r="G124">
         <v>876700</v>
@@ -4294,13 +4660,16 @@
         <v>-0.06359194789672828</v>
       </c>
       <c r="I124">
-        <v>0.1120331457615589</v>
+        <v>0.08572943558591584</v>
       </c>
       <c r="J124">
         <v>0.1120331457615589</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <v>0.1120331457615589</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="2">
         <v>38869</v>
       </c>
@@ -4317,7 +4686,7 @@
         <v>13.52000045776367</v>
       </c>
       <c r="F125">
-        <v>8.468339920043945</v>
+        <v>8.465425491333008</v>
       </c>
       <c r="G125">
         <v>701500</v>
@@ -4326,13 +4695,16 @@
         <v>0.008955286764893211</v>
       </c>
       <c r="I125">
-        <v>0.08856685786735996</v>
+        <v>0.08571693383374342</v>
       </c>
       <c r="J125">
         <v>0.08856685786735996</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <v>0.08856685786735996</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="2">
         <v>38899</v>
       </c>
@@ -4349,7 +4721,7 @@
         <v>13.72999954223633</v>
       </c>
       <c r="F126">
-        <v>8.599874496459961</v>
+        <v>8.596914291381836</v>
       </c>
       <c r="G126">
         <v>2658000</v>
@@ -4358,13 +4730,16 @@
         <v>0.01553247613627606</v>
       </c>
       <c r="I126">
-        <v>0.04172983492607063</v>
+        <v>0.08558071563101208</v>
       </c>
       <c r="J126">
         <v>0.04172983492607063</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126">
+        <v>0.04172983492607063</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="2">
         <v>38930</v>
       </c>
@@ -4381,7 +4756,7 @@
         <v>14.18000030517578</v>
       </c>
       <c r="F127">
-        <v>8.881736755371094</v>
+        <v>8.878677368164062</v>
       </c>
       <c r="G127">
         <v>656900</v>
@@ -4390,13 +4765,16 @@
         <v>0.0327750020351536</v>
       </c>
       <c r="I127">
-        <v>0.08575802829813028</v>
+        <v>0.08562000951245323</v>
       </c>
       <c r="J127">
         <v>0.08575802829813028</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127">
+        <v>0.08575802829813028</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="2">
         <v>38961</v>
       </c>
@@ -4413,7 +4791,7 @@
         <v>14.11999988555908</v>
       </c>
       <c r="F128">
-        <v>8.844155311584473</v>
+        <v>8.841111183166504</v>
       </c>
       <c r="G128">
         <v>4560100</v>
@@ -4422,13 +4800,16 @@
         <v>-0.004231341207714845</v>
       </c>
       <c r="I128">
-        <v>0.03976435676633328</v>
+        <v>0.08548207633938447</v>
       </c>
       <c r="J128">
         <v>0.03976435676633328</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <v>0.03976435676633328</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="2">
         <v>38991</v>
       </c>
@@ -4445,7 +4826,7 @@
         <v>14.63000011444092</v>
       </c>
       <c r="F129">
-        <v>9.16359806060791</v>
+        <v>9.160442352294922</v>
       </c>
       <c r="G129">
         <v>1842800</v>
@@ -4454,13 +4835,16 @@
         <v>0.03611899667247354</v>
       </c>
       <c r="I129">
-        <v>0.1583531260394238</v>
+        <v>0.08538286927602287</v>
       </c>
       <c r="J129">
         <v>0.1583531260394238</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129">
+        <v>0.1583531260394238</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>39022</v>
       </c>
@@ -4477,7 +4861,7 @@
         <v>15.43000030517578</v>
       </c>
       <c r="F130">
-        <v>9.664685249328613</v>
+        <v>9.66135311126709</v>
       </c>
       <c r="G130">
         <v>2030000</v>
@@ -4486,13 +4870,16 @@
         <v>0.05468217255481789</v>
       </c>
       <c r="I130">
-        <v>0.1979813795091376</v>
+        <v>0.08514199075576624</v>
       </c>
       <c r="J130">
         <v>0.1979813795091376</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <v>0.1979813795091376</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="2">
         <v>39052</v>
       </c>
@@ -4509,7 +4896,7 @@
         <v>16</v>
       </c>
       <c r="F131">
-        <v>10.22100067138672</v>
+        <v>10.2174825668335</v>
       </c>
       <c r="G131">
         <v>1963100</v>
@@ -4518,13 +4905,16 @@
         <v>0.03694100347055862</v>
       </c>
       <c r="I131">
-        <v>0.2678288546031298</v>
+        <v>0.0851361046403832</v>
       </c>
       <c r="J131">
         <v>0.2678288546031298</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <v>0.2678288546031298</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="2">
         <v>39083</v>
       </c>
@@ -4541,7 +4931,7 @@
         <v>16.38999938964844</v>
       </c>
       <c r="F132">
-        <v>10.47013282775879</v>
+        <v>10.46652984619141</v>
       </c>
       <c r="G132">
         <v>6309800</v>
@@ -4550,13 +4940,16 @@
         <v>0.02437496185302734</v>
       </c>
       <c r="I132">
-        <v>0.2222221906148205</v>
+        <v>0.08515338788747247</v>
       </c>
       <c r="J132">
         <v>0.2222221906148205</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <v>0.2222221906148205</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="2">
         <v>39114</v>
       </c>
@@ -4573,7 +4966,7 @@
         <v>15.71000003814697</v>
       </c>
       <c r="F133">
-        <v>10.03574275970459</v>
+        <v>10.03228759765625</v>
       </c>
       <c r="G133">
         <v>5075400</v>
@@ -4582,13 +4975,16 @@
         <v>-0.04148867460794037</v>
       </c>
       <c r="I133">
-        <v>0.1874528028510754</v>
+        <v>0.08520320569802592</v>
       </c>
       <c r="J133">
         <v>0.1874528028510754</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133">
+        <v>0.1874528028510754</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="2">
         <v>39142</v>
       </c>
@@ -4605,7 +5001,7 @@
         <v>16.05999946594238</v>
       </c>
       <c r="F134">
-        <v>10.25932788848877</v>
+        <v>10.2557954788208</v>
       </c>
       <c r="G134">
         <v>2359600</v>
@@ -4614,13 +5010,16 @@
         <v>0.02227876683294361</v>
       </c>
       <c r="I134">
-        <v>0.1905114706025821</v>
+        <v>0.08475437587126489</v>
       </c>
       <c r="J134">
         <v>0.1905114706025821</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134">
+        <v>0.1905114706025821</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="2">
         <v>39173</v>
       </c>
@@ -4637,7 +5036,7 @@
         <v>16.31999969482422</v>
       </c>
       <c r="F135">
-        <v>10.42541980743408</v>
+        <v>10.42182922363281</v>
       </c>
       <c r="G135">
         <v>2348500</v>
@@ -4646,13 +5045,16 @@
         <v>0.0161893049519215</v>
       </c>
       <c r="I135">
-        <v>0.1404611611647568</v>
+        <v>0.08463300990931009</v>
       </c>
       <c r="J135">
         <v>0.1404611611647568</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <v>0.1404611611647568</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2">
         <v>39203</v>
       </c>
@@ -4669,7 +5071,7 @@
         <v>16.82999992370605</v>
       </c>
       <c r="F136">
-        <v>10.7512092590332</v>
+        <v>10.74751472473145</v>
       </c>
       <c r="G136">
         <v>2027700</v>
@@ -4678,13 +5080,16 @@
         <v>0.0312500146089818</v>
       </c>
       <c r="I136">
-        <v>0.2559701793149742</v>
+        <v>0.08406929408168039</v>
       </c>
       <c r="J136">
         <v>0.2559701793149742</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136">
+        <v>0.2559701793149742</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="2">
         <v>39234</v>
       </c>
@@ -4701,7 +5106,7 @@
         <v>17.02000045776367</v>
       </c>
       <c r="F137">
-        <v>10.87258815765381</v>
+        <v>10.8688440322876</v>
       </c>
       <c r="G137">
         <v>3142300</v>
@@ -4710,13 +5115,16 @@
         <v>0.01128939601419665</v>
       </c>
       <c r="I137">
-        <v>0.2588757308798886</v>
+        <v>0.08384639763975388</v>
       </c>
       <c r="J137">
         <v>0.2588757308798886</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137">
+        <v>0.2588757308798886</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="2">
         <v>39264</v>
       </c>
@@ -4733,7 +5141,7 @@
         <v>17.94000053405762</v>
       </c>
       <c r="F138">
-        <v>11.46029472351074</v>
+        <v>11.45634937286377</v>
       </c>
       <c r="G138">
         <v>4697800</v>
@@ -4742,13 +5150,16 @@
         <v>0.05405405708284139</v>
       </c>
       <c r="I138">
-        <v>0.3066279047475895</v>
+        <v>0.08391894856313169</v>
       </c>
       <c r="J138">
         <v>0.3066279047475895</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138">
+        <v>0.3066279047475895</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="2">
         <v>39295</v>
       </c>
@@ -4765,7 +5176,7 @@
         <v>18.44000053405762</v>
       </c>
       <c r="F139">
-        <v>11.77969837188721</v>
+        <v>11.77564716339111</v>
       </c>
       <c r="G139">
         <v>6323400</v>
@@ -4774,13 +5185,16 @@
         <v>0.02787067921490816</v>
       </c>
       <c r="I139">
-        <v>0.3004231408462601</v>
+        <v>0.08240594260007163</v>
       </c>
       <c r="J139">
         <v>0.3004231408462601</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139">
+        <v>0.3004231408462601</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="2">
         <v>39326</v>
       </c>
@@ -4797,7 +5211,7 @@
         <v>21.03000068664551</v>
       </c>
       <c r="F140">
-        <v>13.43422508239746</v>
+        <v>13.42960166931152</v>
       </c>
       <c r="G140">
         <v>5869800</v>
@@ -4806,13 +5220,16 @@
         <v>0.140455535660333</v>
       </c>
       <c r="I140">
-        <v>0.4893768312387508</v>
+        <v>0.08315557580645411</v>
       </c>
       <c r="J140">
         <v>0.4893768312387508</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140">
+        <v>0.4893768312387508</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="2">
         <v>39356</v>
       </c>
@@ -4829,7 +5246,7 @@
         <v>23.93000030517578</v>
       </c>
       <c r="F141">
-        <v>15.28678131103516</v>
+        <v>15.28151798248291</v>
       </c>
       <c r="G141">
         <v>14767100</v>
@@ -4838,13 +5255,16 @@
         <v>0.1378982179668609</v>
       </c>
       <c r="I141">
-        <v>0.6356801174290532</v>
+        <v>0.0797296040164238</v>
       </c>
       <c r="J141">
         <v>0.6356801174290532</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="K141">
+        <v>0.6356801174290532</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="2">
         <v>39387</v>
       </c>
@@ -4861,7 +5281,7 @@
         <v>22.65999984741211</v>
       </c>
       <c r="F142">
-        <v>14.47549057006836</v>
+        <v>14.47050952911377</v>
       </c>
       <c r="G142">
         <v>5110500</v>
@@ -4870,13 +5290,16 @@
         <v>-0.05307147687286007</v>
       </c>
       <c r="I142">
-        <v>0.4685676862761385</v>
+        <v>0.07989834677543571</v>
       </c>
       <c r="J142">
         <v>0.4685676862761385</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142">
+        <v>0.4685676862761385</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="2">
         <v>39417</v>
       </c>
@@ -4893,7 +5316,7 @@
         <v>21.93000030517578</v>
       </c>
       <c r="F143">
-        <v>14.24939250946045</v>
+        <v>14.24449157714844</v>
       </c>
       <c r="G143">
         <v>3274600</v>
@@ -4902,13 +5325,16 @@
         <v>-0.03221533747360983</v>
       </c>
       <c r="I143">
-        <v>0.3706250190734863</v>
+        <v>0.07996580596485212</v>
       </c>
       <c r="J143">
         <v>0.3706250190734863</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143">
+        <v>0.3706250190734863</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="2">
         <v>39448</v>
       </c>
@@ -4925,7 +5351,7 @@
         <v>20</v>
       </c>
       <c r="F144">
-        <v>12.99534320831299</v>
+        <v>12.99087047576904</v>
       </c>
       <c r="G144">
         <v>10847000</v>
@@ -4934,13 +5360,16 @@
         <v>-0.08800730863283546</v>
       </c>
       <c r="I144">
-        <v>0.2202562992547492</v>
+        <v>0.08009172632472164</v>
       </c>
       <c r="J144">
         <v>0.2202562992547492</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144">
+        <v>0.2202562992547492</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="2">
         <v>39479</v>
       </c>
@@ -4957,7 +5386,7 @@
         <v>18.45999908447266</v>
       </c>
       <c r="F145">
-        <v>11.9946985244751</v>
+        <v>11.99057197570801</v>
       </c>
       <c r="G145">
         <v>10133200</v>
@@ -4966,13 +5395,16 @@
         <v>-0.07700004577636721</v>
       </c>
       <c r="I145">
-        <v>0.1750476791628355</v>
+        <v>0.08003362162540141</v>
       </c>
       <c r="J145">
         <v>0.1750476791628355</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="K145">
+        <v>0.1750476791628355</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="2">
         <v>39508</v>
       </c>
@@ -4989,7 +5421,7 @@
         <v>17.95000076293945</v>
       </c>
       <c r="F146">
-        <v>11.66332149505615</v>
+        <v>11.65930366516113</v>
       </c>
       <c r="G146">
         <v>3746200</v>
@@ -4998,13 +5430,16 @@
         <v>-0.02762721272083812</v>
       </c>
       <c r="I146">
-        <v>0.11768377084975</v>
+        <v>0.08009455685773199</v>
       </c>
       <c r="J146">
         <v>0.11768377084975</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146">
+        <v>0.11768377084975</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="2">
         <v>39539</v>
       </c>
@@ -5021,7 +5456,7 @@
         <v>19.45000076293945</v>
       </c>
       <c r="F147">
-        <v>12.63797378540039</v>
+        <v>12.63362216949463</v>
       </c>
       <c r="G147">
         <v>5801200</v>
@@ -5030,13 +5465,16 @@
         <v>0.08356545605819599</v>
       </c>
       <c r="I147">
-        <v>0.1917892847208749</v>
+        <v>0.07982890245986199</v>
       </c>
       <c r="J147">
         <v>0.1917892847208749</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="K147">
+        <v>0.1917892847208749</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="2">
         <v>39569</v>
       </c>
@@ -5053,7 +5491,7 @@
         <v>19.40999984741211</v>
       </c>
       <c r="F148">
-        <v>12.61198139190674</v>
+        <v>12.60763835906982</v>
       </c>
       <c r="G148">
         <v>1712000</v>
@@ -5062,13 +5500,16 @@
         <v>-0.002056602260065876</v>
       </c>
       <c r="I148">
-        <v>0.1532976788711669</v>
+        <v>0.07814985825502696</v>
       </c>
       <c r="J148">
         <v>0.1532976788711669</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148">
+        <v>0.1532976788711669</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="2">
         <v>39600</v>
       </c>
@@ -5085,7 +5526,7 @@
         <v>16.94000053405762</v>
       </c>
       <c r="F149">
-        <v>11.1625452041626</v>
+        <v>11.15870571136475</v>
       </c>
       <c r="G149">
         <v>3685000</v>
@@ -5094,13 +5535,16 @@
         <v>-0.1272539584117417</v>
       </c>
       <c r="I149">
-        <v>-0.004700347917415137</v>
+        <v>0.07883360883006811</v>
       </c>
       <c r="J149">
         <v>-0.004700347917415137</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149">
+        <v>-0.004700347917415137</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="2">
         <v>39630</v>
       </c>
@@ -5117,7 +5561,7 @@
         <v>16.70000076293945</v>
       </c>
       <c r="F150">
-        <v>11.0044002532959</v>
+        <v>11.00061321258545</v>
       </c>
       <c r="G150">
         <v>3872600</v>
@@ -5126,13 +5570,16 @@
         <v>-0.01416763657330755</v>
       </c>
       <c r="I150">
-        <v>-0.06911927169478771</v>
+        <v>0.07842752454002994</v>
       </c>
       <c r="J150">
         <v>-0.06911927169478771</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150">
+        <v>-0.06911927169478771</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="2">
         <v>39661</v>
       </c>
@@ -5149,7 +5596,7 @@
         <v>15.85999965667725</v>
       </c>
       <c r="F151">
-        <v>10.45088386535645</v>
+        <v>10.44728660583496</v>
       </c>
       <c r="G151">
         <v>3486300</v>
@@ -5158,13 +5605,16 @@
         <v>-0.05029946514291983</v>
       </c>
       <c r="I151">
-        <v>-0.1399132756322462</v>
+        <v>0.0757464183852784</v>
       </c>
       <c r="J151">
         <v>-0.1399132756322462</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151">
+        <v>-0.1399132756322462</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="2">
         <v>39692</v>
       </c>
@@ -5181,7 +5631,7 @@
         <v>13.21000003814697</v>
       </c>
       <c r="F152">
-        <v>8.704676628112793</v>
+        <v>8.701681137084961</v>
       </c>
       <c r="G152">
         <v>5239200</v>
@@ -5190,13 +5640,16 @@
         <v>-0.1670869909139369</v>
       </c>
       <c r="I152">
-        <v>-0.3718497571645064</v>
+        <v>0.07402719332753392</v>
       </c>
       <c r="J152">
         <v>-0.3718497571645064</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152">
+        <v>-0.3718497571645064</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="2">
         <v>39722</v>
       </c>
@@ -5213,7 +5666,7 @@
         <v>10.42000007629395</v>
       </c>
       <c r="F153">
-        <v>6.866218090057373</v>
+        <v>6.863855838775635</v>
       </c>
       <c r="G153">
         <v>6912800</v>
@@ -5222,13 +5675,16 @@
         <v>-0.2112036301132664</v>
       </c>
       <c r="I153">
-        <v>-0.5645633120180019</v>
+        <v>0.06833986239673982</v>
       </c>
       <c r="J153">
         <v>-0.5645633120180019</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153">
+        <v>-0.5645633120180019</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="2">
         <v>39753</v>
       </c>
@@ -5245,7 +5701,7 @@
         <v>10.27999973297119</v>
       </c>
       <c r="F154">
-        <v>6.773964405059814</v>
+        <v>6.771635055541992</v>
       </c>
       <c r="G154">
         <v>1541000</v>
@@ -5254,13 +5710,16 @@
         <v>-0.01343573342588189</v>
       </c>
       <c r="I154">
-        <v>-0.5463371667169177</v>
+        <v>0.06832577593692531</v>
       </c>
       <c r="J154">
         <v>-0.5463371667169177</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="K154">
+        <v>-0.5463371667169177</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="2">
         <v>39783</v>
       </c>
@@ -5277,7 +5736,7 @@
         <v>10.36999988555908</v>
       </c>
       <c r="F155">
-        <v>7.078580856323242</v>
+        <v>7.076146125793457</v>
       </c>
       <c r="G155">
         <v>4151600</v>
@@ -5286,13 +5745,16 @@
         <v>0.008754878883822537</v>
       </c>
       <c r="I155">
-        <v>-0.5271317947445893</v>
+        <v>0.06831156074226939</v>
       </c>
       <c r="J155">
         <v>-0.5271317947445893</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155">
+        <v>-0.5271317947445893</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="2">
         <v>39814</v>
       </c>
@@ -5309,7 +5771,7 @@
         <v>10.02000045776367</v>
       </c>
       <c r="F156">
-        <v>6.839671611785889</v>
+        <v>6.837316989898682</v>
       </c>
       <c r="G156">
         <v>5811600</v>
@@ -5318,13 +5780,16 @@
         <v>-0.03375115059382094</v>
       </c>
       <c r="I156">
-        <v>-0.4989999771118164</v>
+        <v>0.06803408037908136</v>
       </c>
       <c r="J156">
         <v>-0.4989999771118164</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156">
+        <v>-0.4989999771118164</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="2">
         <v>39845</v>
       </c>
@@ -5341,7 +5806,7 @@
         <v>9.619999885559082</v>
       </c>
       <c r="F157">
-        <v>6.566631317138672</v>
+        <v>6.564368724822998</v>
       </c>
       <c r="G157">
         <v>4470700</v>
@@ -5350,13 +5815,16 @@
         <v>-0.03992021496313025</v>
       </c>
       <c r="I157">
-        <v>-0.4788732197906339</v>
+        <v>0.06814880988355315</v>
       </c>
       <c r="J157">
         <v>-0.4788732197906339</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157">
+        <v>-0.4788732197906339</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="2">
         <v>39873</v>
       </c>
@@ -5373,7 +5841,7 @@
         <v>10.17000007629395</v>
       </c>
       <c r="F158">
-        <v>6.942059993743896</v>
+        <v>6.939672470092773</v>
       </c>
       <c r="G158">
         <v>6003900</v>
@@ -5382,13 +5850,16 @@
         <v>0.05717257767959927</v>
       </c>
       <c r="I158">
-        <v>-0.4334262036750728</v>
+        <v>0.06744772393790351</v>
       </c>
       <c r="J158">
         <v>-0.4334262036750728</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158">
+        <v>-0.4334262036750728</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="2">
         <v>39904</v>
       </c>
@@ -5405,7 +5876,7 @@
         <v>11.86999988555908</v>
       </c>
       <c r="F159">
-        <v>8.102485656738281</v>
+        <v>8.099695205688477</v>
       </c>
       <c r="G159">
         <v>10347100</v>
@@ -5414,13 +5885,16 @@
         <v>0.1671582887425733</v>
       </c>
       <c r="I159">
-        <v>-0.3897172534729925</v>
+        <v>0.06568116602555227</v>
       </c>
       <c r="J159">
         <v>-0.3897172534729925</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159">
+        <v>-0.3897172534729925</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="2">
         <v>39934</v>
       </c>
@@ -5437,7 +5911,7 @@
         <v>14.18000030517578</v>
       </c>
       <c r="F160">
-        <v>9.679295539855957</v>
+        <v>9.675962448120117</v>
       </c>
       <c r="G160">
         <v>6618700</v>
@@ -5446,13 +5920,16 @@
         <v>0.1946082933351181</v>
       </c>
       <c r="I160">
-        <v>-0.2694487162983482</v>
+        <v>0.06772285956467908</v>
       </c>
       <c r="J160">
         <v>-0.2694487162983482</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160">
+        <v>-0.2694487162983482</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="2">
         <v>39965</v>
       </c>
@@ -5469,7 +5946,7 @@
         <v>13.73999977111816</v>
       </c>
       <c r="F161">
-        <v>9.504286766052246</v>
+        <v>9.501016616821289</v>
       </c>
       <c r="G161">
         <v>7714900</v>
@@ -5478,13 +5955,16 @@
         <v>-0.03102965617687714</v>
       </c>
       <c r="I161">
-        <v>-0.1889020461661675</v>
+        <v>0.06666352385980102</v>
       </c>
       <c r="J161">
         <v>-0.1889020461661675</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161">
+        <v>-0.1889020461661675</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="2">
         <v>39995</v>
       </c>
@@ -5501,7 +5981,7 @@
         <v>15.34000015258789</v>
       </c>
       <c r="F162">
-        <v>10.61104965209961</v>
+        <v>10.60739421844482</v>
       </c>
       <c r="G162">
         <v>4076100</v>
@@ -5510,13 +5990,16 @@
         <v>0.1164483557585618</v>
       </c>
       <c r="I162">
-        <v>-0.08143715857604439</v>
+        <v>0.0669435252775876</v>
       </c>
       <c r="J162">
         <v>-0.08143715857604439</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162">
+        <v>-0.08143715857604439</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="2">
         <v>40026</v>
       </c>
@@ -5533,7 +6016,7 @@
         <v>14.42000007629395</v>
       </c>
       <c r="F163">
-        <v>9.974660873413086</v>
+        <v>9.971227645874023</v>
       </c>
       <c r="G163">
         <v>6753500</v>
@@ -5542,13 +6025,16 @@
         <v>-0.05997392875766949</v>
       </c>
       <c r="I163">
-        <v>-0.09079442695807649</v>
+        <v>0.06720136348867915</v>
       </c>
       <c r="J163">
         <v>-0.09079442695807649</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163">
+        <v>-0.09079442695807649</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="2">
         <v>40057</v>
       </c>
@@ -5565,7 +6051,7 @@
         <v>15.52000045776367</v>
       </c>
       <c r="F164">
-        <v>10.73555660247803</v>
+        <v>10.7318639755249</v>
       </c>
       <c r="G164">
         <v>5011800</v>
@@ -5574,13 +6060,16 @@
         <v>0.07628296641122034</v>
       </c>
       <c r="I164">
-        <v>0.1748675558626822</v>
+        <v>0.06741685173627809</v>
       </c>
       <c r="J164">
         <v>0.1748675558626822</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164">
+        <v>0.1748675558626822</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="2">
         <v>40087</v>
       </c>
@@ -5597,7 +6086,7 @@
         <v>15.52999973297119</v>
       </c>
       <c r="F165">
-        <v>10.74247455596924</v>
+        <v>10.7387752532959</v>
       </c>
       <c r="G165">
         <v>9848200</v>
@@ -5606,13 +6095,16 @@
         <v>0.0006442831773576518</v>
       </c>
       <c r="I165">
-        <v>0.4904030344781636</v>
+        <v>0.06725993081400751</v>
       </c>
       <c r="J165">
         <v>0.4904030344781636</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165">
+        <v>0.4904030344781636</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="2">
         <v>40118</v>
       </c>
@@ -5629,7 +6121,7 @@
         <v>15.85999965667725</v>
       </c>
       <c r="F166">
-        <v>10.97074317932129</v>
+        <v>10.96696758270264</v>
       </c>
       <c r="G166">
         <v>15884400</v>
@@ -5638,13 +6130,16 @@
         <v>0.02124919055893115</v>
       </c>
       <c r="I166">
-        <v>0.5428015630982208</v>
+        <v>0.06683176901592783</v>
       </c>
       <c r="J166">
         <v>0.5428015630982208</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166">
+        <v>0.5428015630982208</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="2">
         <v>40148</v>
       </c>
@@ -5661,7 +6156,7 @@
         <v>15.65999984741211</v>
       </c>
       <c r="F167">
-        <v>10.97935581207275</v>
+        <v>10.97557640075684</v>
       </c>
       <c r="G167">
         <v>1734900</v>
@@ -5670,13 +6165,16 @@
         <v>-0.01261032872601198</v>
       </c>
       <c r="I167">
-        <v>0.5101253635710938</v>
+        <v>0.06636505992007176</v>
       </c>
       <c r="J167">
         <v>0.5101253635710938</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167">
+        <v>0.5101253635710938</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="2">
         <v>40179</v>
       </c>
@@ -5693,7 +6191,7 @@
         <v>14.63000011444092</v>
       </c>
       <c r="F168">
-        <v>10.25721454620361</v>
+        <v>10.25368499755859</v>
       </c>
       <c r="G168">
         <v>8869500</v>
@@ -5702,13 +6200,16 @@
         <v>-0.06577265281017253</v>
       </c>
       <c r="I168">
-        <v>0.4600797850368696</v>
+        <v>0.06614285696884784</v>
       </c>
       <c r="J168">
         <v>0.4600797850368696</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168">
+        <v>0.4600797850368696</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="2">
         <v>40210</v>
       </c>
@@ -5725,7 +6226,7 @@
         <v>15.43000030517578</v>
       </c>
       <c r="F169">
-        <v>10.81809997558594</v>
+        <v>10.81437683105469</v>
       </c>
       <c r="G169">
         <v>2761700</v>
@@ -5734,13 +6235,16 @@
         <v>0.05468217255481789</v>
       </c>
       <c r="I169">
-        <v>0.6039501547539823</v>
+        <v>0.06628310592964551</v>
       </c>
       <c r="J169">
         <v>0.6039501547539823</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="K169">
+        <v>0.6039501547539823</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="2">
         <v>40238</v>
       </c>
@@ -5757,7 +6261,7 @@
         <v>16.29000091552734</v>
       </c>
       <c r="F170">
-        <v>11.42105484008789</v>
+        <v>11.41712284088135</v>
       </c>
       <c r="G170">
         <v>3598500</v>
@@ -5766,13 +6270,16 @@
         <v>0.0557356184927027</v>
       </c>
       <c r="I170">
-        <v>0.6017699895105204</v>
+        <v>0.06641721365249521</v>
       </c>
       <c r="J170">
         <v>0.6017699895105204</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170">
+        <v>0.6017699895105204</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="2">
         <v>40269</v>
       </c>
@@ -5789,7 +6296,7 @@
         <v>15.65999984741211</v>
       </c>
       <c r="F171">
-        <v>10.97935581207275</v>
+        <v>10.97557640075684</v>
       </c>
       <c r="G171">
         <v>5565100</v>
@@ -5798,13 +6305,16 @@
         <v>-0.03867409654438558</v>
       </c>
       <c r="I171">
-        <v>0.3192923334787814</v>
+        <v>0.06606239310732656</v>
       </c>
       <c r="J171">
         <v>0.3192923334787814</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171">
+        <v>0.3192923334787814</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="2">
         <v>40299</v>
       </c>
@@ -5821,7 +6331,7 @@
         <v>14.77999973297119</v>
       </c>
       <c r="F172">
-        <v>10.36237716674805</v>
+        <v>10.358811378479</v>
       </c>
       <c r="G172">
         <v>8323500</v>
@@ -5830,13 +6340,16 @@
         <v>-0.05619413301503595</v>
       </c>
       <c r="I172">
-        <v>0.04231307580271393</v>
+        <v>0.06589922092974615</v>
       </c>
       <c r="J172">
         <v>0.04231307580271393</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172">
+        <v>0.04231307580271393</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="2">
         <v>40330</v>
       </c>
@@ -5853,7 +6366,7 @@
         <v>14.77000045776367</v>
       </c>
       <c r="F173">
-        <v>10.54273700714111</v>
+        <v>10.53910827636719</v>
       </c>
       <c r="G173">
         <v>4811800</v>
@@ -5862,13 +6375,16 @@
         <v>-0.0006765409599577277</v>
       </c>
       <c r="I173">
-        <v>0.07496366112105735</v>
+        <v>0.06562210453089815</v>
       </c>
       <c r="J173">
         <v>0.07496366112105735</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173">
+        <v>0.07496366112105735</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="2">
         <v>40360</v>
       </c>
@@ -5885,7 +6401,7 @@
         <v>15.9399995803833</v>
       </c>
       <c r="F174">
-        <v>11.37787342071533</v>
+        <v>11.37395668029785</v>
       </c>
       <c r="G174">
         <v>6280700</v>
@@ -5894,13 +6410,16 @@
         <v>0.07921456238037106</v>
       </c>
       <c r="I174">
-        <v>0.03911339125340163</v>
+        <v>0.065781988837105</v>
       </c>
       <c r="J174">
         <v>0.03911339125340163</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="K174">
+        <v>0.03911339125340163</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" s="2">
         <v>40391</v>
       </c>
@@ -5917,7 +6436,7 @@
         <v>15.98999977111816</v>
       </c>
       <c r="F175">
-        <v>11.41356468200684</v>
+        <v>11.40963554382324</v>
       </c>
       <c r="G175">
         <v>13839100</v>
@@ -5926,13 +6445,16 @@
         <v>0.003136774909103357</v>
       </c>
       <c r="I175">
-        <v>0.1088765385934534</v>
+        <v>0.06575634778038568</v>
       </c>
       <c r="J175">
         <v>0.1088765385934534</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="K175">
+        <v>0.1088765385934534</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="2">
         <v>40422</v>
       </c>
@@ -5949,7 +6471,7 @@
         <v>18.13999938964844</v>
       </c>
       <c r="F176">
-        <v>12.94822406768799</v>
+        <v>12.94376182556152</v>
       </c>
       <c r="G176">
         <v>12570400</v>
@@ -5958,13 +6480,16 @@
         <v>0.1344590149659475</v>
       </c>
       <c r="I176">
-        <v>0.1688143591886395</v>
+        <v>0.06611019879514454</v>
       </c>
       <c r="J176">
         <v>0.1688143591886395</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="K176">
+        <v>0.1688143591886395</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="2">
         <v>40452</v>
       </c>
@@ -5981,7 +6506,7 @@
         <v>18.72999954223633</v>
       </c>
       <c r="F177">
-        <v>13.36935806274414</v>
+        <v>13.36476135253906</v>
       </c>
       <c r="G177">
         <v>3979500</v>
@@ -5990,13 +6515,16 @@
         <v>0.03252481656226358</v>
       </c>
       <c r="I177">
-        <v>0.2060527922915112</v>
+        <v>0.06590573984238828</v>
       </c>
       <c r="J177">
         <v>0.2060527922915112</v>
       </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="K177">
+        <v>0.2060527922915112</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="2">
         <v>40483</v>
       </c>
@@ -6013,7 +6541,7 @@
         <v>18.88999938964844</v>
       </c>
       <c r="F178">
-        <v>13.48356437683105</v>
+        <v>13.47892284393311</v>
       </c>
       <c r="G178">
         <v>3691100</v>
@@ -6022,13 +6550,16 @@
         <v>0.008542437337027531</v>
       </c>
       <c r="I178">
-        <v>0.1910466455587549</v>
+        <v>0.06540328283262795</v>
       </c>
       <c r="J178">
         <v>0.1910466455587549</v>
       </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="K178">
+        <v>0.1910466455587549</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="2">
         <v>40513</v>
       </c>
@@ -6045,7 +6576,7 @@
         <v>18.92000007629395</v>
       </c>
       <c r="F179">
-        <v>13.62981033325195</v>
+        <v>13.62512016296387</v>
       </c>
       <c r="G179">
         <v>2354000</v>
@@ -6054,13 +6585,16 @@
         <v>0.00158817827500557</v>
       </c>
       <c r="I179">
-        <v>0.2081737075764127</v>
+        <v>0.06489878185869496</v>
       </c>
       <c r="J179">
         <v>0.2081737075764127</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179">
+        <v>0.2081737075764127</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="2">
         <v>40544</v>
       </c>
@@ -6077,7 +6611,7 @@
         <v>19.19000053405762</v>
       </c>
       <c r="F180">
-        <v>13.82431793212891</v>
+        <v>13.81955909729004</v>
       </c>
       <c r="G180">
         <v>4385700</v>
@@ -6086,13 +6620,16 @@
         <v>0.01427063724497413</v>
       </c>
       <c r="I180">
-        <v>0.311688337932112</v>
+        <v>0.06473820388428812</v>
       </c>
       <c r="J180">
         <v>0.311688337932112</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="K180">
+        <v>0.311688337932112</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="2">
         <v>40575</v>
       </c>
@@ -6109,7 +6646,7 @@
         <v>18.67000007629395</v>
       </c>
       <c r="F181">
-        <v>13.44971370697021</v>
+        <v>13.4450855255127</v>
       </c>
       <c r="G181">
         <v>3589800</v>
@@ -6118,13 +6655,16 @@
         <v>-0.0270974696869235</v>
       </c>
       <c r="I181">
-        <v>0.2099805383692281</v>
+        <v>0.06477393134776017</v>
       </c>
       <c r="J181">
         <v>0.2099805383692281</v>
       </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="K181">
+        <v>0.2099805383692281</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="2">
         <v>40603</v>
       </c>
@@ -6141,7 +6681,7 @@
         <v>18.93000030517578</v>
       </c>
       <c r="F182">
-        <v>13.63701343536377</v>
+        <v>13.63232040405273</v>
       </c>
       <c r="G182">
         <v>3425700</v>
@@ -6150,13 +6690,16 @@
         <v>0.01392609683017465</v>
       </c>
       <c r="I182">
-        <v>0.1620625685252133</v>
+        <v>0.06394868532247065</v>
       </c>
       <c r="J182">
         <v>0.1620625685252133</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="K182">
+        <v>0.1620625685252133</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="2">
         <v>40634</v>
       </c>
@@ -6173,7 +6716,7 @@
         <v>19.36000061035156</v>
       </c>
       <c r="F183">
-        <v>13.9467830657959</v>
+        <v>13.94198226928711</v>
       </c>
       <c r="G183">
         <v>2881600</v>
@@ -6182,13 +6725,16 @@
         <v>0.02271528252739707</v>
       </c>
       <c r="I183">
-        <v>0.2362708045333024</v>
+        <v>0.06396512500178607</v>
       </c>
       <c r="J183">
         <v>0.2362708045333024</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="K183">
+        <v>0.2362708045333024</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" s="2">
         <v>40664</v>
       </c>
@@ -6205,7 +6751,7 @@
         <v>19.45000076293945</v>
       </c>
       <c r="F184">
-        <v>14.01161956787109</v>
+        <v>14.00679683685303</v>
       </c>
       <c r="G184">
         <v>17004500</v>
@@ -6214,13 +6760,16 @@
         <v>0.004648768065625308</v>
       </c>
       <c r="I184">
-        <v>0.3159675990758264</v>
+        <v>0.06394591391429875</v>
       </c>
       <c r="J184">
         <v>0.3159675990758264</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="K184">
+        <v>0.3159675990758264</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" s="2">
         <v>40695</v>
       </c>
@@ -6237,7 +6786,7 @@
         <v>18.52000045776367</v>
       </c>
       <c r="F185">
-        <v>13.51787948608398</v>
+        <v>13.51322841644287</v>
       </c>
       <c r="G185">
         <v>3769000</v>
@@ -6246,13 +6795,16 @@
         <v>-0.04781492384040564</v>
       </c>
       <c r="I185">
-        <v>0.2538930185360189</v>
+        <v>0.06391656612781754</v>
       </c>
       <c r="J185">
         <v>0.2538930185360189</v>
       </c>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="K185">
+        <v>0.2538930185360189</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" s="2">
         <v>40725</v>
       </c>
@@ -6269,7 +6821,7 @@
         <v>18.79000091552734</v>
       </c>
       <c r="F186">
-        <v>13.71495246887207</v>
+        <v>13.71023464202881</v>
       </c>
       <c r="G186">
         <v>4125100</v>
@@ -6278,13 +6830,16 @@
         <v>0.01457885805021597</v>
       </c>
       <c r="I186">
-        <v>0.1787955715288363</v>
+        <v>0.06383915292782892</v>
       </c>
       <c r="J186">
         <v>0.1787955715288363</v>
       </c>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="K186">
+        <v>0.1787955715288363</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="2">
         <v>40756</v>
       </c>
@@ -6301,7 +6856,7 @@
         <v>17.64999961853027</v>
       </c>
       <c r="F187">
-        <v>12.88285827636719</v>
+        <v>12.87842178344727</v>
       </c>
       <c r="G187">
         <v>4946500</v>
@@ -6310,13 +6865,16 @@
         <v>-0.06067063552163088</v>
       </c>
       <c r="I187">
-        <v>0.1038148762459943</v>
+        <v>0.06366860459463465</v>
       </c>
       <c r="J187">
         <v>0.1038148762459943</v>
       </c>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="K187">
+        <v>0.1038148762459943</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="2">
         <v>40787</v>
       </c>
@@ -6333,7 +6891,7 @@
         <v>14.32999992370605</v>
       </c>
       <c r="F188">
-        <v>10.45956611633301</v>
+        <v>10.45596790313721</v>
       </c>
       <c r="G188">
         <v>11061900</v>
@@ -6342,13 +6900,16 @@
         <v>-0.1881019697778712</v>
       </c>
       <c r="I188">
-        <v>-0.2100330537010136</v>
+        <v>0.06505675679141962</v>
       </c>
       <c r="J188">
         <v>-0.2100330537010136</v>
       </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="K188">
+        <v>-0.2100330537010136</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="2">
         <v>40817</v>
       </c>
@@ -6365,7 +6926,7 @@
         <v>16.19000053405762</v>
       </c>
       <c r="F189">
-        <v>11.81719398498535</v>
+        <v>11.81312847137451</v>
       </c>
       <c r="G189">
         <v>5264100</v>
@@ -6374,13 +6935,16 @@
         <v>0.1297976706388233</v>
       </c>
       <c r="I189">
-        <v>-0.1356112691007274</v>
+        <v>0.06601319139891061</v>
       </c>
       <c r="J189">
         <v>-0.1356112691007274</v>
       </c>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="K189">
+        <v>-0.1356112691007274</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="2">
         <v>40848</v>
       </c>
@@ -6397,7 +6961,7 @@
         <v>15.98999977111816</v>
       </c>
       <c r="F190">
-        <v>11.67121315002441</v>
+        <v>11.66719532012939</v>
       </c>
       <c r="G190">
         <v>9818200</v>
@@ -6406,13 +6970,16 @@
         <v>-0.01235335122557457</v>
       </c>
       <c r="I190">
-        <v>-0.1535203659201518</v>
+        <v>0.06546716813576463</v>
       </c>
       <c r="J190">
         <v>-0.1535203659201518</v>
       </c>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="K190">
+        <v>-0.1535203659201518</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="2">
         <v>40878</v>
       </c>
@@ -6429,7 +6996,7 @@
         <v>15.47000026702881</v>
       </c>
       <c r="F191">
-        <v>11.42409324645996</v>
+        <v>11.42015933990479</v>
       </c>
       <c r="G191">
         <v>1654900</v>
@@ -6438,13 +7005,16 @@
         <v>-0.03252029465495065</v>
       </c>
       <c r="I191">
-        <v>-0.1823467122279697</v>
+        <v>0.06551108853969718</v>
       </c>
       <c r="J191">
         <v>-0.1823467122279697</v>
       </c>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="K191">
+        <v>-0.1823467122279697</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="2">
         <v>40909</v>
       </c>
@@ -6461,7 +7031,7 @@
         <v>16.89999961853027</v>
       </c>
       <c r="F192">
-        <v>12.4801025390625</v>
+        <v>12.47580337524414</v>
       </c>
       <c r="G192">
         <v>4472000</v>
@@ -6470,13 +7040,16 @@
         <v>0.09243693127460517</v>
       </c>
       <c r="I192">
-        <v>-0.1193330303176983</v>
+        <v>0.06596264359305892</v>
       </c>
       <c r="J192">
         <v>-0.1193330303176983</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="K192">
+        <v>-0.1193330303176983</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="2">
         <v>40940</v>
       </c>
@@ -6493,7 +7066,7 @@
         <v>18.25</v>
       </c>
       <c r="F193">
-        <v>13.47702980041504</v>
+        <v>13.47239112854004</v>
       </c>
       <c r="G193">
         <v>3928000</v>
@@ -6502,13 +7075,16 @@
         <v>0.07988168118001004</v>
       </c>
       <c r="I193">
-        <v>-0.02249598685472087</v>
+        <v>0.06610630713230234</v>
       </c>
       <c r="J193">
         <v>-0.02249598685472087</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="K193">
+        <v>-0.02249598685472087</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" s="2">
         <v>40969</v>
       </c>
@@ -6525,7 +7101,7 @@
         <v>17.45000076293945</v>
       </c>
       <c r="F194">
-        <v>12.88625812530518</v>
+        <v>12.8818244934082</v>
       </c>
       <c r="G194">
         <v>4840200</v>
@@ -6534,13 +7110,16 @@
         <v>-0.04383557463345467</v>
       </c>
       <c r="I194">
-        <v>-0.07818275321589252</v>
+        <v>0.06610508133108543</v>
       </c>
       <c r="J194">
         <v>-0.07818275321589252</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194">
+        <v>-0.07818275321589252</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" s="2">
         <v>41000</v>
       </c>
@@ -6557,7 +7136,7 @@
         <v>17.54999923706055</v>
       </c>
       <c r="F195">
-        <v>12.96010208129883</v>
+        <v>12.95563983917236</v>
       </c>
       <c r="G195">
         <v>1838800</v>
@@ -6566,13 +7145,16 @@
         <v>0.005730571332321688</v>
       </c>
       <c r="I195">
-        <v>-0.09349180352418118</v>
+        <v>0.06580264214088476</v>
       </c>
       <c r="J195">
         <v>-0.09349180352418118</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="K195">
+        <v>-0.09349180352418118</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" s="2">
         <v>41030</v>
       </c>
@@ -6589,7 +7171,7 @@
         <v>15.92000007629395</v>
       </c>
       <c r="F196">
-        <v>11.75640296936035</v>
+        <v>11.75235557556152</v>
       </c>
       <c r="G196">
         <v>3356900</v>
@@ -6598,13 +7180,16 @@
         <v>-0.09287744909552542</v>
       </c>
       <c r="I196">
-        <v>-0.1814910307546962</v>
+        <v>0.06630408450564965</v>
       </c>
       <c r="J196">
         <v>-0.1814910307546962</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="K196">
+        <v>-0.1814910307546962</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" s="2">
         <v>41061</v>
       </c>
@@ -6621,7 +7206,7 @@
         <v>16.39999961853027</v>
       </c>
       <c r="F197">
-        <v>12.38755416870117</v>
+        <v>12.38329029083252</v>
       </c>
       <c r="G197">
         <v>2192400</v>
@@ -6630,13 +7215,16 @@
         <v>0.03015072487035231</v>
       </c>
       <c r="I197">
-        <v>-0.114470884818185</v>
+        <v>0.06600828925084949</v>
       </c>
       <c r="J197">
         <v>-0.114470884818185</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="K197">
+        <v>-0.114470884818185</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" s="2">
         <v>41091</v>
       </c>
@@ -6653,7 +7241,7 @@
         <v>16.75</v>
       </c>
       <c r="F198">
-        <v>12.65192317962646</v>
+        <v>12.64756965637207</v>
       </c>
       <c r="G198">
         <v>1836600</v>
@@ -6662,13 +7250,16 @@
         <v>0.02134148717139372</v>
       </c>
       <c r="I198">
-        <v>-0.1085684308744</v>
+        <v>0.06574139216507927</v>
       </c>
       <c r="J198">
         <v>-0.1085684308744</v>
       </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="K198">
+        <v>-0.1085684308744</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" s="2">
         <v>41122</v>
       </c>
@@ -6685,7 +7276,7 @@
         <v>16.98999977111816</v>
       </c>
       <c r="F199">
-        <v>12.83320808410645</v>
+        <v>12.82878875732422</v>
       </c>
       <c r="G199">
         <v>2629700</v>
@@ -6694,13 +7285,16 @@
         <v>0.01432834454436804</v>
       </c>
       <c r="I199">
-        <v>-0.03739375986836813</v>
+        <v>0.0653927271599858</v>
       </c>
       <c r="J199">
         <v>-0.03739375986836813</v>
       </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="K199">
+        <v>-0.03739375986836813</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" s="2">
         <v>41153</v>
       </c>
@@ -6717,7 +7311,7 @@
         <v>18.20000076293945</v>
       </c>
       <c r="F200">
-        <v>13.74716567993164</v>
+        <v>13.742431640625</v>
       </c>
       <c r="G200">
         <v>2671800</v>
@@ -6726,13 +7320,16 @@
         <v>0.07121842307956983</v>
       </c>
       <c r="I200">
-        <v>0.2700628653061801</v>
+        <v>0.06502688456133712</v>
       </c>
       <c r="J200">
         <v>0.2700628653061801</v>
       </c>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="K200">
+        <v>0.2700628653061801</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" s="2">
         <v>41183</v>
       </c>
@@ -6749,7 +7346,7 @@
         <v>18.5</v>
       </c>
       <c r="F201">
-        <v>13.9737663269043</v>
+        <v>13.96895694732666</v>
       </c>
       <c r="G201">
         <v>4820500</v>
@@ -6758,13 +7355,16 @@
         <v>0.01648347387278326</v>
       </c>
       <c r="I201">
-        <v>0.1426806293849725</v>
+        <v>0.06481529715707082</v>
       </c>
       <c r="J201">
         <v>0.1426806293849725</v>
       </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="K201">
+        <v>0.1426806293849725</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" s="2">
         <v>41214</v>
       </c>
@@ -6781,7 +7381,7 @@
         <v>19.11000061035156</v>
       </c>
       <c r="F202">
-        <v>14.4345235824585</v>
+        <v>14.42955589294434</v>
       </c>
       <c r="G202">
         <v>5764200</v>
@@ -6790,13 +7390,16 @@
         <v>0.03297300596494934</v>
       </c>
       <c r="I202">
-        <v>0.1951220064973909</v>
+        <v>0.06473063406824306</v>
       </c>
       <c r="J202">
         <v>0.1951220064973909</v>
       </c>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="K202">
+        <v>0.1951220064973909</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203" s="2">
         <v>41244</v>
       </c>
@@ -6813,7 +7416,7 @@
         <v>19.42000007629395</v>
       </c>
       <c r="F203">
-        <v>14.76948070526123</v>
+        <v>14.76439952850342</v>
       </c>
       <c r="G203">
         <v>2052400</v>
@@ -6822,13 +7425,16 @@
         <v>0.01622184490012324</v>
       </c>
       <c r="I203">
-        <v>0.2553328856550678</v>
+        <v>0.0642938095683688</v>
       </c>
       <c r="J203">
         <v>0.2553328856550678</v>
       </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="K203">
+        <v>0.2553328856550678</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204" s="2">
         <v>41275</v>
       </c>
@@ -6845,7 +7451,7 @@
         <v>20.29000091552734</v>
       </c>
       <c r="F204">
-        <v>15.43114376068115</v>
+        <v>15.42583274841309</v>
       </c>
       <c r="G204">
         <v>2240800</v>
@@ -6854,13 +7460,16 @@
         <v>0.04479921914600871</v>
       </c>
       <c r="I204">
-        <v>0.2005917972495128</v>
+        <v>0.06437085857808013</v>
       </c>
       <c r="J204">
         <v>0.2005917972495128</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="K204">
+        <v>0.2005917972495128</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205" s="2">
         <v>41306</v>
       </c>
@@ -6877,7 +7486,7 @@
         <v>20.1200008392334</v>
       </c>
       <c r="F205">
-        <v>15.30185604095459</v>
+        <v>15.29658699035645</v>
       </c>
       <c r="G205">
         <v>4117100</v>
@@ -6886,13 +7495,16 @@
         <v>-0.00837851496417874</v>
       </c>
       <c r="I205">
-        <v>0.1024657994100493</v>
+        <v>0.06433843378855768</v>
       </c>
       <c r="J205">
         <v>0.1024657994100493</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="K205">
+        <v>0.1024657994100493</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" s="2">
         <v>41334</v>
       </c>
@@ -6909,7 +7521,7 @@
         <v>19.84000015258789</v>
       </c>
       <c r="F206">
-        <v>15.08890724182129</v>
+        <v>15.08371448516846</v>
       </c>
       <c r="G206">
         <v>5183000</v>
@@ -6918,13 +7530,16 @@
         <v>-0.013916534541068</v>
       </c>
       <c r="I206">
-        <v>0.136962709750956</v>
+        <v>0.06395667114134121</v>
       </c>
       <c r="J206">
         <v>0.136962709750956</v>
       </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="K206">
+        <v>0.136962709750956</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207" s="2">
         <v>41365</v>
       </c>
@@ -6941,7 +7556,7 @@
         <v>20.45999908447266</v>
       </c>
       <c r="F207">
-        <v>15.56043243408203</v>
+        <v>15.55507850646973</v>
       </c>
       <c r="G207">
         <v>2157400</v>
@@ -6950,13 +7565,16 @@
         <v>0.03124994592320585</v>
       </c>
       <c r="I207">
-        <v>0.1658119643257321</v>
+        <v>0.06398263063872214</v>
       </c>
       <c r="J207">
         <v>0.1658119643257321</v>
       </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="K207">
+        <v>0.1658119643257321</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208" s="2">
         <v>41395</v>
       </c>
@@ -6973,7 +7591,7 @@
         <v>19.70000076293945</v>
       </c>
       <c r="F208">
-        <v>14.98243045806885</v>
+        <v>14.97727489471436</v>
       </c>
       <c r="G208">
         <v>2903700</v>
@@ -6982,13 +7600,16 @@
         <v>-0.03714556967453508</v>
       </c>
       <c r="I208">
-        <v>0.2374372279227692</v>
+        <v>0.06362745451263649</v>
       </c>
       <c r="J208">
         <v>0.2374372279227692</v>
       </c>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="K208">
+        <v>0.2374372279227692</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" s="2">
         <v>41426</v>
       </c>
@@ -7005,7 +7626,7 @@
         <v>18.32999992370605</v>
       </c>
       <c r="F209">
-        <v>14.26716136932373</v>
+        <v>14.26224803924561</v>
       </c>
       <c r="G209">
         <v>1791000</v>
@@ -7014,13 +7635,16 @@
         <v>-0.06954318711554097</v>
       </c>
       <c r="I209">
-        <v>0.117682948174894</v>
+        <v>0.06403926701026555</v>
       </c>
       <c r="J209">
         <v>0.117682948174894</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="K209">
+        <v>0.117682948174894</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" s="2">
         <v>41456</v>
       </c>
@@ -7037,7 +7661,7 @@
         <v>19.13999938964844</v>
       </c>
       <c r="F210">
-        <v>14.89762210845947</v>
+        <v>14.89249515533447</v>
       </c>
       <c r="G210">
         <v>2586100</v>
@@ -7046,13 +7670,16 @@
         <v>0.04418982374870706</v>
       </c>
       <c r="I210">
-        <v>0.1426865307252798</v>
+        <v>0.06391275570055641</v>
       </c>
       <c r="J210">
         <v>0.1426865307252798</v>
       </c>
-    </row>
-    <row r="211" spans="1:10">
+      <c r="K210">
+        <v>0.1426865307252798</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" s="2">
         <v>41487</v>
       </c>
@@ -7069,7 +7696,7 @@
         <v>18.80999946594238</v>
       </c>
       <c r="F211">
-        <v>14.64076900482178</v>
+        <v>14.63572692871094</v>
       </c>
       <c r="G211">
         <v>1987500</v>
@@ -7078,13 +7705,16 @@
         <v>-0.01724137587405206</v>
       </c>
       <c r="I211">
-        <v>0.1071218198553536</v>
+        <v>0.06325596030491352</v>
       </c>
       <c r="J211">
         <v>0.1071218198553536</v>
       </c>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="K211">
+        <v>0.1071218198553536</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" s="2">
         <v>41518</v>
       </c>
@@ -7101,7 +7731,7 @@
         <v>20.03000068664551</v>
       </c>
       <c r="F212">
-        <v>15.59035778045654</v>
+        <v>15.58498859405518</v>
       </c>
       <c r="G212">
         <v>2455800</v>
@@ -7110,13 +7740,16 @@
         <v>0.0648591842286903</v>
       </c>
       <c r="I212">
-        <v>0.100549442142468</v>
+        <v>0.06337788850045101</v>
       </c>
       <c r="J212">
         <v>0.100549442142468</v>
       </c>
-    </row>
-    <row r="213" spans="1:10">
+      <c r="K212">
+        <v>0.100549442142468</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
       <c r="A213" s="2">
         <v>41548</v>
       </c>
@@ -7133,7 +7766,7 @@
         <v>20.36000061035156</v>
       </c>
       <c r="F213">
-        <v>15.84720516204834</v>
+        <v>15.84175777435303</v>
       </c>
       <c r="G213">
         <v>2212500</v>
@@ -7142,13 +7775,16 @@
         <v>0.01647528269562537</v>
       </c>
       <c r="I213">
-        <v>0.1005405735325169</v>
+        <v>0.06319497684641147</v>
       </c>
       <c r="J213">
         <v>0.1005405735325169</v>
       </c>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="K213">
+        <v>0.1005405735325169</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
       <c r="A214" s="2">
         <v>41579</v>
       </c>
@@ -7165,7 +7801,7 @@
         <v>20.75</v>
       </c>
       <c r="F214">
-        <v>16.15076637268066</v>
+        <v>16.14520263671875</v>
       </c>
       <c r="G214">
         <v>1596500</v>
@@ -7174,13 +7810,16 @@
         <v>0.01915517573462888</v>
       </c>
       <c r="I214">
-        <v>0.08581890828198491</v>
+        <v>0.06317925968074427</v>
       </c>
       <c r="J214">
         <v>0.08581890828198491</v>
       </c>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="K214">
+        <v>0.08581890828198491</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
       <c r="A215" s="2">
         <v>41609</v>
       </c>
@@ -7197,7 +7836,7 @@
         <v>20.60000038146973</v>
       </c>
       <c r="F215">
-        <v>16.17844390869141</v>
+        <v>16.17287826538086</v>
       </c>
       <c r="G215">
         <v>706000</v>
@@ -7206,13 +7845,16 @@
         <v>-0.007228897278567348</v>
       </c>
       <c r="I215">
-        <v>0.0607621164026777</v>
+        <v>0.06319460367786781</v>
       </c>
       <c r="J215">
         <v>0.0607621164026777</v>
       </c>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="K215">
+        <v>0.0607621164026777</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
       <c r="A216" s="2">
         <v>41640</v>
       </c>
@@ -7229,7 +7871,7 @@
         <v>19.1200008392334</v>
       </c>
       <c r="F216">
-        <v>15.01610851287842</v>
+        <v>15.01094245910645</v>
       </c>
       <c r="G216">
         <v>2564500</v>
@@ -7238,13 +7880,16 @@
         <v>-0.07184463664222207</v>
       </c>
       <c r="I216">
-        <v>-0.0576638749877324</v>
+        <v>0.06316889256510955</v>
       </c>
       <c r="J216">
         <v>-0.0576638749877324</v>
       </c>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="K216">
+        <v>-0.0576638749877324</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
       <c r="A217" s="2">
         <v>41671</v>
       </c>
@@ -7261,7 +7906,7 @@
         <v>20.18000030517578</v>
       </c>
       <c r="F217">
-        <v>15.84858989715576</v>
+        <v>15.84314250946045</v>
       </c>
       <c r="G217">
         <v>2552400</v>
@@ -7270,13 +7915,16 @@
         <v>0.05543930017865439</v>
       </c>
       <c r="I217">
-        <v>0.002982080687858879</v>
+        <v>0.06326662966632515</v>
       </c>
       <c r="J217">
         <v>0.002982080687858879</v>
       </c>
-    </row>
-    <row r="218" spans="1:10">
+      <c r="K217">
+        <v>0.002982080687858879</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
       <c r="A218" s="2">
         <v>41699</v>
       </c>
@@ -7293,7 +7941,7 @@
         <v>19.78000068664551</v>
       </c>
       <c r="F218">
-        <v>15.53444576263428</v>
+        <v>15.52910041809082</v>
       </c>
       <c r="G218">
         <v>1588400</v>
@@ -7302,13 +7950,16 @@
         <v>-0.01982158634693787</v>
       </c>
       <c r="I218">
-        <v>-0.003024166606901746</v>
+        <v>0.0630055444583071</v>
       </c>
       <c r="J218">
         <v>-0.003024166606901746</v>
       </c>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="K218">
+        <v>-0.003024166606901746</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
       <c r="A219" s="2">
         <v>41730</v>
       </c>
@@ -7325,7 +7976,7 @@
         <v>20.28000068664551</v>
       </c>
       <c r="F219">
-        <v>15.92712783813477</v>
+        <v>15.92164611816406</v>
       </c>
       <c r="G219">
         <v>2616900</v>
@@ -7334,13 +7985,16 @@
         <v>0.02527805776759018</v>
       </c>
       <c r="I219">
-        <v>-0.008797576045042499</v>
+        <v>0.06257481536412852</v>
       </c>
       <c r="J219">
         <v>-0.008797576045042499</v>
       </c>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="K219">
+        <v>-0.008797576045042499</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
       <c r="A220" s="2">
         <v>41760</v>
       </c>
@@ -7357,7 +8011,7 @@
         <v>21.22999954223633</v>
       </c>
       <c r="F220">
-        <v>16.67321968078613</v>
+        <v>16.66747856140137</v>
       </c>
       <c r="G220">
         <v>1580800</v>
@@ -7366,13 +8020,16 @@
         <v>0.04684412344307276</v>
       </c>
       <c r="I220">
-        <v>0.07766490964686557</v>
+        <v>0.06265518975789458</v>
       </c>
       <c r="J220">
         <v>0.07766490964686557</v>
       </c>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="K220">
+        <v>0.07766490964686557</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
       <c r="A221" s="2">
         <v>41791</v>
       </c>
@@ -7389,7 +8046,7 @@
         <v>20.8799991607666</v>
       </c>
       <c r="F221">
-        <v>16.83140182495117</v>
+        <v>16.82561111450195</v>
       </c>
       <c r="G221">
         <v>1755900</v>
@@ -7398,13 +8055,16 @@
         <v>-0.01648612289290974</v>
       </c>
       <c r="I221">
-        <v>0.1391161619025787</v>
+        <v>0.06269568143203882</v>
       </c>
       <c r="J221">
         <v>0.1391161619025787</v>
       </c>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="K221">
+        <v>0.1391161619025787</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
       <c r="A222" s="2">
         <v>41821</v>
       </c>
@@ -7421,7 +8081,7 @@
         <v>22</v>
       </c>
       <c r="F222">
-        <v>17.73423957824707</v>
+        <v>17.7281379699707</v>
       </c>
       <c r="G222">
         <v>3495400</v>
@@ -7430,13 +8090,16 @@
         <v>0.05363988909242257</v>
       </c>
       <c r="I222">
-        <v>0.149425324010112</v>
+        <v>0.06283014826937257</v>
       </c>
       <c r="J222">
         <v>0.149425324010112</v>
       </c>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="K222">
+        <v>0.149425324010112</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
       <c r="A223" s="2">
         <v>41852</v>
       </c>
@@ -7453,7 +8116,7 @@
         <v>21.84000015258789</v>
       </c>
       <c r="F223">
-        <v>17.60526084899902</v>
+        <v>17.59920310974121</v>
       </c>
       <c r="G223">
         <v>2295200</v>
@@ -7462,13 +8125,16 @@
         <v>-0.007272720336914062</v>
       </c>
       <c r="I223">
-        <v>0.1610845705834103</v>
+        <v>0.06250996357882051</v>
       </c>
       <c r="J223">
         <v>0.1610845705834103</v>
       </c>
-    </row>
-    <row r="224" spans="1:10">
+      <c r="K223">
+        <v>0.1610845705834103</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
       <c r="A224" s="2">
         <v>41883</v>
       </c>
@@ -7485,7 +8151,7 @@
         <v>20.32999992370605</v>
       </c>
       <c r="F224">
-        <v>16.38804817199707</v>
+        <v>16.38240623474121</v>
       </c>
       <c r="G224">
         <v>4983400</v>
@@ -7494,13 +8160,16 @@
         <v>-0.06913920413608199</v>
       </c>
       <c r="I224">
-        <v>0.01497749509617163</v>
+        <v>0.06289684320356255</v>
       </c>
       <c r="J224">
         <v>0.01497749509617163</v>
       </c>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="K224">
+        <v>0.01497749509617163</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
       <c r="A225" s="2">
         <v>41913</v>
       </c>
@@ -7517,7 +8186,7 @@
         <v>21.61000061035156</v>
       </c>
       <c r="F225">
-        <v>17.41986083984375</v>
+        <v>17.41386222839355</v>
       </c>
       <c r="G225">
         <v>1811000</v>
@@ -7526,13 +8195,16 @@
         <v>0.06296117518195099</v>
       </c>
       <c r="I225">
-        <v>0.06139489010449561</v>
+        <v>0.06310085710818382</v>
       </c>
       <c r="J225">
         <v>0.06139489010449561</v>
       </c>
-    </row>
-    <row r="226" spans="1:10">
+      <c r="K225">
+        <v>0.06139489010449561</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
       <c r="A226" s="2">
         <v>41944</v>
       </c>
@@ -7549,7 +8221,7 @@
         <v>21.68000030517578</v>
       </c>
       <c r="F226">
-        <v>17.47628974914551</v>
+        <v>17.47027015686035</v>
       </c>
       <c r="G226">
         <v>1427700</v>
@@ -7558,13 +8230,16 @@
         <v>0.003239226878628099</v>
       </c>
       <c r="I226">
-        <v>0.04481929181570021</v>
+        <v>0.06271257713919957</v>
       </c>
       <c r="J226">
         <v>0.04481929181570021</v>
       </c>
-    </row>
-    <row r="227" spans="1:10">
+      <c r="K226">
+        <v>0.04481929181570021</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
       <c r="A227" s="2">
         <v>41974</v>
       </c>
@@ -7581,7 +8256,7 @@
         <v>20.54000091552734</v>
       </c>
       <c r="F227">
-        <v>16.70976638793945</v>
+        <v>16.70401191711426</v>
       </c>
       <c r="G227">
         <v>1298100</v>
@@ -7590,13 +8265,16 @@
         <v>-0.05258299693733304</v>
       </c>
       <c r="I227">
-        <v>-0.002912595380160976</v>
+        <v>0.06294602051616785</v>
       </c>
       <c r="J227">
         <v>-0.002912595380160976</v>
       </c>
-    </row>
-    <row r="228" spans="1:10">
+      <c r="K227">
+        <v>-0.002912595380160976</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
       <c r="A228" s="2">
         <v>42005</v>
       </c>
@@ -7613,7 +8291,7 @@
         <v>21.67000007629395</v>
       </c>
       <c r="F228">
-        <v>17.6290454864502</v>
+        <v>17.62297630310059</v>
       </c>
       <c r="G228">
         <v>3359900</v>
@@ -7622,13 +8300,16 @@
         <v>0.05501456233686786</v>
       </c>
       <c r="I228">
-        <v>0.1333681550802059</v>
+        <v>0.06290634728808595</v>
       </c>
       <c r="J228">
         <v>0.1333681550802059</v>
       </c>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="K228">
+        <v>0.1333681550802059</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
       <c r="A229" s="2">
         <v>42036</v>
       </c>
@@ -7645,7 +8326,7 @@
         <v>21.70999908447266</v>
       </c>
       <c r="F229">
-        <v>17.66158485412598</v>
+        <v>17.6555061340332</v>
       </c>
       <c r="G229">
         <v>1492000</v>
@@ -7654,13 +8335,16 @@
         <v>0.001845824090350057</v>
       </c>
       <c r="I229">
-        <v>0.07581757959163449</v>
+        <v>0.06286051246501721</v>
       </c>
       <c r="J229">
         <v>0.07581757959163449</v>
       </c>
-    </row>
-    <row r="230" spans="1:10">
+      <c r="K229">
+        <v>0.07581757959163449</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
       <c r="A230" s="2">
         <v>42064</v>
       </c>
@@ -7677,7 +8361,7 @@
         <v>21.93000030517578</v>
       </c>
       <c r="F230">
-        <v>17.84056091308594</v>
+        <v>17.83442306518555</v>
       </c>
       <c r="G230">
         <v>3214600</v>
@@ -7686,13 +8370,16 @@
         <v>0.01013363565088654</v>
       </c>
       <c r="I230">
-        <v>0.1086956291150105</v>
+        <v>0.06274990277595902</v>
       </c>
       <c r="J230">
         <v>0.1086956291150105</v>
       </c>
-    </row>
-    <row r="231" spans="1:10">
+      <c r="K230">
+        <v>0.1086956291150105</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
       <c r="A231" s="2">
         <v>42095</v>
       </c>
@@ -7709,7 +8396,7 @@
         <v>23.79000091552734</v>
       </c>
       <c r="F231">
-        <v>19.35371208190918</v>
+        <v>19.3470516204834</v>
       </c>
       <c r="G231">
         <v>3260400</v>
@@ -7718,13 +8405,16 @@
         <v>0.08481534812895442</v>
       </c>
       <c r="I231">
-        <v>0.1730769285029261</v>
+        <v>0.06304532100746263</v>
       </c>
       <c r="J231">
         <v>0.1730769285029261</v>
       </c>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="K231">
+        <v>0.1730769285029261</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
       <c r="A232" s="2">
         <v>42125</v>
       </c>
@@ -7741,7 +8431,7 @@
         <v>23.68000030517578</v>
       </c>
       <c r="F232">
-        <v>19.26422500610352</v>
+        <v>19.25759315490723</v>
       </c>
       <c r="G232">
         <v>2796600</v>
@@ -7750,13 +8440,16 @@
         <v>-0.004623816986899176</v>
       </c>
       <c r="I232">
-        <v>0.1154027704082266</v>
+        <v>0.06305146768417588</v>
       </c>
       <c r="J232">
         <v>0.1154027704082266</v>
       </c>
-    </row>
-    <row r="233" spans="1:10">
+      <c r="K232">
+        <v>0.1154027704082266</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
       <c r="A233" s="2">
         <v>42156</v>
       </c>
@@ -7773,7 +8466,7 @@
         <v>22.55999946594238</v>
       </c>
       <c r="F233">
-        <v>18.59365653991699</v>
+        <v>18.58725547790527</v>
       </c>
       <c r="G233">
         <v>3134400</v>
@@ -7782,13 +8475,16 @@
         <v>-0.04729733212835296</v>
       </c>
       <c r="I233">
-        <v>0.08045978796457476</v>
+        <v>0.06321357864769953</v>
       </c>
       <c r="J233">
         <v>0.08045978796457476</v>
       </c>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="K233">
+        <v>0.08045978796457476</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
       <c r="A234" s="2">
         <v>42186</v>
       </c>
@@ -7805,7 +8501,7 @@
         <v>22.22999954223633</v>
       </c>
       <c r="F234">
-        <v>18.32167434692383</v>
+        <v>18.31536674499512</v>
       </c>
       <c r="G234">
         <v>2874500</v>
@@ -7814,13 +8510,16 @@
         <v>-0.0146276565389214</v>
       </c>
       <c r="I234">
-        <v>0.01045452464710572</v>
+        <v>0.06304598972202838</v>
       </c>
       <c r="J234">
         <v>0.01045452464710572</v>
       </c>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="K234">
+        <v>0.01045452464710572</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" s="2">
         <v>42217</v>
       </c>
@@ -7837,7 +8536,7 @@
         <v>19.28000068664551</v>
       </c>
       <c r="F235">
-        <v>15.89032649993896</v>
+        <v>15.88485431671143</v>
       </c>
       <c r="G235">
         <v>5415000</v>
@@ -7846,13 +8545,16 @@
         <v>-0.132703505008442</v>
       </c>
       <c r="I235">
-        <v>-0.1172160919439847</v>
+        <v>0.06429796772451914</v>
       </c>
       <c r="J235">
         <v>-0.1172160919439847</v>
       </c>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="K235">
+        <v>-0.1172160919439847</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
       <c r="A236" s="2">
         <v>42248</v>
       </c>
@@ -7869,7 +8571,7 @@
         <v>19.1200008392334</v>
       </c>
       <c r="F236">
-        <v>15.75845527648926</v>
+        <v>15.75302982330322</v>
       </c>
       <c r="G236">
         <v>3872500</v>
@@ -7878,13 +8580,16 @@
         <v>-0.008298746976857507</v>
       </c>
       <c r="I236">
-        <v>-0.05951790895295195</v>
+        <v>0.06423109790569259</v>
       </c>
       <c r="J236">
         <v>-0.05951790895295195</v>
       </c>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="K236">
+        <v>-0.05951790895295195</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
       <c r="A237" s="2">
         <v>42278</v>
       </c>
@@ -7901,7 +8606,7 @@
         <v>20.51000022888184</v>
       </c>
       <c r="F237">
-        <v>16.90407180786133</v>
+        <v>16.89825439453125</v>
       </c>
       <c r="G237">
         <v>2480200</v>
@@ -7910,13 +8615,16 @@
         <v>0.07269870965675995</v>
       </c>
       <c r="I237">
-        <v>-0.0509023762332893</v>
+        <v>0.06415354584286871</v>
       </c>
       <c r="J237">
         <v>-0.0509023762332893</v>
       </c>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="K237">
+        <v>-0.0509023762332893</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
       <c r="A238" s="2">
         <v>42309</v>
       </c>
@@ -7933,7 +8641,7 @@
         <v>20.09000015258789</v>
       </c>
       <c r="F238">
-        <v>16.55791664123535</v>
+        <v>16.55221366882324</v>
       </c>
       <c r="G238">
         <v>3526200</v>
@@ -7942,13 +8650,16 @@
         <v>-0.02047781919097735</v>
       </c>
       <c r="I238">
-        <v>-0.0733394894006667</v>
+        <v>0.0641867319897006</v>
       </c>
       <c r="J238">
         <v>-0.0733394894006667</v>
       </c>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="K238">
+        <v>-0.0733394894006667</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
       <c r="A239" s="2">
         <v>42339</v>
       </c>
@@ -7965,7 +8676,7 @@
         <v>19.81999969482422</v>
       </c>
       <c r="F239">
-        <v>16.51341438293457</v>
+        <v>16.50772857666016</v>
       </c>
       <c r="G239">
         <v>2274500</v>
@@ -7974,13 +8685,16 @@
         <v>-0.01343954483389542</v>
       </c>
       <c r="I239">
-        <v>-0.03505361190898659</v>
+        <v>0.06416674512638135</v>
       </c>
       <c r="J239">
         <v>-0.03505361190898659</v>
       </c>
-    </row>
-    <row r="240" spans="1:10">
+      <c r="K239">
+        <v>-0.03505361190898659</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
       <c r="A240" s="2">
         <v>42370</v>
       </c>
@@ -7997,7 +8711,7 @@
         <v>17.96999931335449</v>
       </c>
       <c r="F240">
-        <v>14.97205066680908</v>
+        <v>14.96689414978027</v>
       </c>
       <c r="G240">
         <v>12217900</v>
@@ -8006,13 +8720,16 @@
         <v>-0.09334008122880211</v>
       </c>
       <c r="I240">
-        <v>-0.170742997227171</v>
+        <v>0.06458525672416159</v>
       </c>
       <c r="J240">
         <v>-0.170742997227171</v>
       </c>
-    </row>
-    <row r="241" spans="1:10">
+      <c r="K240">
+        <v>-0.170742997227171</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
       <c r="A241" s="2">
         <v>42401</v>
       </c>
@@ -8029,7 +8746,7 @@
         <v>18.09000015258789</v>
       </c>
       <c r="F241">
-        <v>15.0720329284668</v>
+        <v>15.06684112548828</v>
       </c>
       <c r="G241">
         <v>2186900</v>
@@ -8038,13 +8755,16 @@
         <v>0.006677843284291107</v>
       </c>
       <c r="I241">
-        <v>-0.166743394036983</v>
+        <v>0.06456434096592163</v>
       </c>
       <c r="J241">
         <v>-0.166743394036983</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
+      <c r="K241">
+        <v>-0.166743394036983</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
       <c r="A242" s="2">
         <v>42430</v>
       </c>
@@ -8061,7 +8781,7 @@
         <v>19.77000045776367</v>
       </c>
       <c r="F242">
-        <v>16.47175598144531</v>
+        <v>16.46608352661133</v>
       </c>
       <c r="G242">
         <v>3079200</v>
@@ -8070,13 +8790,16 @@
         <v>0.0928690044778937</v>
       </c>
       <c r="I242">
-        <v>-0.09849520370970166</v>
+        <v>0.06505087909573945</v>
       </c>
       <c r="J242">
         <v>-0.09849520370970166</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="K242">
+        <v>-0.09849520370970166</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
       <c r="A243" s="2">
         <v>42461</v>
       </c>
@@ -8093,7 +8816,7 @@
         <v>19.78000068664551</v>
       </c>
       <c r="F243">
-        <v>16.48008728027344</v>
+        <v>16.47441673278809</v>
       </c>
       <c r="G243">
         <v>4016100</v>
@@ -8102,13 +8825,16 @@
         <v>0.0005058284598020713</v>
       </c>
       <c r="I243">
-        <v>-0.168558220872727</v>
+        <v>0.06485138356812391</v>
       </c>
       <c r="J243">
         <v>-0.168558220872727</v>
       </c>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="K243">
+        <v>-0.168558220872727</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
       <c r="A244" s="2">
         <v>42491</v>
       </c>
@@ -8125,7 +8851,7 @@
         <v>19.75</v>
       </c>
       <c r="F244">
-        <v>16.4550895690918</v>
+        <v>16.44942855834961</v>
       </c>
       <c r="G244">
         <v>5071300</v>
@@ -8134,13 +8860,16 @@
         <v>-0.001516718180185062</v>
       </c>
       <c r="I244">
-        <v>-0.1659628485864839</v>
+        <v>0.06454800791612834</v>
       </c>
       <c r="J244">
         <v>-0.1659628485864839</v>
       </c>
-    </row>
-    <row r="245" spans="1:10">
+      <c r="K244">
+        <v>-0.1659628485864839</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
       <c r="A245" s="2">
         <v>42522</v>
       </c>
@@ -8157,7 +8886,7 @@
         <v>19.57999992370605</v>
       </c>
       <c r="F245">
-        <v>16.64343643188477</v>
+        <v>16.63771057128906</v>
       </c>
       <c r="G245">
         <v>3866800</v>
@@ -8166,13 +8895,16 @@
         <v>-0.008607598799693417</v>
       </c>
       <c r="I245">
-        <v>-0.1320921814176048</v>
+        <v>0.06455963433899693</v>
       </c>
       <c r="J245">
         <v>-0.1320921814176048</v>
       </c>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="K245">
+        <v>-0.1320921814176048</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
       <c r="A246" s="2">
         <v>42552</v>
       </c>
@@ -8189,7 +8921,7 @@
         <v>20.89999961853027</v>
       </c>
       <c r="F246">
-        <v>17.76546669006348</v>
+        <v>17.75934982299805</v>
       </c>
       <c r="G246">
         <v>3263400</v>
@@ -8198,13 +8930,16 @@
         <v>0.0674157150136685</v>
       </c>
       <c r="I246">
-        <v>-0.05982905762904289</v>
+        <v>0.06480278264635132</v>
       </c>
       <c r="J246">
         <v>-0.05982905762904289</v>
       </c>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="K246">
+        <v>-0.05982905762904289</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
       <c r="A247" s="2">
         <v>42583</v>
       </c>
@@ -8221,7 +8956,7 @@
         <v>21.03000068664551</v>
       </c>
       <c r="F247">
-        <v>17.87596893310547</v>
+        <v>17.86981773376465</v>
       </c>
       <c r="G247">
         <v>2525700</v>
@@ -8230,13 +8965,16 @@
         <v>0.006220146913302971</v>
       </c>
       <c r="I247">
-        <v>0.09076763162213752</v>
+        <v>0.06475459027173532</v>
       </c>
       <c r="J247">
         <v>0.09076763162213752</v>
       </c>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="K247">
+        <v>0.09076763162213752</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
       <c r="A248" s="2">
         <v>42614</v>
       </c>
@@ -8253,7 +8991,7 @@
         <v>22.01000022888184</v>
       </c>
       <c r="F248">
-        <v>18.70899200439453</v>
+        <v>18.70255279541016</v>
       </c>
       <c r="G248">
         <v>2304500</v>
@@ -8262,13 +9000,16 @@
         <v>0.04660007181353287</v>
       </c>
       <c r="I248">
-        <v>0.1511505890584632</v>
+        <v>0.06485725295079406</v>
       </c>
       <c r="J248">
         <v>0.1511505890584632</v>
       </c>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="K248">
+        <v>0.1511505890584632</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
       <c r="A249" s="2">
         <v>42644</v>
       </c>
@@ -8285,7 +9026,7 @@
         <v>21.56999969482422</v>
       </c>
       <c r="F249">
-        <v>18.33498001098633</v>
+        <v>18.32867050170898</v>
       </c>
       <c r="G249">
         <v>1934300</v>
@@ -8294,13 +9035,16 @@
         <v>-0.01999093727769441</v>
       </c>
       <c r="I249">
-        <v>0.05168207967397831</v>
+        <v>0.06483924149904462</v>
       </c>
       <c r="J249">
         <v>0.05168207967397831</v>
       </c>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="K249">
+        <v>0.05168207967397831</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
       <c r="A250" s="2">
         <v>42675</v>
       </c>
@@ -8317,7 +9061,7 @@
         <v>21.17000007629395</v>
       </c>
       <c r="F250">
-        <v>17.99497413635254</v>
+        <v>17.98878288269043</v>
       </c>
       <c r="G250">
         <v>2913200</v>
@@ -8326,13 +9070,16 @@
         <v>-0.01854425703243079</v>
       </c>
       <c r="I250">
-        <v>0.05375808439538199</v>
+        <v>0.06471554955175304</v>
       </c>
       <c r="J250">
         <v>0.05375808439538199</v>
       </c>
-    </row>
-    <row r="251" spans="1:10">
+      <c r="K250">
+        <v>0.05375808439538199</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
       <c r="A251" s="2">
         <v>42705</v>
       </c>
@@ -8349,7 +9096,7 @@
         <v>19.47999954223633</v>
       </c>
       <c r="F251">
-        <v>16.73612022399902</v>
+        <v>16.73035621643066</v>
       </c>
       <c r="G251">
         <v>1537500</v>
@@ -8358,13 +9105,16 @@
         <v>-0.07982997297907768</v>
       </c>
       <c r="I251">
-        <v>-0.01715439746836511</v>
+        <v>0.06510407920067063</v>
       </c>
       <c r="J251">
         <v>-0.01715439746836511</v>
       </c>
-    </row>
-    <row r="252" spans="1:10">
+      <c r="K251">
+        <v>-0.01715439746836511</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
       <c r="A252" s="2">
         <v>42736</v>
       </c>
@@ -8381,7 +9131,7 @@
         <v>21.03000068664551</v>
       </c>
       <c r="F252">
-        <v>18.06779098510742</v>
+        <v>18.06157493591309</v>
       </c>
       <c r="G252">
         <v>2553200</v>
@@ -8390,13 +9140,16 @@
         <v>0.07956884911873252</v>
       </c>
       <c r="I252">
-        <v>0.1702838892718799</v>
+        <v>0.06544494991336482</v>
       </c>
       <c r="J252">
         <v>0.1702838892718799</v>
       </c>
-    </row>
-    <row r="253" spans="1:10">
+      <c r="K252">
+        <v>0.1702838892718799</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
       <c r="A253" s="2">
         <v>42767</v>
       </c>
@@ -8413,7 +9166,7 @@
         <v>21.61000061035156</v>
       </c>
       <c r="F253">
-        <v>18.56609535217285</v>
+        <v>18.55970573425293</v>
       </c>
       <c r="G253">
         <v>1577500</v>
@@ -8422,13 +9175,16 @@
         <v>0.02757964359337217</v>
       </c>
       <c r="I253">
-        <v>0.1945826660073362</v>
+        <v>0.06534312982581944</v>
       </c>
       <c r="J253">
         <v>0.1945826660073362</v>
       </c>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="K253">
+        <v>0.1945826660073362</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
       <c r="A254" s="2">
         <v>42795</v>
       </c>
@@ -8445,7 +9201,7 @@
         <v>22.25</v>
       </c>
       <c r="F254">
-        <v>19.11594772338867</v>
+        <v>19.10936737060547</v>
       </c>
       <c r="G254">
         <v>1765300</v>
@@ -8454,13 +9210,16 @@
         <v>0.02961588947581362</v>
       </c>
       <c r="I254">
-        <v>0.1254425637234839</v>
+        <v>0.06536304716069992</v>
       </c>
       <c r="J254">
         <v>0.1254425637234839</v>
       </c>
-    </row>
-    <row r="255" spans="1:10">
+      <c r="K254">
+        <v>0.1254425637234839</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
       <c r="A255" s="2">
         <v>42826</v>
       </c>
@@ -8477,7 +9236,7 @@
         <v>22.89999961853027</v>
       </c>
       <c r="F255">
-        <v>19.67438888549805</v>
+        <v>19.66761779785156</v>
       </c>
       <c r="G255">
         <v>1193300</v>
@@ -8486,13 +9245,16 @@
         <v>0.02921346600136054</v>
       </c>
       <c r="I255">
-        <v>0.1577350264700059</v>
+        <v>0.06539281314624126</v>
       </c>
       <c r="J255">
         <v>0.1577350264700059</v>
       </c>
-    </row>
-    <row r="256" spans="1:10">
+      <c r="K255">
+        <v>0.1577350264700059</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
       <c r="A256" s="2">
         <v>42856</v>
       </c>
@@ -8509,7 +9271,7 @@
         <v>23.64999961853027</v>
       </c>
       <c r="F256">
-        <v>20.31875038146973</v>
+        <v>20.31175231933594</v>
       </c>
       <c r="G256">
         <v>3058800</v>
@@ -8518,13 +9280,16 @@
         <v>0.03275109224862671</v>
       </c>
       <c r="I256">
-        <v>0.1974683351154569</v>
+        <v>0.06539802489604779</v>
       </c>
       <c r="J256">
         <v>0.1974683351154569</v>
       </c>
-    </row>
-    <row r="257" spans="1:10">
+      <c r="K256">
+        <v>0.1974683351154569</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11">
       <c r="A257" s="2">
         <v>42887</v>
       </c>
@@ -8541,7 +9306,7 @@
         <v>23.43000030517578</v>
       </c>
       <c r="F257">
-        <v>20.46890830993652</v>
+        <v>20.46186065673828</v>
       </c>
       <c r="G257">
         <v>3174700</v>
@@ -8550,13 +9315,16 @@
         <v>-0.009302296697802803</v>
       </c>
       <c r="I257">
-        <v>0.196629233731938</v>
+        <v>0.06540836474686977</v>
       </c>
       <c r="J257">
         <v>0.196629233731938</v>
       </c>
-    </row>
-    <row r="258" spans="1:10">
+      <c r="K257">
+        <v>0.196629233731938</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11">
       <c r="A258" s="2">
         <v>42917</v>
       </c>
@@ -8573,7 +9341,7 @@
         <v>24.28000068664551</v>
       </c>
       <c r="F258">
-        <v>21.21148490905762</v>
+        <v>21.20418357849121</v>
       </c>
       <c r="G258">
         <v>2089700</v>
@@ -8582,13 +9350,16 @@
         <v>0.03627829152362239</v>
       </c>
       <c r="I258">
-        <v>0.161722542096052</v>
+        <v>0.06531598046269993</v>
       </c>
       <c r="J258">
         <v>0.161722542096052</v>
       </c>
-    </row>
-    <row r="259" spans="1:10">
+      <c r="K258">
+        <v>0.161722542096052</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11">
       <c r="A259" s="2">
         <v>42948</v>
       </c>
@@ -8605,7 +9376,7 @@
         <v>24.69000053405762</v>
       </c>
       <c r="F259">
-        <v>21.56966781616211</v>
+        <v>21.56224250793457</v>
       </c>
       <c r="G259">
         <v>3197200</v>
@@ -8614,13 +9385,16 @@
         <v>0.0168863194323392</v>
       </c>
       <c r="I259">
-        <v>0.1740370769334443</v>
+        <v>0.06529088184638993</v>
       </c>
       <c r="J259">
         <v>0.1740370769334443</v>
       </c>
-    </row>
-    <row r="260" spans="1:10">
+      <c r="K259">
+        <v>0.1740370769334443</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11">
       <c r="A260" s="2">
         <v>42979</v>
       </c>
@@ -8637,7 +9411,7 @@
         <v>24.69000053405762</v>
       </c>
       <c r="F260">
-        <v>21.56966781616211</v>
+        <v>21.56224250793457</v>
       </c>
       <c r="G260">
         <v>3404700</v>
@@ -8646,13 +9420,16 @@
         <v>0</v>
       </c>
       <c r="I260">
-        <v>0.1217628476740789</v>
+        <v>0.06408229755618684</v>
       </c>
       <c r="J260">
         <v>0.1217628476740789</v>
       </c>
-    </row>
-    <row r="261" spans="1:10">
+      <c r="K260">
+        <v>0.1217628476740789</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11">
       <c r="A261" s="2">
         <v>43009</v>
       </c>
@@ -8669,7 +9446,7 @@
         <v>24.68000030517578</v>
       </c>
       <c r="F261">
-        <v>21.56092834472656</v>
+        <v>21.55350875854492</v>
       </c>
       <c r="G261">
         <v>2378600</v>
@@ -8678,13 +9455,16 @@
         <v>-0.0004050315376883384</v>
       </c>
       <c r="I261">
-        <v>0.1441817642258854</v>
+        <v>0.06287544444750974</v>
       </c>
       <c r="J261">
         <v>0.1441817642258854</v>
       </c>
-    </row>
-    <row r="262" spans="1:10">
+      <c r="K261">
+        <v>0.1441817642258854</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11">
       <c r="A262" s="2">
         <v>43040</v>
       </c>
@@ -8701,7 +9481,7 @@
         <v>25.65999984741211</v>
       </c>
       <c r="F262">
-        <v>22.41707801818848</v>
+        <v>22.40936088562012</v>
       </c>
       <c r="G262">
         <v>5701300</v>
@@ -8710,13 +9490,16 @@
         <v>0.03970824676330365</v>
       </c>
       <c r="I262">
-        <v>0.2120925722690972</v>
+        <v>0.0627597515938049</v>
       </c>
       <c r="J262">
         <v>0.2120925722690972</v>
       </c>
-    </row>
-    <row r="263" spans="1:10">
+      <c r="K262">
+        <v>0.2120925722690972</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
       <c r="A263" s="2">
         <v>43070</v>
       </c>
@@ -8733,7 +9516,7 @@
         <v>25.42000007629395</v>
       </c>
       <c r="F263">
-        <v>22.83864593505859</v>
+        <v>22.83078002929688</v>
       </c>
       <c r="G263">
         <v>1872600</v>
@@ -8742,13 +9525,16 @@
         <v>-0.009353069857573226</v>
       </c>
       <c r="I263">
-        <v>0.3049281659980829</v>
+        <v>0.06268652840856134</v>
       </c>
       <c r="J263">
         <v>0.3049281659980829</v>
       </c>
-    </row>
-    <row r="264" spans="1:10">
+      <c r="K263">
+        <v>0.3049281659980829</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11">
       <c r="A264" s="2">
         <v>43101</v>
       </c>
@@ -8765,7 +9551,7 @@
         <v>26.60000038146973</v>
       </c>
       <c r="F264">
-        <v>23.8988151550293</v>
+        <v>23.89058876037598</v>
       </c>
       <c r="G264">
         <v>5527300</v>
@@ -8774,13 +9560,16 @@
         <v>0.04642015348679007</v>
       </c>
       <c r="I264">
-        <v>0.2648597010441984</v>
+        <v>0.06224217922328362</v>
       </c>
       <c r="J264">
         <v>0.2648597010441984</v>
       </c>
-    </row>
-    <row r="265" spans="1:10">
+      <c r="K264">
+        <v>0.2648597010441984</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11">
       <c r="A265" s="2">
         <v>43132</v>
       </c>
@@ -8797,7 +9586,7 @@
         <v>25.57999992370605</v>
       </c>
       <c r="F265">
-        <v>22.98239135742188</v>
+        <v>22.97448539733887</v>
       </c>
       <c r="G265">
         <v>5402200</v>
@@ -8806,13 +9595,16 @@
         <v>-0.03834588132089767</v>
       </c>
       <c r="I265">
-        <v>0.1837112078309149</v>
+        <v>0.06191687490217591</v>
       </c>
       <c r="J265">
         <v>0.1837112078309149</v>
       </c>
-    </row>
-    <row r="266" spans="1:10">
+      <c r="K265">
+        <v>0.1837112078309149</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
       <c r="A266" s="2">
         <v>43160</v>
       </c>
@@ -8829,7 +9621,7 @@
         <v>25.30999946594238</v>
       </c>
       <c r="F266">
-        <v>22.73981475830078</v>
+        <v>22.73198318481445</v>
       </c>
       <c r="G266">
         <v>3125800</v>
@@ -8838,13 +9630,16 @@
         <v>-0.01055513911528405</v>
       </c>
       <c r="I266">
-        <v>0.1375280658850508</v>
+        <v>0.06186165519461544</v>
       </c>
       <c r="J266">
         <v>0.1375280658850508</v>
       </c>
-    </row>
-    <row r="267" spans="1:10">
+      <c r="K266">
+        <v>0.1375280658850508</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11">
       <c r="A267" s="2">
         <v>43191</v>
       </c>
@@ -8861,7 +9656,7 @@
         <v>25.70999908447266</v>
       </c>
       <c r="F267">
-        <v>23.09919166564941</v>
+        <v>23.09123802185059</v>
       </c>
       <c r="G267">
         <v>3889600</v>
@@ -8870,13 +9665,16 @@
         <v>0.0158040152892347</v>
       </c>
       <c r="I267">
-        <v>0.1227074023035608</v>
+        <v>0.06144450899093402</v>
       </c>
       <c r="J267">
         <v>0.1227074023035608</v>
       </c>
-    </row>
-    <row r="268" spans="1:10">
+      <c r="K267">
+        <v>0.1227074023035608</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
       <c r="A268" s="2">
         <v>43221</v>
       </c>
@@ -8893,7 +9691,7 @@
         <v>25.98999977111816</v>
       </c>
       <c r="F268">
-        <v>23.35075950622559</v>
+        <v>23.34272003173828</v>
       </c>
       <c r="G268">
         <v>4520100</v>
@@ -8902,13 +9700,16 @@
         <v>0.01089073110137173</v>
       </c>
       <c r="I268">
-        <v>0.09894292559541729</v>
+        <v>0.06144473260214831</v>
       </c>
       <c r="J268">
         <v>0.09894292559541729</v>
       </c>
-    </row>
-    <row r="269" spans="1:10">
+      <c r="K268">
+        <v>0.09894292559541729</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
       <c r="A269" s="2">
         <v>43252</v>
       </c>
@@ -8925,7 +9726,7 @@
         <v>24.20999908447266</v>
       </c>
       <c r="F269">
-        <v>22.09185600280762</v>
+        <v>22.08425140380859</v>
       </c>
       <c r="G269">
         <v>4229800</v>
@@ -8934,13 +9735,16 @@
         <v>-0.06848790697657348</v>
       </c>
       <c r="I269">
-        <v>0.03329060047534749</v>
+        <v>0.06061566235395471</v>
       </c>
       <c r="J269">
         <v>0.03329060047534749</v>
       </c>
-    </row>
-    <row r="270" spans="1:10">
+      <c r="K269">
+        <v>0.03329060047534749</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11">
       <c r="A270" s="2">
         <v>43282</v>
       </c>
@@ -8957,7 +9761,7 @@
         <v>24.76000022888184</v>
       </c>
       <c r="F270">
-        <v>22.59373474121094</v>
+        <v>22.58595848083496</v>
       </c>
       <c r="G270">
         <v>7874000</v>
@@ -8966,13 +9770,16 @@
         <v>0.02271793330062244</v>
       </c>
       <c r="I270">
-        <v>0.01976933808327019</v>
+        <v>0.06061201632889408</v>
       </c>
       <c r="J270">
         <v>0.01976933808327019</v>
       </c>
-    </row>
-    <row r="271" spans="1:10">
+      <c r="K270">
+        <v>0.01976933808327019</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11">
       <c r="A271" s="2">
         <v>43313</v>
       </c>
@@ -8989,7 +9796,7 @@
         <v>24.14999961853027</v>
       </c>
       <c r="F271">
-        <v>22.0371036529541</v>
+        <v>22.02951812744141</v>
       </c>
       <c r="G271">
         <v>4075000</v>
@@ -8998,13 +9805,16 @@
         <v>-0.02463653492377649</v>
       </c>
       <c r="I271">
-        <v>-0.02187123952397085</v>
+        <v>0.06045984097419762</v>
       </c>
       <c r="J271">
         <v>-0.02187123952397085</v>
       </c>
-    </row>
-    <row r="272" spans="1:10">
+      <c r="K271">
+        <v>-0.02187123952397085</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11">
       <c r="A272" s="2">
         <v>43344</v>
       </c>
@@ -9021,7 +9831,7 @@
         <v>23.92000007629395</v>
       </c>
       <c r="F272">
-        <v>21.82723045349121</v>
+        <v>21.81971549987793</v>
       </c>
       <c r="G272">
         <v>6231200</v>
@@ -9030,13 +9840,16 @@
         <v>-0.009523790719228376</v>
       </c>
       <c r="I272">
-        <v>-0.03118673313520293</v>
+        <v>0.05835775856784902</v>
       </c>
       <c r="J272">
         <v>-0.03118673313520293</v>
       </c>
-    </row>
-    <row r="273" spans="1:10">
+      <c r="K272">
+        <v>-0.03118673313520293</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
       <c r="A273" s="2">
         <v>43374</v>
       </c>
@@ -9053,7 +9866,7 @@
         <v>21.3700008392334</v>
       </c>
       <c r="F273">
-        <v>19.50032997131348</v>
+        <v>19.49361991882324</v>
       </c>
       <c r="G273">
         <v>7454300</v>
@@ -9062,13 +9875,16 @@
         <v>-0.1066053189350838</v>
       </c>
       <c r="I273">
-        <v>-0.134116670381411</v>
+        <v>0.05580135881663576</v>
       </c>
       <c r="J273">
         <v>-0.134116670381411</v>
       </c>
-    </row>
-    <row r="274" spans="1:10">
+      <c r="K273">
+        <v>-0.134116670381411</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
       <c r="A274" s="2">
         <v>43405</v>
       </c>
@@ -9085,7 +9901,7 @@
         <v>23.07999992370605</v>
       </c>
       <c r="F274">
-        <v>21.06071662902832</v>
+        <v>21.05347061157227</v>
       </c>
       <c r="G274">
         <v>4635600</v>
@@ -9094,13 +9910,16 @@
         <v>0.08001867184456324</v>
       </c>
       <c r="I274">
-        <v>-0.100545593883402</v>
+        <v>0.05615715744023285</v>
       </c>
       <c r="J274">
         <v>-0.100545593883402</v>
       </c>
-    </row>
-    <row r="275" spans="1:10">
+      <c r="K274">
+        <v>-0.100545593883402</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11">
       <c r="A275" s="2">
         <v>43435</v>
       </c>
@@ -9117,7 +9936,7 @@
         <v>22.56999969482422</v>
       </c>
       <c r="F275">
-        <v>20.83912467956543</v>
+        <v>20.83195114135742</v>
       </c>
       <c r="G275">
         <v>3059700</v>
@@ -9126,13 +9945,16 @@
         <v>-0.0220970637161052</v>
       </c>
       <c r="I275">
-        <v>-0.1121164584152604</v>
+        <v>0.05622572735861524</v>
       </c>
       <c r="J275">
         <v>-0.1121164584152604</v>
       </c>
-    </row>
-    <row r="276" spans="1:10">
+      <c r="K275">
+        <v>-0.1121164584152604</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
       <c r="A276" s="2">
         <v>43466</v>
       </c>
@@ -9149,7 +9971,7 @@
         <v>24.72999954223633</v>
       </c>
       <c r="F276">
-        <v>22.83347702026367</v>
+        <v>22.82561683654785</v>
       </c>
       <c r="G276">
         <v>8232900</v>
@@ -9158,13 +9980,16 @@
         <v>0.09570225417005407</v>
       </c>
       <c r="I276">
-        <v>-0.07030078242164584</v>
+        <v>0.05665696332949791</v>
       </c>
       <c r="J276">
         <v>-0.07030078242164584</v>
       </c>
-    </row>
-    <row r="277" spans="1:10">
+      <c r="K276">
+        <v>-0.07030078242164584</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
       <c r="A277" s="2">
         <v>43497</v>
       </c>
@@ -9181,7 +10006,7 @@
         <v>25.86000061035156</v>
       </c>
       <c r="F277">
-        <v>23.8768196105957</v>
+        <v>23.86859893798828</v>
       </c>
       <c r="G277">
         <v>3197300</v>
@@ -9190,13 +10015,16 @@
         <v>0.04569353372551865</v>
       </c>
       <c r="I277">
-        <v>0.01094607847852336</v>
+        <v>0.05657295439519818</v>
       </c>
       <c r="J277">
         <v>0.01094607847852336</v>
       </c>
-    </row>
-    <row r="278" spans="1:10">
+      <c r="K277">
+        <v>0.01094607847852336</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
       <c r="A278" s="2">
         <v>43525</v>
       </c>
@@ -9213,7 +10041,7 @@
         <v>26.20999908447266</v>
       </c>
       <c r="F278">
-        <v>24.19997406005859</v>
+        <v>24.19164657592773</v>
       </c>
       <c r="G278">
         <v>6485800</v>
@@ -9222,13 +10050,16 @@
         <v>0.01353435676180892</v>
       </c>
       <c r="I278">
-        <v>0.03555905324065023</v>
+        <v>0.05640624357018176</v>
       </c>
       <c r="J278">
         <v>0.03555905324065023</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="K278">
+        <v>0.03555905324065023</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
       <c r="A279" s="2">
         <v>43556</v>
       </c>
@@ -9245,7 +10076,7 @@
         <v>26.47999954223633</v>
       </c>
       <c r="F279">
-        <v>24.44926834106445</v>
+        <v>24.44085311889648</v>
       </c>
       <c r="G279">
         <v>6086600</v>
@@ -9254,13 +10085,16 @@
         <v>0.01030142949999657</v>
       </c>
       <c r="I279">
-        <v>0.02994945488849532</v>
+        <v>0.05450731077261117</v>
       </c>
       <c r="J279">
         <v>0.02994945488849532</v>
       </c>
-    </row>
-    <row r="280" spans="1:10">
+      <c r="K279">
+        <v>0.02994945488849532</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
       <c r="A280" s="2">
         <v>43586</v>
       </c>
@@ -9277,7 +10111,7 @@
         <v>24.65999984741211</v>
       </c>
       <c r="F280">
-        <v>22.76884460449219</v>
+        <v>22.76100730895996</v>
       </c>
       <c r="G280">
         <v>4062100</v>
@@ -9286,13 +10120,16 @@
         <v>-0.06873110748817302</v>
       </c>
       <c r="I280">
-        <v>-0.05117352579525758</v>
+        <v>0.05219053104585064</v>
       </c>
       <c r="J280">
         <v>-0.05117352579525758</v>
       </c>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="K280">
+        <v>-0.05117352579525758</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
       <c r="A281" s="2">
         <v>43617</v>
       </c>
@@ -9309,7 +10146,7 @@
         <v>25.8799991607666</v>
       </c>
       <c r="F281">
-        <v>24.33543586730957</v>
+        <v>24.32705879211426</v>
       </c>
       <c r="G281">
         <v>5821200</v>
@@ -9318,13 +10155,16 @@
         <v>0.04947280295634404</v>
       </c>
       <c r="I281">
-        <v>0.06897976618945911</v>
+        <v>0.0522280703685128</v>
       </c>
       <c r="J281">
         <v>0.06897976618945911</v>
       </c>
-    </row>
-    <row r="282" spans="1:10">
+      <c r="K281">
+        <v>0.06897976618945911</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
       <c r="A282" s="2">
         <v>43647</v>
       </c>
@@ -9341,7 +10181,7 @@
         <v>24.85000038146973</v>
       </c>
       <c r="F282">
-        <v>23.36690521240234</v>
+        <v>23.35886383056641</v>
       </c>
       <c r="G282">
         <v>6276400</v>
@@ -9350,13 +10190,16 @@
         <v>-0.03979902676574754</v>
       </c>
       <c r="I282">
-        <v>0.003634901120998624</v>
+        <v>0.05140923747553431</v>
       </c>
       <c r="J282">
         <v>0.003634901120998624</v>
       </c>
-    </row>
-    <row r="283" spans="1:10">
+      <c r="K282">
+        <v>0.003634901120998624</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
       <c r="A283" s="2">
         <v>43678</v>
       </c>
@@ -9373,7 +10216,7 @@
         <v>22.84000015258789</v>
       </c>
       <c r="F283">
-        <v>21.47686576843262</v>
+        <v>21.46947479248047</v>
       </c>
       <c r="G283">
         <v>6658300</v>
@@ -9382,13 +10225,16 @@
         <v>-0.08088531984010205</v>
       </c>
       <c r="I283">
-        <v>-0.05424428516086688</v>
+        <v>0.05166734662276889</v>
       </c>
       <c r="J283">
         <v>-0.05424428516086688</v>
       </c>
-    </row>
-    <row r="284" spans="1:10">
+      <c r="K283">
+        <v>-0.05424428516086688</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
       <c r="A284" s="2">
         <v>43709</v>
       </c>
@@ -9405,7 +10251,7 @@
         <v>22.70000076293945</v>
       </c>
       <c r="F284">
-        <v>21.34522247314453</v>
+        <v>21.33787536621094</v>
       </c>
       <c r="G284">
         <v>5335800</v>
@@ -9414,13 +10260,16 @@
         <v>-0.0061295704340254</v>
       </c>
       <c r="I284">
-        <v>-0.05100331561301208</v>
+        <v>0.05126045753120442</v>
       </c>
       <c r="J284">
         <v>-0.05100331561301208</v>
       </c>
-    </row>
-    <row r="285" spans="1:10">
+      <c r="K284">
+        <v>-0.05100331561301208</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
       <c r="A285" s="2">
         <v>43739</v>
       </c>
@@ -9437,7 +10286,7 @@
         <v>23.78000068664551</v>
       </c>
       <c r="F285">
-        <v>22.36076927185059</v>
+        <v>22.35306739807129</v>
       </c>
       <c r="G285">
         <v>3399500</v>
@@ -9446,13 +10295,16 @@
         <v>0.04757708755099643</v>
       </c>
       <c r="I285">
-        <v>0.1127749065403669</v>
+        <v>0.05140964372191713</v>
       </c>
       <c r="J285">
         <v>0.1127749065403669</v>
       </c>
-    </row>
-    <row r="286" spans="1:10">
+      <c r="K285">
+        <v>0.1127749065403669</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
       <c r="A286" s="2">
         <v>43770</v>
       </c>
@@ -9469,7 +10321,7 @@
         <v>23.54000091552734</v>
       </c>
       <c r="F286">
-        <v>22.13509178161621</v>
+        <v>22.12747383117676</v>
       </c>
       <c r="G286">
         <v>2948500</v>
@@ -9478,13 +10330,16 @@
         <v>-0.0100925048018583</v>
       </c>
       <c r="I286">
-        <v>0.01993071894895504</v>
+        <v>0.05140543710284291</v>
       </c>
       <c r="J286">
         <v>0.01993071894895504</v>
       </c>
-    </row>
-    <row r="287" spans="1:10">
+      <c r="K286">
+        <v>0.01993071894895504</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
       <c r="A287" s="2">
         <v>43800</v>
       </c>
@@ -9501,7 +10356,7 @@
         <v>24.32999992370605</v>
       </c>
       <c r="F287">
-        <v>23.07603454589844</v>
+        <v>23.06809234619141</v>
       </c>
       <c r="G287">
         <v>2480100</v>
@@ -9510,13 +10365,16 @@
         <v>0.03355985460721089</v>
       </c>
       <c r="I287">
-        <v>0.077979630158588</v>
+        <v>0.05144810612852198</v>
       </c>
       <c r="J287">
         <v>0.077979630158588</v>
       </c>
-    </row>
-    <row r="288" spans="1:10">
+      <c r="K287">
+        <v>0.077979630158588</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
       <c r="A288" s="2">
         <v>43831</v>
       </c>
@@ -9533,7 +10391,7 @@
         <v>22.90999984741211</v>
       </c>
       <c r="F288">
-        <v>21.72922134399414</v>
+        <v>21.72174072265625</v>
       </c>
       <c r="G288">
         <v>8880400</v>
@@ -9542,13 +10400,16 @@
         <v>-0.05836416279271583</v>
       </c>
       <c r="I288">
-        <v>-0.07359481312225036</v>
+        <v>0.05136683275316319</v>
       </c>
       <c r="J288">
         <v>-0.07359481312225036</v>
       </c>
-    </row>
-    <row r="289" spans="1:10">
+      <c r="K288">
+        <v>-0.07359481312225036</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
       <c r="A289" s="2">
         <v>43862</v>
       </c>
@@ -9565,7 +10426,7 @@
         <v>22.96999931335449</v>
       </c>
       <c r="F289">
-        <v>21.7861270904541</v>
+        <v>21.77862930297852</v>
       </c>
       <c r="G289">
         <v>18943400</v>
@@ -9574,13 +10435,16 @@
         <v>0.002618920399039659</v>
       </c>
       <c r="I289">
-        <v>-0.1117556546321281</v>
+        <v>0.05116376825518633</v>
       </c>
       <c r="J289">
         <v>-0.1117556546321281</v>
       </c>
-    </row>
-    <row r="290" spans="1:10">
+      <c r="K289">
+        <v>-0.1117556546321281</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
       <c r="A290" s="2">
         <v>43891</v>
       </c>
@@ -9597,7 +10461,7 @@
         <v>19.94000053405762</v>
       </c>
       <c r="F290">
-        <v>18.91229629516602</v>
+        <v>18.90578460693359</v>
       </c>
       <c r="G290">
         <v>5759400</v>
@@ -9606,13 +10470,16 @@
         <v>-0.1319111393066202</v>
       </c>
       <c r="I290">
-        <v>-0.2392216241674543</v>
+        <v>0.05244058445828765</v>
       </c>
       <c r="J290">
         <v>-0.2392216241674543</v>
       </c>
-    </row>
-    <row r="291" spans="1:10">
+      <c r="K290">
+        <v>-0.2392216241674543</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
       <c r="A291" s="2">
         <v>43922</v>
       </c>
@@ -9629,7 +10496,7 @@
         <v>21.14999961853027</v>
       </c>
       <c r="F291">
-        <v>20.05993270874023</v>
+        <v>20.05302619934082</v>
       </c>
       <c r="G291">
         <v>4485400</v>
@@ -9638,13 +10505,16 @@
         <v>0.06068199859904566</v>
       </c>
       <c r="I291">
-        <v>-0.2012839885138427</v>
+        <v>0.05256008752574609</v>
       </c>
       <c r="J291">
         <v>-0.2012839885138427</v>
       </c>
-    </row>
-    <row r="292" spans="1:10">
+      <c r="K291">
+        <v>-0.2012839885138427</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
       <c r="A292" s="2">
         <v>43952</v>
       </c>
@@ -9661,7 +10531,7 @@
         <v>19.84000015258789</v>
       </c>
       <c r="F292">
-        <v>18.81744766235352</v>
+        <v>18.81097221374512</v>
       </c>
       <c r="G292">
         <v>10788800</v>
@@ -9670,13 +10540,16 @@
         <v>-0.06193851014515594</v>
       </c>
       <c r="I292">
-        <v>-0.195458220788677</v>
+        <v>0.05261786638230117</v>
       </c>
       <c r="J292">
         <v>-0.195458220788677</v>
       </c>
-    </row>
-    <row r="293" spans="1:10">
+      <c r="K292">
+        <v>-0.195458220788677</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
       <c r="A293" s="2">
         <v>43983</v>
       </c>
@@ -9693,7 +10566,7 @@
         <v>21.3700008392334</v>
       </c>
       <c r="F293">
-        <v>20.65952682495117</v>
+        <v>20.65241432189941</v>
       </c>
       <c r="G293">
         <v>5129000</v>
@@ -9702,13 +10575,16 @@
         <v>0.07711696949991897</v>
       </c>
       <c r="I293">
-        <v>-0.1742657831446239</v>
+        <v>0.05303909986557505</v>
       </c>
       <c r="J293">
         <v>-0.1742657831446239</v>
       </c>
-    </row>
-    <row r="294" spans="1:10">
+      <c r="K293">
+        <v>-0.1742657831446239</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
       <c r="A294" s="2">
         <v>44013</v>
       </c>
@@ -9725,7 +10601,7 @@
         <v>21.11000061035156</v>
       </c>
       <c r="F294">
-        <v>20.40817070007324</v>
+        <v>20.40114402770996</v>
       </c>
       <c r="G294">
         <v>5200700</v>
@@ -9734,13 +10610,16 @@
         <v>-0.01216659890833971</v>
       </c>
       <c r="I294">
-        <v>-0.1505030065877595</v>
+        <v>0.05261170851169351</v>
       </c>
       <c r="J294">
         <v>-0.1505030065877595</v>
       </c>
-    </row>
-    <row r="295" spans="1:10">
+      <c r="K294">
+        <v>-0.1505030065877595</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
       <c r="A295" s="2">
         <v>44044</v>
       </c>
@@ -9757,7 +10636,7 @@
         <v>22.70000076293945</v>
       </c>
       <c r="F295">
-        <v>21.94530868530273</v>
+        <v>21.93775367736816</v>
       </c>
       <c r="G295">
         <v>7129500</v>
@@ -9766,13 +10645,16 @@
         <v>0.07531975872176022</v>
       </c>
       <c r="I295">
-        <v>-0.0061295704340254</v>
+        <v>0.0530158179717695</v>
       </c>
       <c r="J295">
         <v>-0.0061295704340254</v>
       </c>
-    </row>
-    <row r="296" spans="1:10">
+      <c r="K295">
+        <v>-0.0061295704340254</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
       <c r="A296" s="2">
         <v>44075</v>
       </c>
@@ -9789,7 +10671,7 @@
         <v>21.92000007629395</v>
       </c>
       <c r="F296">
-        <v>21.19123840332031</v>
+        <v>21.18394660949707</v>
       </c>
       <c r="G296">
         <v>8109000</v>
@@ -9798,13 +10680,16 @@
         <v>-0.0343612625740064</v>
       </c>
       <c r="I296">
-        <v>-0.0343612625740064</v>
+        <v>0.05175907552875823</v>
       </c>
       <c r="J296">
         <v>-0.0343612625740064</v>
       </c>
-    </row>
-    <row r="297" spans="1:10">
+      <c r="K296">
+        <v>-0.0343612625740064</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
       <c r="A297" s="2">
         <v>44105</v>
       </c>
@@ -9821,7 +10706,7 @@
         <v>21.5</v>
       </c>
       <c r="F297">
-        <v>20.78520584106445</v>
+        <v>20.77804946899414</v>
       </c>
       <c r="G297">
         <v>6048100</v>
@@ -9830,13 +10715,16 @@
         <v>-0.01916058735547943</v>
       </c>
       <c r="I297">
-        <v>-0.09587891592980158</v>
+        <v>0.05172583210377099</v>
       </c>
       <c r="J297">
         <v>-0.09587891592980158</v>
       </c>
-    </row>
-    <row r="298" spans="1:10">
+      <c r="K297">
+        <v>-0.09587891592980158</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
       <c r="A298" s="2">
         <v>44136</v>
       </c>
@@ -9853,7 +10741,7 @@
         <v>23.79000091552734</v>
       </c>
       <c r="F298">
-        <v>22.99906921386719</v>
+        <v>22.99115371704102</v>
       </c>
       <c r="G298">
         <v>5757300</v>
@@ -9862,13 +10750,16 @@
         <v>0.1065116704896438</v>
       </c>
       <c r="I298">
-        <v>0.01062022048754874</v>
+        <v>0.05258786307104529</v>
       </c>
       <c r="J298">
         <v>0.01062022048754874</v>
       </c>
-    </row>
-    <row r="299" spans="1:10">
+      <c r="K298">
+        <v>0.01062022048754874</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
       <c r="A299" s="2">
         <v>44166</v>
       </c>
@@ -9885,7 +10776,7 @@
         <v>24.63999938964844</v>
       </c>
       <c r="F299">
-        <v>24.0380744934082</v>
+        <v>24.02980041503906</v>
       </c>
       <c r="G299">
         <v>3251900</v>
@@ -9894,13 +10785,16 @@
         <v>0.03572923250987836</v>
       </c>
       <c r="I299">
-        <v>0.01274144952381739</v>
+        <v>0.05267068850522248</v>
       </c>
       <c r="J299">
         <v>0.01274144952381739</v>
       </c>
-    </row>
-    <row r="300" spans="1:10">
+      <c r="K299">
+        <v>0.01274144952381739</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
       <c r="A300" s="2">
         <v>44197</v>
       </c>
@@ -9917,7 +10811,7 @@
         <v>25.05999946594238</v>
       </c>
       <c r="F300">
-        <v>24.44781494140625</v>
+        <v>24.43939971923828</v>
       </c>
       <c r="G300">
         <v>4694300</v>
@@ -9926,13 +10820,16 @@
         <v>0.01704545806402868</v>
       </c>
       <c r="I300">
-        <v>0.09384546629637525</v>
+        <v>0.05267601808000592</v>
       </c>
       <c r="J300">
         <v>0.09384546629637525</v>
       </c>
-    </row>
-    <row r="301" spans="1:10">
+      <c r="K300">
+        <v>0.09384546629637525</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
       <c r="A301" s="2">
         <v>44228</v>
       </c>
@@ -9949,7 +10846,7 @@
         <v>26.30999946594238</v>
       </c>
       <c r="F301">
-        <v>25.66727828979492</v>
+        <v>25.65844345092773</v>
       </c>
       <c r="G301">
         <v>8746400</v>
@@ -9958,13 +10855,16 @@
         <v>0.0498802883734617</v>
       </c>
       <c r="I301">
-        <v>0.1454070636670004</v>
+        <v>0.05276730612386604</v>
       </c>
       <c r="J301">
         <v>0.1454070636670004</v>
       </c>
-    </row>
-    <row r="302" spans="1:10">
+      <c r="K301">
+        <v>0.1454070636670004</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
       <c r="A302" s="2">
         <v>44256</v>
       </c>
@@ -9981,7 +10881,7 @@
         <v>26.57999992370605</v>
       </c>
       <c r="F302">
-        <v>25.93068313598633</v>
+        <v>25.92175674438477</v>
       </c>
       <c r="G302">
         <v>7279600</v>
@@ -9990,13 +10890,16 @@
         <v>0.01026227530385104</v>
       </c>
       <c r="I302">
-        <v>0.3329989574627787</v>
+        <v>0.05276273293652771</v>
       </c>
       <c r="J302">
         <v>0.3329989574627787</v>
       </c>
-    </row>
-    <row r="303" spans="1:10">
+      <c r="K302">
+        <v>0.3329989574627787</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
       <c r="A303" s="2">
         <v>44287</v>
       </c>
@@ -10013,7 +10916,7 @@
         <v>27.27000045776367</v>
       </c>
       <c r="F303">
-        <v>26.60382652282715</v>
+        <v>26.59467124938965</v>
       </c>
       <c r="G303">
         <v>4172000</v>
@@ -10022,13 +10925,16 @@
         <v>0.02595938811279774</v>
       </c>
       <c r="I303">
-        <v>0.289361747026768</v>
+        <v>0.05277310806985383</v>
       </c>
       <c r="J303">
         <v>0.289361747026768</v>
       </c>
-    </row>
-    <row r="304" spans="1:10">
+      <c r="K303">
+        <v>0.289361747026768</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
       <c r="A304" s="2">
         <v>44317</v>
       </c>
@@ -10045,7 +10951,7 @@
         <v>28.10000038146973</v>
       </c>
       <c r="F304">
-        <v>27.41355133056641</v>
+        <v>27.40411567687988</v>
       </c>
       <c r="G304">
         <v>4597800</v>
@@ -10054,13 +10960,16 @@
         <v>0.03043637366239049</v>
       </c>
       <c r="I304">
-        <v>0.4163306534957067</v>
+        <v>0.05282714679466415</v>
       </c>
       <c r="J304">
         <v>0.4163306534957067</v>
       </c>
-    </row>
-    <row r="305" spans="1:10">
+      <c r="K304">
+        <v>0.4163306534957067</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
       <c r="A305" s="2">
         <v>44348</v>
       </c>
@@ -10077,7 +10986,7 @@
         <v>26.71999931335449</v>
       </c>
       <c r="F305">
-        <v>26.43650436401367</v>
+        <v>26.42740440368652</v>
       </c>
       <c r="G305">
         <v>3728800</v>
@@ -10086,13 +10995,16 @@
         <v>-0.04911035762922134</v>
       </c>
       <c r="I305">
-        <v>0.250350878054201</v>
+        <v>0.05283805504385384</v>
       </c>
       <c r="J305">
         <v>0.250350878054201</v>
       </c>
-    </row>
-    <row r="306" spans="1:10">
+      <c r="K305">
+        <v>0.250350878054201</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
       <c r="A306" s="2">
         <v>44378</v>
       </c>
@@ -10109,7 +11021,7 @@
         <v>26.07999992370605</v>
       </c>
       <c r="F306">
-        <v>25.80329513549805</v>
+        <v>25.79441261291504</v>
       </c>
       <c r="G306">
         <v>6269000</v>
@@ -10118,13 +11030,16 @@
         <v>-0.0239520735814005</v>
       </c>
       <c r="I306">
-        <v>0.235433404531376</v>
+        <v>0.05289316942437382</v>
       </c>
       <c r="J306">
         <v>0.235433404531376</v>
       </c>
-    </row>
-    <row r="307" spans="1:10">
+      <c r="K306">
+        <v>0.235433404531376</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11">
       <c r="A307" s="2">
         <v>44409</v>
       </c>
@@ -10141,7 +11056,7 @@
         <v>25.77000045776367</v>
       </c>
       <c r="F307">
-        <v>25.49658393859863</v>
+        <v>25.48780822753906</v>
       </c>
       <c r="G307">
         <v>5285100</v>
@@ -10150,13 +11065,16 @@
         <v>-0.0118864826245878</v>
       </c>
       <c r="I307">
-        <v>0.1352422727595839</v>
+        <v>0.05257729613623451</v>
       </c>
       <c r="J307">
         <v>0.1352422727595839</v>
       </c>
-    </row>
-    <row r="308" spans="1:10">
+      <c r="K307">
+        <v>0.1352422727595839</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11">
       <c r="A308" s="2">
         <v>44440</v>
       </c>
@@ -10173,7 +11091,7 @@
         <v>23.97999954223633</v>
       </c>
       <c r="F308">
-        <v>23.7255744934082</v>
+        <v>23.7174072265625</v>
       </c>
       <c r="G308">
         <v>6326000</v>
@@ -10182,13 +11100,16 @@
         <v>-0.06946064740903313</v>
       </c>
       <c r="I308">
-        <v>0.09397807749874199</v>
+        <v>0.04997510938319306</v>
       </c>
       <c r="J308">
         <v>0.09397807749874199</v>
       </c>
-    </row>
-    <row r="309" spans="1:10">
+      <c r="K308">
+        <v>0.09397807749874199</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11">
       <c r="A309" s="2">
         <v>44470</v>
       </c>
@@ -10205,7 +11126,7 @@
         <v>24.54000091552734</v>
       </c>
       <c r="F309">
-        <v>24.27963447570801</v>
+        <v>24.27127647399902</v>
       </c>
       <c r="G309">
         <v>3843900</v>
@@ -10214,13 +11135,16 @@
         <v>0.02335285170897006</v>
       </c>
       <c r="I309">
-        <v>0.1413953914198764</v>
+        <v>0.0486790383553371</v>
       </c>
       <c r="J309">
         <v>0.1413953914198764</v>
       </c>
-    </row>
-    <row r="310" spans="1:10">
+      <c r="K309">
+        <v>0.1413953914198764</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11">
       <c r="A310" s="2">
         <v>44501</v>
       </c>
@@ -10237,7 +11161,7 @@
         <v>23.29000091552734</v>
       </c>
       <c r="F310">
-        <v>23.04289627075195</v>
+        <v>23.03496360778809</v>
       </c>
       <c r="G310">
         <v>5712500</v>
@@ -10246,42 +11170,83 @@
         <v>-0.05093724341342953</v>
       </c>
       <c r="I310">
-        <v>-0.02101723332316718</v>
+        <v>0.04891918986743524</v>
       </c>
       <c r="J310">
         <v>-0.02101723332316718</v>
       </c>
-    </row>
-    <row r="311" spans="1:10">
+      <c r="K310">
+        <v>-0.02101723332316718</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11">
       <c r="A311" s="2">
         <v>44531</v>
       </c>
       <c r="B311">
-        <v>23.29000091552734</v>
+        <v>23.20000076293945</v>
       </c>
       <c r="C311">
-        <v>23.31999969482422</v>
+        <v>23.28000068664551</v>
       </c>
       <c r="D311">
-        <v>23.21999931335449</v>
+        <v>23.15999984741211</v>
       </c>
       <c r="E311">
-        <v>23.30500030517578</v>
+        <v>23.19000053405762</v>
       </c>
       <c r="F311">
-        <v>23.30500030517578</v>
+        <v>23.19000053405762</v>
       </c>
       <c r="G311">
-        <v>1955195</v>
+        <v>3015500</v>
       </c>
       <c r="H311">
-        <v>0.000644027009824466</v>
+        <v>-0.004293704488566918</v>
       </c>
       <c r="I311">
-        <v>-0.05418015899113637</v>
+        <v>0.04880820779015965</v>
       </c>
       <c r="J311">
-        <v>-0.05418015899113637</v>
+        <v>-0.05884735760991866</v>
+      </c>
+      <c r="K311">
+        <v>-0.05884735760991866</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11">
+      <c r="A312" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B312">
+        <v>23.22999954223633</v>
+      </c>
+      <c r="C312">
+        <v>23.27000045776367</v>
+      </c>
+      <c r="D312">
+        <v>23.17000007629395</v>
+      </c>
+      <c r="E312">
+        <v>23.23200035095215</v>
+      </c>
+      <c r="F312">
+        <v>23.23200035095215</v>
+      </c>
+      <c r="G312">
+        <v>2392022</v>
+      </c>
+      <c r="H312">
+        <v>0.001811117547533048</v>
+      </c>
+      <c r="I312">
+        <v>0.04813373095465733</v>
+      </c>
+      <c r="J312">
+        <v>-0.07294489840171636</v>
+      </c>
+      <c r="K312">
+        <v>-0.07294489840171636</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/EWH.xlsx
+++ b/etf_dfs/EWH.xlsx
@@ -508,7 +508,7 @@
         <v>13.4375</v>
       </c>
       <c r="F2" t="n">
-        <v>6.251720428466797</v>
+        <v>6.25171947479248</v>
       </c>
       <c r="G2" t="n">
         <v>3500</v>
@@ -535,7 +535,7 @@
         <v>13.625</v>
       </c>
       <c r="F3" t="n">
-        <v>6.338956832885742</v>
+        <v>6.338954448699951</v>
       </c>
       <c r="G3" t="n">
         <v>7200</v>
@@ -564,7 +564,7 @@
         <v>13.875</v>
       </c>
       <c r="F4" t="n">
-        <v>6.455265998840332</v>
+        <v>6.455267429351807</v>
       </c>
       <c r="G4" t="n">
         <v>13200</v>
@@ -595,7 +595,7 @@
         <v>13.6875</v>
       </c>
       <c r="F5" t="n">
-        <v>6.368033885955811</v>
+        <v>6.368033409118652</v>
       </c>
       <c r="G5" t="n">
         <v>14000</v>
@@ -626,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>6.048178195953369</v>
+        <v>6.048176288604736</v>
       </c>
       <c r="G6" t="n">
         <v>7300</v>
@@ -657,7 +657,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>6.137366771697998</v>
+        <v>6.137367725372314</v>
       </c>
       <c r="G7" t="n">
         <v>500</v>
@@ -688,7 +688,7 @@
         <v>13.75</v>
       </c>
       <c r="F8" t="n">
-        <v>6.491444110870361</v>
+        <v>6.491446495056152</v>
       </c>
       <c r="G8" t="n">
         <v>39400</v>
@@ -719,7 +719,7 @@
         <v>14.5625</v>
       </c>
       <c r="F9" t="n">
-        <v>6.875030994415283</v>
+        <v>6.875030040740967</v>
       </c>
       <c r="G9" t="n">
         <v>4400</v>
@@ -750,7 +750,7 @@
         <v>15.875</v>
       </c>
       <c r="F10" t="n">
-        <v>7.494668960571289</v>
+        <v>7.494668483734131</v>
       </c>
       <c r="G10" t="n">
         <v>3300</v>
@@ -781,7 +781,7 @@
         <v>15.375</v>
       </c>
       <c r="F11" t="n">
-        <v>7.309814929962158</v>
+        <v>7.309814453125</v>
       </c>
       <c r="G11" t="n">
         <v>9300</v>
@@ -812,7 +812,7 @@
         <v>15.3125</v>
       </c>
       <c r="F12" t="n">
-        <v>7.28010082244873</v>
+        <v>7.280099868774414</v>
       </c>
       <c r="G12" t="n">
         <v>30500</v>
@@ -843,7 +843,7 @@
         <v>14.875</v>
       </c>
       <c r="F13" t="n">
-        <v>7.072093963623047</v>
+        <v>7.072097301483154</v>
       </c>
       <c r="G13" t="n">
         <v>1600</v>
@@ -874,7 +874,7 @@
         <v>13.5</v>
       </c>
       <c r="F14" t="n">
-        <v>6.418373107910156</v>
+        <v>6.418374061584473</v>
       </c>
       <c r="G14" t="n">
         <v>64900</v>
@@ -944,7 +944,7 @@
         <v>15.875</v>
       </c>
       <c r="F16" t="n">
-        <v>7.547532081604004</v>
+        <v>7.547531604766846</v>
       </c>
       <c r="G16" t="n">
         <v>16100</v>
@@ -979,7 +979,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>8.082394599914551</v>
+        <v>8.082396507263184</v>
       </c>
       <c r="G17" t="n">
         <v>79200</v>
@@ -1014,7 +1014,7 @@
         <v>17.625</v>
       </c>
       <c r="F18" t="n">
-        <v>8.379541397094727</v>
+        <v>8.379543304443359</v>
       </c>
       <c r="G18" t="n">
         <v>19100</v>
@@ -1049,7 +1049,7 @@
         <v>14.625</v>
       </c>
       <c r="F19" t="n">
-        <v>7.212560653686523</v>
+        <v>7.212561130523682</v>
       </c>
       <c r="G19" t="n">
         <v>120000</v>
@@ -1084,7 +1084,7 @@
         <v>15.5625</v>
       </c>
       <c r="F20" t="n">
-        <v>7.674905300140381</v>
+        <v>7.674902439117432</v>
       </c>
       <c r="G20" t="n">
         <v>5300</v>
@@ -1119,7 +1119,7 @@
         <v>11.1875</v>
       </c>
       <c r="F21" t="n">
-        <v>5.517301082611084</v>
+        <v>5.517302513122559</v>
       </c>
       <c r="G21" t="n">
         <v>137700</v>
@@ -1154,7 +1154,7 @@
         <v>11</v>
       </c>
       <c r="F22" t="n">
-        <v>5.424831867218018</v>
+        <v>5.424831390380859</v>
       </c>
       <c r="G22" t="n">
         <v>15000</v>
@@ -1189,7 +1189,7 @@
         <v>10.875</v>
       </c>
       <c r="F23" t="n">
-        <v>5.41297435760498</v>
+        <v>5.412973880767822</v>
       </c>
       <c r="G23" t="n">
         <v>36600</v>
@@ -1224,7 +1224,7 @@
         <v>10.0625</v>
       </c>
       <c r="F24" t="n">
-        <v>5.008554935455322</v>
+        <v>5.008553028106689</v>
       </c>
       <c r="G24" t="n">
         <v>320900</v>
@@ -1259,7 +1259,7 @@
         <v>11.0625</v>
       </c>
       <c r="F25" t="n">
-        <v>5.506298065185547</v>
+        <v>5.506299495697021</v>
       </c>
       <c r="G25" t="n">
         <v>64400</v>
@@ -1294,7 +1294,7 @@
         <v>11.0625</v>
       </c>
       <c r="F26" t="n">
-        <v>5.506298065185547</v>
+        <v>5.506299495697021</v>
       </c>
       <c r="G26" t="n">
         <v>86600</v>
@@ -1329,7 +1329,7 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>4.977447032928467</v>
+        <v>4.97744607925415</v>
       </c>
       <c r="G27" t="n">
         <v>104900</v>
@@ -1364,7 +1364,7 @@
         <v>8.3125</v>
       </c>
       <c r="F28" t="n">
-        <v>4.137503147125244</v>
+        <v>4.13750171661377</v>
       </c>
       <c r="G28" t="n">
         <v>58500</v>
@@ -1399,7 +1399,7 @@
         <v>7.75</v>
       </c>
       <c r="F29" t="n">
-        <v>3.857520341873169</v>
+        <v>3.857520818710327</v>
       </c>
       <c r="G29" t="n">
         <v>194700</v>
@@ -1434,7 +1434,7 @@
         <v>7.125</v>
       </c>
       <c r="F30" t="n">
-        <v>3.546431303024292</v>
+        <v>3.546430349349976</v>
       </c>
       <c r="G30" t="n">
         <v>52800</v>
@@ -1469,7 +1469,7 @@
         <v>5.5625</v>
       </c>
       <c r="F31" t="n">
-        <v>2.892813920974731</v>
+        <v>2.892813444137573</v>
       </c>
       <c r="G31" t="n">
         <v>475400</v>
@@ -1504,7 +1504,7 @@
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>3.640395641326904</v>
+        <v>3.640394449234009</v>
       </c>
       <c r="G32" t="n">
         <v>51900</v>
@@ -1539,7 +1539,7 @@
         <v>9.6875</v>
       </c>
       <c r="F33" t="n">
-        <v>5.038046836853027</v>
+        <v>5.038047313690186</v>
       </c>
       <c r="G33" t="n">
         <v>96200</v>
@@ -1609,7 +1609,7 @@
         <v>9.375</v>
       </c>
       <c r="F35" t="n">
-        <v>4.928264141082764</v>
+        <v>4.928262233734131</v>
       </c>
       <c r="G35" t="n">
         <v>30400</v>
@@ -1644,7 +1644,7 @@
         <v>8.6875</v>
       </c>
       <c r="F36" t="n">
-        <v>4.566857814788818</v>
+        <v>4.56685733795166</v>
       </c>
       <c r="G36" t="n">
         <v>70200</v>
@@ -1679,7 +1679,7 @@
         <v>8.6875</v>
       </c>
       <c r="F37" t="n">
-        <v>4.566857814788818</v>
+        <v>4.56685733795166</v>
       </c>
       <c r="G37" t="n">
         <v>56500</v>
@@ -1714,7 +1714,7 @@
         <v>9.75</v>
       </c>
       <c r="F38" t="n">
-        <v>5.125392913818359</v>
+        <v>5.12539529800415</v>
       </c>
       <c r="G38" t="n">
         <v>19700</v>
@@ -1749,7 +1749,7 @@
         <v>12.0625</v>
       </c>
       <c r="F39" t="n">
-        <v>6.341034412384033</v>
+        <v>6.341032981872559</v>
       </c>
       <c r="G39" t="n">
         <v>68600</v>
@@ -1784,7 +1784,7 @@
         <v>11.3125</v>
       </c>
       <c r="F40" t="n">
-        <v>5.94677209854126</v>
+        <v>5.946772575378418</v>
       </c>
       <c r="G40" t="n">
         <v>33300</v>
@@ -1819,7 +1819,7 @@
         <v>12.875</v>
       </c>
       <c r="F41" t="n">
-        <v>6.768147945404053</v>
+        <v>6.768149852752686</v>
       </c>
       <c r="G41" t="n">
         <v>155300</v>
@@ -1854,7 +1854,7 @@
         <v>11.75</v>
       </c>
       <c r="F42" t="n">
-        <v>6.176759719848633</v>
+        <v>6.1767578125</v>
       </c>
       <c r="G42" t="n">
         <v>15100</v>
@@ -1924,7 +1924,7 @@
         <v>11.375</v>
       </c>
       <c r="F44" t="n">
-        <v>6.105220317840576</v>
+        <v>6.105221271514893</v>
       </c>
       <c r="G44" t="n">
         <v>35800</v>
@@ -1959,7 +1959,7 @@
         <v>12</v>
       </c>
       <c r="F45" t="n">
-        <v>6.440671443939209</v>
+        <v>6.440672874450684</v>
       </c>
       <c r="G45" t="n">
         <v>25100</v>
@@ -1994,7 +1994,7 @@
         <v>13.0625</v>
       </c>
       <c r="F46" t="n">
-        <v>7.010941505432129</v>
+        <v>7.010940074920654</v>
       </c>
       <c r="G46" t="n">
         <v>26000</v>
@@ -2029,7 +2029,7 @@
         <v>14.25</v>
       </c>
       <c r="F47" t="n">
-        <v>7.720126152038574</v>
+        <v>7.720126628875732</v>
       </c>
       <c r="G47" t="n">
         <v>31400</v>
@@ -2064,7 +2064,7 @@
         <v>13</v>
       </c>
       <c r="F48" t="n">
-        <v>7.042922019958496</v>
+        <v>7.042922973632812</v>
       </c>
       <c r="G48" t="n">
         <v>55000</v>
@@ -2099,7 +2099,7 @@
         <v>13.3125</v>
       </c>
       <c r="F49" t="n">
-        <v>7.212224006652832</v>
+        <v>7.212223529815674</v>
       </c>
       <c r="G49" t="n">
         <v>117400</v>
@@ -2134,7 +2134,7 @@
         <v>13.6875</v>
       </c>
       <c r="F50" t="n">
-        <v>7.415383338928223</v>
+        <v>7.415382385253906</v>
       </c>
       <c r="G50" t="n">
         <v>24500</v>
@@ -2169,7 +2169,7 @@
         <v>12.5625</v>
       </c>
       <c r="F51" t="n">
-        <v>6.805898189544678</v>
+        <v>6.805899143218994</v>
       </c>
       <c r="G51" t="n">
         <v>90800</v>
@@ -2204,7 +2204,7 @@
         <v>11.625</v>
       </c>
       <c r="F52" t="n">
-        <v>6.297997951507568</v>
+        <v>6.297998428344727</v>
       </c>
       <c r="G52" t="n">
         <v>42000</v>
@@ -2239,7 +2239,7 @@
         <v>12.4375</v>
       </c>
       <c r="F53" t="n">
-        <v>6.738178730010986</v>
+        <v>6.738181591033936</v>
       </c>
       <c r="G53" t="n">
         <v>19300</v>
@@ -2274,7 +2274,7 @@
         <v>13.1875</v>
       </c>
       <c r="F54" t="n">
-        <v>7.144501686096191</v>
+        <v>7.144504070281982</v>
       </c>
       <c r="G54" t="n">
         <v>49900</v>
@@ -2344,7 +2344,7 @@
         <v>12.125</v>
       </c>
       <c r="F56" t="n">
-        <v>6.669801235198975</v>
+        <v>6.669801712036133</v>
       </c>
       <c r="G56" t="n">
         <v>51400</v>
@@ -2379,7 +2379,7 @@
         <v>11.4375</v>
       </c>
       <c r="F57" t="n">
-        <v>6.291617393493652</v>
+        <v>6.291616439819336</v>
       </c>
       <c r="G57" t="n">
         <v>244200</v>
@@ -2414,7 +2414,7 @@
         <v>10.5</v>
       </c>
       <c r="F58" t="n">
-        <v>5.775909900665283</v>
+        <v>5.7759108543396</v>
       </c>
       <c r="G58" t="n">
         <v>57900</v>
@@ -2449,7 +2449,7 @@
         <v>11.5</v>
       </c>
       <c r="F59" t="n">
-        <v>6.360486030578613</v>
+        <v>6.36048412322998</v>
       </c>
       <c r="G59" t="n">
         <v>78500</v>
@@ -2519,7 +2519,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="F61" t="n">
-        <v>6.603842735290527</v>
+        <v>6.603843688964844</v>
       </c>
       <c r="G61" t="n">
         <v>91100</v>
@@ -2554,7 +2554,7 @@
         <v>10.67000007629395</v>
       </c>
       <c r="F62" t="n">
-        <v>5.901423931121826</v>
+        <v>5.901427745819092</v>
       </c>
       <c r="G62" t="n">
         <v>24600</v>
@@ -2589,7 +2589,7 @@
         <v>10.73999977111816</v>
       </c>
       <c r="F63" t="n">
-        <v>5.940140247344971</v>
+        <v>5.940141201019287</v>
       </c>
       <c r="G63" t="n">
         <v>52800</v>
@@ -2624,7 +2624,7 @@
         <v>10.63000011444092</v>
       </c>
       <c r="F64" t="n">
-        <v>5.879301071166992</v>
+        <v>5.879299640655518</v>
       </c>
       <c r="G64" t="n">
         <v>15000</v>
@@ -2659,7 +2659,7 @@
         <v>10.07999992370605</v>
       </c>
       <c r="F65" t="n">
-        <v>5.575103759765625</v>
+        <v>5.575101375579834</v>
       </c>
       <c r="G65" t="n">
         <v>27800</v>
@@ -2834,7 +2834,7 @@
         <v>8.850000381469727</v>
       </c>
       <c r="F70" t="n">
-        <v>4.989588260650635</v>
+        <v>4.989589691162109</v>
       </c>
       <c r="G70" t="n">
         <v>39200</v>
@@ -2904,7 +2904,7 @@
         <v>9.090000152587891</v>
       </c>
       <c r="F72" t="n">
-        <v>5.158729076385498</v>
+        <v>5.158728122711182</v>
       </c>
       <c r="G72" t="n">
         <v>36300</v>
@@ -2939,7 +2939,7 @@
         <v>8.670000076293945</v>
       </c>
       <c r="F73" t="n">
-        <v>4.920369625091553</v>
+        <v>4.920369148254395</v>
       </c>
       <c r="G73" t="n">
         <v>12100</v>
@@ -2974,7 +2974,7 @@
         <v>9.189999580383301</v>
       </c>
       <c r="F74" t="n">
-        <v>5.215478897094727</v>
+        <v>5.215479373931885</v>
       </c>
       <c r="G74" t="n">
         <v>13400</v>
@@ -3009,7 +3009,7 @@
         <v>9.890000343322754</v>
       </c>
       <c r="F75" t="n">
-        <v>5.612740993499756</v>
+        <v>5.612741470336914</v>
       </c>
       <c r="G75" t="n">
         <v>242400</v>
@@ -3044,7 +3044,7 @@
         <v>9.510000228881836</v>
       </c>
       <c r="F76" t="n">
-        <v>5.397083759307861</v>
+        <v>5.397085189819336</v>
       </c>
       <c r="G76" t="n">
         <v>459200</v>
@@ -3079,7 +3079,7 @@
         <v>8.890000343322754</v>
       </c>
       <c r="F77" t="n">
-        <v>5.045225143432617</v>
+        <v>5.045224189758301</v>
       </c>
       <c r="G77" t="n">
         <v>75900</v>
@@ -3114,7 +3114,7 @@
         <v>8.369999885559082</v>
       </c>
       <c r="F78" t="n">
-        <v>4.750115871429443</v>
+        <v>4.750114917755127</v>
       </c>
       <c r="G78" t="n">
         <v>71100</v>
@@ -3149,7 +3149,7 @@
         <v>7.820000171661377</v>
       </c>
       <c r="F79" t="n">
-        <v>4.437982082366943</v>
+        <v>4.437981128692627</v>
       </c>
       <c r="G79" t="n">
         <v>18300</v>
@@ -3289,7 +3289,7 @@
         <v>7.429999828338623</v>
       </c>
       <c r="F83" t="n">
-        <v>4.296719551086426</v>
+        <v>4.296720504760742</v>
       </c>
       <c r="G83" t="n">
         <v>28000</v>
@@ -3324,7 +3324,7 @@
         <v>7.480000019073486</v>
       </c>
       <c r="F84" t="n">
-        <v>4.325633525848389</v>
+        <v>4.325634479522705</v>
       </c>
       <c r="G84" t="n">
         <v>25200</v>
@@ -3429,7 +3429,7 @@
         <v>6.929999828338623</v>
       </c>
       <c r="F87" t="n">
-        <v>4.007572650909424</v>
+        <v>4.007572174072266</v>
       </c>
       <c r="G87" t="n">
         <v>594800</v>
@@ -3464,7 +3464,7 @@
         <v>7.610000133514404</v>
       </c>
       <c r="F88" t="n">
-        <v>4.400811672210693</v>
+        <v>4.40081262588501</v>
       </c>
       <c r="G88" t="n">
         <v>374000</v>
@@ -3499,7 +3499,7 @@
         <v>7.650000095367432</v>
       </c>
       <c r="F89" t="n">
-        <v>4.423944473266602</v>
+        <v>4.423943996429443</v>
       </c>
       <c r="G89" t="n">
         <v>1176800</v>
@@ -3569,7 +3569,7 @@
         <v>9.060000419616699</v>
       </c>
       <c r="F91" t="n">
-        <v>5.239337921142578</v>
+        <v>5.239339351654053</v>
       </c>
       <c r="G91" t="n">
         <v>698000</v>
@@ -3604,7 +3604,7 @@
         <v>9.470000267028809</v>
       </c>
       <c r="F92" t="n">
-        <v>5.476438999176025</v>
+        <v>5.476437568664551</v>
       </c>
       <c r="G92" t="n">
         <v>610700</v>
@@ -3639,7 +3639,7 @@
         <v>10.05000019073486</v>
       </c>
       <c r="F93" t="n">
-        <v>5.811850070953369</v>
+        <v>5.811848163604736</v>
       </c>
       <c r="G93" t="n">
         <v>332500</v>
@@ -3674,7 +3674,7 @@
         <v>9.939999580383301</v>
       </c>
       <c r="F94" t="n">
-        <v>5.748237609863281</v>
+        <v>5.748236179351807</v>
       </c>
       <c r="G94" t="n">
         <v>975000</v>
@@ -3709,7 +3709,7 @@
         <v>10</v>
       </c>
       <c r="F95" t="n">
-        <v>5.955403327941895</v>
+        <v>5.955402374267578</v>
       </c>
       <c r="G95" t="n">
         <v>263300</v>
@@ -3744,7 +3744,7 @@
         <v>10.89000034332275</v>
       </c>
       <c r="F96" t="n">
-        <v>6.485433578491211</v>
+        <v>6.485434532165527</v>
       </c>
       <c r="G96" t="n">
         <v>642900</v>
@@ -3779,7 +3779,7 @@
         <v>11.28999996185303</v>
       </c>
       <c r="F97" t="n">
-        <v>6.723649024963379</v>
+        <v>6.723649978637695</v>
       </c>
       <c r="G97" t="n">
         <v>306500</v>
@@ -3814,7 +3814,7 @@
         <v>10.60000038146973</v>
       </c>
       <c r="F98" t="n">
-        <v>6.312727451324463</v>
+        <v>6.31272554397583</v>
       </c>
       <c r="G98" t="n">
         <v>400900</v>
@@ -3849,7 +3849,7 @@
         <v>9.810000419616699</v>
       </c>
       <c r="F99" t="n">
-        <v>5.842250347137451</v>
+        <v>5.842249870300293</v>
       </c>
       <c r="G99" t="n">
         <v>849400</v>
@@ -3884,7 +3884,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="F100" t="n">
-        <v>5.991135120391846</v>
+        <v>5.991134643554688</v>
       </c>
       <c r="G100" t="n">
         <v>97500</v>
@@ -3989,7 +3989,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="F103" t="n">
-        <v>6.515210628509521</v>
+        <v>6.515209674835205</v>
       </c>
       <c r="G103" t="n">
         <v>314900</v>
@@ -4024,7 +4024,7 @@
         <v>11.11999988555908</v>
       </c>
       <c r="F104" t="n">
-        <v>6.62240743637085</v>
+        <v>6.622405529022217</v>
       </c>
       <c r="G104" t="n">
         <v>387200</v>
@@ -4059,7 +4059,7 @@
         <v>11.13000011444092</v>
       </c>
       <c r="F105" t="n">
-        <v>6.628360271453857</v>
+        <v>6.62836217880249</v>
       </c>
       <c r="G105" t="n">
         <v>182900</v>
@@ -4094,7 +4094,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="F106" t="n">
-        <v>7.182215690612793</v>
+        <v>7.182214260101318</v>
       </c>
       <c r="G106" t="n">
         <v>544900</v>
@@ -4129,7 +4129,7 @@
         <v>12.09000015258789</v>
       </c>
       <c r="F107" t="n">
-        <v>7.364269256591797</v>
+        <v>7.364268779754639</v>
       </c>
       <c r="G107" t="n">
         <v>265600</v>
@@ -4164,7 +4164,7 @@
         <v>11.52000045776367</v>
       </c>
       <c r="F108" t="n">
-        <v>7.017070293426514</v>
+        <v>7.017072677612305</v>
       </c>
       <c r="G108" t="n">
         <v>236200</v>
@@ -4199,7 +4199,7 @@
         <v>11.90999984741211</v>
       </c>
       <c r="F109" t="n">
-        <v>7.254624843597412</v>
+        <v>7.254626750946045</v>
       </c>
       <c r="G109" t="n">
         <v>617700</v>
@@ -4374,7 +4374,7 @@
         <v>13.18000030517578</v>
       </c>
       <c r="F114" t="n">
-        <v>8.028207778930664</v>
+        <v>8.02820873260498</v>
       </c>
       <c r="G114" t="n">
         <v>410400</v>
@@ -4409,7 +4409,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="F115" t="n">
-        <v>7.95511531829834</v>
+        <v>7.955117225646973</v>
       </c>
       <c r="G115" t="n">
         <v>477600</v>
@@ -4444,7 +4444,7 @@
         <v>13.57999992370605</v>
       </c>
       <c r="F116" t="n">
-        <v>8.271859169006348</v>
+        <v>8.271858215332031</v>
       </c>
       <c r="G116" t="n">
         <v>1097700</v>
@@ -4479,7 +4479,7 @@
         <v>12.63000011444092</v>
       </c>
       <c r="F117" t="n">
-        <v>7.693191051483154</v>
+        <v>7.693192958831787</v>
       </c>
       <c r="G117" t="n">
         <v>466800</v>
@@ -4514,7 +4514,7 @@
         <v>12.88000011444092</v>
       </c>
       <c r="F118" t="n">
-        <v>7.845475196838379</v>
+        <v>7.845474243164062</v>
       </c>
       <c r="G118" t="n">
         <v>509100</v>
@@ -4549,7 +4549,7 @@
         <v>12.61999988555908</v>
       </c>
       <c r="F119" t="n">
-        <v>7.901898860931396</v>
+        <v>7.901897430419922</v>
       </c>
       <c r="G119" t="n">
         <v>671400</v>
@@ -4584,7 +4584,7 @@
         <v>13.40999984741211</v>
       </c>
       <c r="F120" t="n">
-        <v>8.396550178527832</v>
+        <v>8.396551132202148</v>
       </c>
       <c r="G120" t="n">
         <v>1145600</v>
@@ -4619,7 +4619,7 @@
         <v>13.22999954223633</v>
       </c>
       <c r="F121" t="n">
-        <v>8.283846855163574</v>
+        <v>8.283844947814941</v>
       </c>
       <c r="G121" t="n">
         <v>838000</v>
@@ -4689,7 +4689,7 @@
         <v>14.3100004196167</v>
       </c>
       <c r="F123" t="n">
-        <v>8.960078239440918</v>
+        <v>8.960080146789551</v>
       </c>
       <c r="G123" t="n">
         <v>1321700</v>
@@ -4864,7 +4864,7 @@
         <v>14.11999988555908</v>
       </c>
       <c r="F128" t="n">
-        <v>8.841111183166504</v>
+        <v>8.84111213684082</v>
       </c>
       <c r="G128" t="n">
         <v>4560100</v>
@@ -4899,7 +4899,7 @@
         <v>14.63000011444092</v>
       </c>
       <c r="F129" t="n">
-        <v>9.160441398620605</v>
+        <v>9.160444259643555</v>
       </c>
       <c r="G129" t="n">
         <v>1842800</v>
@@ -4934,7 +4934,7 @@
         <v>15.43000030517578</v>
       </c>
       <c r="F130" t="n">
-        <v>9.661356925964355</v>
+        <v>9.661357879638672</v>
       </c>
       <c r="G130" t="n">
         <v>2030000</v>
@@ -5004,7 +5004,7 @@
         <v>16.38999938964844</v>
       </c>
       <c r="F132" t="n">
-        <v>10.46652889251709</v>
+        <v>10.46653175354004</v>
       </c>
       <c r="G132" t="n">
         <v>6309800</v>
@@ -5039,7 +5039,7 @@
         <v>15.71000003814697</v>
       </c>
       <c r="F133" t="n">
-        <v>10.03228759765625</v>
+        <v>10.03228664398193</v>
       </c>
       <c r="G133" t="n">
         <v>5075400</v>
@@ -5074,7 +5074,7 @@
         <v>16.05999946594238</v>
       </c>
       <c r="F134" t="n">
-        <v>10.25579738616943</v>
+        <v>10.2557954788208</v>
       </c>
       <c r="G134" t="n">
         <v>2359600</v>
@@ -5109,7 +5109,7 @@
         <v>16.31999969482422</v>
       </c>
       <c r="F135" t="n">
-        <v>10.42182731628418</v>
+        <v>10.4218282699585</v>
       </c>
       <c r="G135" t="n">
         <v>2348500</v>
@@ -5144,7 +5144,7 @@
         <v>16.82999992370605</v>
       </c>
       <c r="F136" t="n">
-        <v>10.74751091003418</v>
+        <v>10.7475118637085</v>
       </c>
       <c r="G136" t="n">
         <v>2027700</v>
@@ -5179,7 +5179,7 @@
         <v>17.02000045776367</v>
       </c>
       <c r="F137" t="n">
-        <v>10.86884689331055</v>
+        <v>10.86884498596191</v>
       </c>
       <c r="G137" t="n">
         <v>3142300</v>
@@ -5249,7 +5249,7 @@
         <v>18.44000053405762</v>
       </c>
       <c r="F139" t="n">
-        <v>11.77564811706543</v>
+        <v>11.77564525604248</v>
       </c>
       <c r="G139" t="n">
         <v>6323400</v>
@@ -5284,7 +5284,7 @@
         <v>21.03000068664551</v>
       </c>
       <c r="F140" t="n">
-        <v>13.42960166931152</v>
+        <v>13.42960453033447</v>
       </c>
       <c r="G140" t="n">
         <v>5869800</v>
@@ -5319,7 +5319,7 @@
         <v>23.93000030517578</v>
       </c>
       <c r="F141" t="n">
-        <v>15.28151416778564</v>
+        <v>15.28151988983154</v>
       </c>
       <c r="G141" t="n">
         <v>14767100</v>
@@ -5354,7 +5354,7 @@
         <v>22.65999984741211</v>
       </c>
       <c r="F142" t="n">
-        <v>14.47050666809082</v>
+        <v>14.47050762176514</v>
       </c>
       <c r="G142" t="n">
         <v>5110500</v>
@@ -5389,7 +5389,7 @@
         <v>21.93000030517578</v>
       </c>
       <c r="F143" t="n">
-        <v>14.24448776245117</v>
+        <v>14.24448680877686</v>
       </c>
       <c r="G143" t="n">
         <v>3274600</v>
@@ -5424,7 +5424,7 @@
         <v>20</v>
       </c>
       <c r="F144" t="n">
-        <v>12.99086856842041</v>
+        <v>12.99086952209473</v>
       </c>
       <c r="G144" t="n">
         <v>10847000</v>
@@ -5459,7 +5459,7 @@
         <v>18.45999908447266</v>
       </c>
       <c r="F145" t="n">
-        <v>11.99057292938232</v>
+        <v>11.99057197570801</v>
       </c>
       <c r="G145" t="n">
         <v>10133200</v>
@@ -5494,7 +5494,7 @@
         <v>17.95000076293945</v>
       </c>
       <c r="F146" t="n">
-        <v>11.65930366516113</v>
+        <v>11.6593074798584</v>
       </c>
       <c r="G146" t="n">
         <v>3746200</v>
@@ -5529,7 +5529,7 @@
         <v>19.45000076293945</v>
       </c>
       <c r="F147" t="n">
-        <v>12.63362216949463</v>
+        <v>12.63361835479736</v>
       </c>
       <c r="G147" t="n">
         <v>5801200</v>
@@ -5564,7 +5564,7 @@
         <v>19.40999984741211</v>
       </c>
       <c r="F148" t="n">
-        <v>12.60763740539551</v>
+        <v>12.60764122009277</v>
       </c>
       <c r="G148" t="n">
         <v>1712000</v>
@@ -5599,7 +5599,7 @@
         <v>16.94000053405762</v>
       </c>
       <c r="F149" t="n">
-        <v>11.15870666503906</v>
+        <v>11.15870475769043</v>
       </c>
       <c r="G149" t="n">
         <v>3685000</v>
@@ -5634,7 +5634,7 @@
         <v>16.70000076293945</v>
       </c>
       <c r="F150" t="n">
-        <v>11.00061416625977</v>
+        <v>11.00061130523682</v>
       </c>
       <c r="G150" t="n">
         <v>3872600</v>
@@ -5669,7 +5669,7 @@
         <v>15.85999965667725</v>
       </c>
       <c r="F151" t="n">
-        <v>10.44728374481201</v>
+        <v>10.44728660583496</v>
       </c>
       <c r="G151" t="n">
         <v>3486300</v>
@@ -5704,7 +5704,7 @@
         <v>13.21000003814697</v>
       </c>
       <c r="F152" t="n">
-        <v>8.701681137084961</v>
+        <v>8.701680183410645</v>
       </c>
       <c r="G152" t="n">
         <v>5239200</v>
@@ -5739,7 +5739,7 @@
         <v>10.42000007629395</v>
       </c>
       <c r="F153" t="n">
-        <v>6.863855838775635</v>
+        <v>6.86385440826416</v>
       </c>
       <c r="G153" t="n">
         <v>6912800</v>
@@ -5774,7 +5774,7 @@
         <v>10.27999973297119</v>
       </c>
       <c r="F154" t="n">
-        <v>6.771633148193359</v>
+        <v>6.771635055541992</v>
       </c>
       <c r="G154" t="n">
         <v>1541000</v>
@@ -5809,7 +5809,7 @@
         <v>10.36999988555908</v>
       </c>
       <c r="F155" t="n">
-        <v>7.076144695281982</v>
+        <v>7.076145172119141</v>
       </c>
       <c r="G155" t="n">
         <v>4151600</v>
@@ -5844,7 +5844,7 @@
         <v>10.02000045776367</v>
       </c>
       <c r="F156" t="n">
-        <v>6.837316036224365</v>
+        <v>6.83731746673584</v>
       </c>
       <c r="G156" t="n">
         <v>5811600</v>
@@ -5879,7 +5879,7 @@
         <v>9.619999885559082</v>
       </c>
       <c r="F157" t="n">
-        <v>6.564370155334473</v>
+        <v>6.564369201660156</v>
       </c>
       <c r="G157" t="n">
         <v>4470700</v>
@@ -5914,7 +5914,7 @@
         <v>10.17000007629395</v>
       </c>
       <c r="F158" t="n">
-        <v>6.939669609069824</v>
+        <v>6.939672470092773</v>
       </c>
       <c r="G158" t="n">
         <v>6003900</v>
@@ -5949,7 +5949,7 @@
         <v>11.86999988555908</v>
       </c>
       <c r="F159" t="n">
-        <v>8.099695205688477</v>
+        <v>8.09969425201416</v>
       </c>
       <c r="G159" t="n">
         <v>10347100</v>
@@ -6019,7 +6019,7 @@
         <v>13.73999977111816</v>
       </c>
       <c r="F161" t="n">
-        <v>9.501016616821289</v>
+        <v>9.501015663146973</v>
       </c>
       <c r="G161" t="n">
         <v>7714900</v>
@@ -6089,7 +6089,7 @@
         <v>14.42000007629395</v>
       </c>
       <c r="F163" t="n">
-        <v>9.971225738525391</v>
+        <v>9.971230506896973</v>
       </c>
       <c r="G163" t="n">
         <v>6753500</v>
@@ -6124,7 +6124,7 @@
         <v>15.52000045776367</v>
       </c>
       <c r="F164" t="n">
-        <v>10.73186111450195</v>
+        <v>10.73186206817627</v>
       </c>
       <c r="G164" t="n">
         <v>5011800</v>
@@ -6159,7 +6159,7 @@
         <v>15.52999973297119</v>
       </c>
       <c r="F165" t="n">
-        <v>10.7387752532959</v>
+        <v>10.73877620697021</v>
       </c>
       <c r="G165" t="n">
         <v>9848200</v>
@@ -6194,7 +6194,7 @@
         <v>15.85999965667725</v>
       </c>
       <c r="F166" t="n">
-        <v>10.96696662902832</v>
+        <v>10.96696853637695</v>
       </c>
       <c r="G166" t="n">
         <v>15884400</v>
@@ -6229,7 +6229,7 @@
         <v>15.65999984741211</v>
       </c>
       <c r="F167" t="n">
-        <v>10.97557735443115</v>
+        <v>10.97557830810547</v>
       </c>
       <c r="G167" t="n">
         <v>1734900</v>
@@ -6264,7 +6264,7 @@
         <v>14.63000011444092</v>
       </c>
       <c r="F168" t="n">
-        <v>10.25368309020996</v>
+        <v>10.25368404388428</v>
       </c>
       <c r="G168" t="n">
         <v>8869500</v>
@@ -6299,7 +6299,7 @@
         <v>15.43000030517578</v>
       </c>
       <c r="F169" t="n">
-        <v>10.81437873840332</v>
+        <v>10.81437969207764</v>
       </c>
       <c r="G169" t="n">
         <v>2761700</v>
@@ -6369,7 +6369,7 @@
         <v>15.65999984741211</v>
       </c>
       <c r="F171" t="n">
-        <v>10.97557735443115</v>
+        <v>10.97557830810547</v>
       </c>
       <c r="G171" t="n">
         <v>5565100</v>
@@ -6439,7 +6439,7 @@
         <v>14.77000045776367</v>
       </c>
       <c r="F173" t="n">
-        <v>10.53910636901855</v>
+        <v>10.53910732269287</v>
       </c>
       <c r="G173" t="n">
         <v>4811800</v>
@@ -6474,7 +6474,7 @@
         <v>15.9399995803833</v>
       </c>
       <c r="F174" t="n">
-        <v>11.37395668029785</v>
+        <v>11.37395763397217</v>
       </c>
       <c r="G174" t="n">
         <v>6280700</v>
@@ -6509,7 +6509,7 @@
         <v>15.98999977111816</v>
       </c>
       <c r="F175" t="n">
-        <v>11.40963459014893</v>
+        <v>11.40963554382324</v>
       </c>
       <c r="G175" t="n">
         <v>13839100</v>
@@ -6579,7 +6579,7 @@
         <v>18.72999954223633</v>
       </c>
       <c r="F177" t="n">
-        <v>13.36475849151611</v>
+        <v>13.36475944519043</v>
       </c>
       <c r="G177" t="n">
         <v>3979500</v>
@@ -6614,7 +6614,7 @@
         <v>18.88999938964844</v>
       </c>
       <c r="F178" t="n">
-        <v>13.47892951965332</v>
+        <v>13.47892570495605</v>
       </c>
       <c r="G178" t="n">
         <v>3691100</v>
@@ -6649,7 +6649,7 @@
         <v>18.92000007629395</v>
       </c>
       <c r="F179" t="n">
-        <v>13.62512302398682</v>
+        <v>13.62511920928955</v>
       </c>
       <c r="G179" t="n">
         <v>2354000</v>
@@ -6684,7 +6684,7 @@
         <v>19.19000053405762</v>
       </c>
       <c r="F180" t="n">
-        <v>13.81955909729004</v>
+        <v>13.81956005096436</v>
       </c>
       <c r="G180" t="n">
         <v>4385700</v>
@@ -6719,7 +6719,7 @@
         <v>18.67000007629395</v>
       </c>
       <c r="F181" t="n">
-        <v>13.44508266448975</v>
+        <v>13.44508743286133</v>
       </c>
       <c r="G181" t="n">
         <v>3589800</v>
@@ -6754,7 +6754,7 @@
         <v>18.93000030517578</v>
       </c>
       <c r="F182" t="n">
-        <v>13.63232326507568</v>
+        <v>13.63232135772705</v>
       </c>
       <c r="G182" t="n">
         <v>3425700</v>
@@ -6789,7 +6789,7 @@
         <v>19.36000061035156</v>
       </c>
       <c r="F183" t="n">
-        <v>13.94198513031006</v>
+        <v>13.94198703765869</v>
       </c>
       <c r="G183" t="n">
         <v>2881600</v>
@@ -6859,7 +6859,7 @@
         <v>18.52000045776367</v>
       </c>
       <c r="F185" t="n">
-        <v>13.51322650909424</v>
+        <v>13.51322364807129</v>
       </c>
       <c r="G185" t="n">
         <v>3769000</v>
@@ -6894,7 +6894,7 @@
         <v>18.79000091552734</v>
       </c>
       <c r="F186" t="n">
-        <v>13.71023178100586</v>
+        <v>13.71023368835449</v>
       </c>
       <c r="G186" t="n">
         <v>4125100</v>
@@ -6929,7 +6929,7 @@
         <v>17.64999961853027</v>
       </c>
       <c r="F187" t="n">
-        <v>12.87842750549316</v>
+        <v>12.87842178344727</v>
       </c>
       <c r="G187" t="n">
         <v>4946500</v>
@@ -6999,7 +6999,7 @@
         <v>16.19000053405762</v>
       </c>
       <c r="F189" t="n">
-        <v>11.81312942504883</v>
+        <v>11.81312656402588</v>
       </c>
       <c r="G189" t="n">
         <v>5264100</v>
@@ -7034,7 +7034,7 @@
         <v>15.98999977111816</v>
       </c>
       <c r="F190" t="n">
-        <v>11.66719532012939</v>
+        <v>11.66719341278076</v>
       </c>
       <c r="G190" t="n">
         <v>9818200</v>
@@ -7069,7 +7069,7 @@
         <v>15.47000026702881</v>
       </c>
       <c r="F191" t="n">
-        <v>11.42016220092773</v>
+        <v>11.4201602935791</v>
       </c>
       <c r="G191" t="n">
         <v>1654900</v>
@@ -7104,7 +7104,7 @@
         <v>16.89999961853027</v>
       </c>
       <c r="F192" t="n">
-        <v>12.47580528259277</v>
+        <v>12.47580432891846</v>
       </c>
       <c r="G192" t="n">
         <v>4472000</v>
@@ -7139,7 +7139,7 @@
         <v>18.25</v>
       </c>
       <c r="F193" t="n">
-        <v>13.47239303588867</v>
+        <v>13.47239398956299</v>
       </c>
       <c r="G193" t="n">
         <v>3928000</v>
@@ -7174,7 +7174,7 @@
         <v>17.45000076293945</v>
       </c>
       <c r="F194" t="n">
-        <v>12.8818244934082</v>
+        <v>12.88182353973389</v>
       </c>
       <c r="G194" t="n">
         <v>4840200</v>
@@ -7209,7 +7209,7 @@
         <v>17.54999923706055</v>
       </c>
       <c r="F195" t="n">
-        <v>12.95564556121826</v>
+        <v>12.95564270019531</v>
       </c>
       <c r="G195" t="n">
         <v>1838800</v>
@@ -7244,7 +7244,7 @@
         <v>15.92000007629395</v>
       </c>
       <c r="F196" t="n">
-        <v>11.75235557556152</v>
+        <v>11.75235652923584</v>
       </c>
       <c r="G196" t="n">
         <v>3356900</v>
@@ -7279,7 +7279,7 @@
         <v>16.39999961853027</v>
       </c>
       <c r="F197" t="n">
-        <v>12.38329219818115</v>
+        <v>12.38329315185547</v>
       </c>
       <c r="G197" t="n">
         <v>2192400</v>
@@ -7384,7 +7384,7 @@
         <v>18.20000076293945</v>
       </c>
       <c r="F200" t="n">
-        <v>13.74243450164795</v>
+        <v>13.74243259429932</v>
       </c>
       <c r="G200" t="n">
         <v>2671800</v>
@@ -7419,7 +7419,7 @@
         <v>18.5</v>
       </c>
       <c r="F201" t="n">
-        <v>13.96895885467529</v>
+        <v>13.96895408630371</v>
       </c>
       <c r="G201" t="n">
         <v>4820500</v>
@@ -7454,7 +7454,7 @@
         <v>19.11000061035156</v>
       </c>
       <c r="F202" t="n">
-        <v>14.42955207824707</v>
+        <v>14.42955112457275</v>
       </c>
       <c r="G202" t="n">
         <v>5764200</v>
@@ -7489,7 +7489,7 @@
         <v>19.42000007629395</v>
       </c>
       <c r="F203" t="n">
-        <v>14.76439952850342</v>
+        <v>14.76439571380615</v>
       </c>
       <c r="G203" t="n">
         <v>2052400</v>
@@ -7559,7 +7559,7 @@
         <v>20.1200008392334</v>
       </c>
       <c r="F205" t="n">
-        <v>15.2965841293335</v>
+        <v>15.29658699035645</v>
       </c>
       <c r="G205" t="n">
         <v>4117100</v>
@@ -7594,7 +7594,7 @@
         <v>19.84000015258789</v>
       </c>
       <c r="F206" t="n">
-        <v>15.08371067047119</v>
+        <v>15.08371448516846</v>
       </c>
       <c r="G206" t="n">
         <v>5183000</v>
@@ -7629,7 +7629,7 @@
         <v>20.45999908447266</v>
       </c>
       <c r="F207" t="n">
-        <v>15.55507564544678</v>
+        <v>15.55507373809814</v>
       </c>
       <c r="G207" t="n">
         <v>2157400</v>
@@ -7664,7 +7664,7 @@
         <v>19.70000076293945</v>
       </c>
       <c r="F208" t="n">
-        <v>14.97727489471436</v>
+        <v>14.97727394104004</v>
       </c>
       <c r="G208" t="n">
         <v>2903700</v>
@@ -7734,7 +7734,7 @@
         <v>19.13999938964844</v>
       </c>
       <c r="F210" t="n">
-        <v>14.89249324798584</v>
+        <v>14.89249229431152</v>
       </c>
       <c r="G210" t="n">
         <v>2586100</v>
@@ -7769,7 +7769,7 @@
         <v>18.80999946594238</v>
       </c>
       <c r="F211" t="n">
-        <v>14.63572406768799</v>
+        <v>14.63572597503662</v>
       </c>
       <c r="G211" t="n">
         <v>1987500</v>
@@ -7804,7 +7804,7 @@
         <v>20.03000068664551</v>
       </c>
       <c r="F212" t="n">
-        <v>15.58498477935791</v>
+        <v>15.58498954772949</v>
       </c>
       <c r="G212" t="n">
         <v>2455800</v>
@@ -7839,7 +7839,7 @@
         <v>20.36000061035156</v>
       </c>
       <c r="F213" t="n">
-        <v>15.84175586700439</v>
+        <v>15.84175682067871</v>
       </c>
       <c r="G213" t="n">
         <v>2212500</v>
@@ -7874,7 +7874,7 @@
         <v>20.75</v>
       </c>
       <c r="F214" t="n">
-        <v>16.14521026611328</v>
+        <v>16.14520454406738</v>
       </c>
       <c r="G214" t="n">
         <v>1596500</v>
@@ -7944,7 +7944,7 @@
         <v>19.1200008392334</v>
       </c>
       <c r="F216" t="n">
-        <v>15.01094245910645</v>
+        <v>15.0109395980835</v>
       </c>
       <c r="G216" t="n">
         <v>2564500</v>
@@ -7979,7 +7979,7 @@
         <v>20.18000030517578</v>
       </c>
       <c r="F217" t="n">
-        <v>15.84313869476318</v>
+        <v>15.8431396484375</v>
       </c>
       <c r="G217" t="n">
         <v>2552400</v>
@@ -8014,7 +8014,7 @@
         <v>19.78000068664551</v>
       </c>
       <c r="F218" t="n">
-        <v>15.52910041809082</v>
+        <v>15.52910327911377</v>
       </c>
       <c r="G218" t="n">
         <v>1588400</v>
@@ -8049,7 +8049,7 @@
         <v>20.28000068664551</v>
       </c>
       <c r="F219" t="n">
-        <v>15.92164707183838</v>
+        <v>15.92164516448975</v>
       </c>
       <c r="G219" t="n">
         <v>2616900</v>
@@ -8084,7 +8084,7 @@
         <v>21.22999954223633</v>
       </c>
       <c r="F220" t="n">
-        <v>16.66748237609863</v>
+        <v>16.66748046875</v>
       </c>
       <c r="G220" t="n">
         <v>1580800</v>
@@ -8119,7 +8119,7 @@
         <v>20.8799991607666</v>
       </c>
       <c r="F221" t="n">
-        <v>16.82561111450195</v>
+        <v>16.82561492919922</v>
       </c>
       <c r="G221" t="n">
         <v>1755900</v>
@@ -8154,7 +8154,7 @@
         <v>22</v>
       </c>
       <c r="F222" t="n">
-        <v>17.72813415527344</v>
+        <v>17.72813606262207</v>
       </c>
       <c r="G222" t="n">
         <v>3495400</v>
@@ -8259,7 +8259,7 @@
         <v>21.61000061035156</v>
       </c>
       <c r="F225" t="n">
-        <v>17.41386222839355</v>
+        <v>17.41386032104492</v>
       </c>
       <c r="G225" t="n">
         <v>1811000</v>
@@ -8294,7 +8294,7 @@
         <v>21.68000030517578</v>
       </c>
       <c r="F226" t="n">
-        <v>17.47027397155762</v>
+        <v>17.47027206420898</v>
       </c>
       <c r="G226" t="n">
         <v>1427700</v>
@@ -8329,7 +8329,7 @@
         <v>20.54000091552734</v>
       </c>
       <c r="F227" t="n">
-        <v>16.70401000976562</v>
+        <v>16.70401191711426</v>
       </c>
       <c r="G227" t="n">
         <v>1298100</v>
@@ -8364,7 +8364,7 @@
         <v>21.67000007629395</v>
       </c>
       <c r="F228" t="n">
-        <v>17.62297630310059</v>
+        <v>17.62297248840332</v>
       </c>
       <c r="G228" t="n">
         <v>3359900</v>
@@ -8399,7 +8399,7 @@
         <v>21.70999908447266</v>
       </c>
       <c r="F229" t="n">
-        <v>17.6555061340332</v>
+        <v>17.65550804138184</v>
       </c>
       <c r="G229" t="n">
         <v>1492000</v>
@@ -8434,7 +8434,7 @@
         <v>21.93000030517578</v>
       </c>
       <c r="F230" t="n">
-        <v>17.83441925048828</v>
+        <v>17.83441352844238</v>
       </c>
       <c r="G230" t="n">
         <v>3214600</v>
@@ -8469,7 +8469,7 @@
         <v>23.79000091552734</v>
       </c>
       <c r="F231" t="n">
-        <v>19.34705352783203</v>
+        <v>19.3470516204834</v>
       </c>
       <c r="G231" t="n">
         <v>3260400</v>
@@ -8504,7 +8504,7 @@
         <v>23.68000030517578</v>
       </c>
       <c r="F232" t="n">
-        <v>19.25759506225586</v>
+        <v>19.25759315490723</v>
       </c>
       <c r="G232" t="n">
         <v>2796600</v>
@@ -8539,7 +8539,7 @@
         <v>22.55999946594238</v>
       </c>
       <c r="F233" t="n">
-        <v>18.58725547790527</v>
+        <v>18.58725738525391</v>
       </c>
       <c r="G233" t="n">
         <v>3134400</v>
@@ -8574,7 +8574,7 @@
         <v>22.22999954223633</v>
       </c>
       <c r="F234" t="n">
-        <v>18.31536865234375</v>
+        <v>18.31536674499512</v>
       </c>
       <c r="G234" t="n">
         <v>2874500</v>
@@ -8609,7 +8609,7 @@
         <v>19.28000068664551</v>
       </c>
       <c r="F235" t="n">
-        <v>15.88485240936279</v>
+        <v>15.88485527038574</v>
       </c>
       <c r="G235" t="n">
         <v>5415000</v>
@@ -8644,7 +8644,7 @@
         <v>19.1200008392334</v>
       </c>
       <c r="F236" t="n">
-        <v>15.75302791595459</v>
+        <v>15.75302886962891</v>
       </c>
       <c r="G236" t="n">
         <v>3872500</v>
@@ -8749,7 +8749,7 @@
         <v>19.81999969482422</v>
       </c>
       <c r="F239" t="n">
-        <v>16.50772666931152</v>
+        <v>16.50772857666016</v>
       </c>
       <c r="G239" t="n">
         <v>2274500</v>
@@ -8784,7 +8784,7 @@
         <v>17.96999931335449</v>
       </c>
       <c r="F240" t="n">
-        <v>14.96689510345459</v>
+        <v>14.96689701080322</v>
       </c>
       <c r="G240" t="n">
         <v>12217900</v>
@@ -8819,7 +8819,7 @@
         <v>18.09000015258789</v>
       </c>
       <c r="F241" t="n">
-        <v>15.0668420791626</v>
+        <v>15.06684303283691</v>
       </c>
       <c r="G241" t="n">
         <v>2186900</v>
@@ -8854,7 +8854,7 @@
         <v>19.77000045776367</v>
       </c>
       <c r="F242" t="n">
-        <v>16.46608543395996</v>
+        <v>16.46608734130859</v>
       </c>
       <c r="G242" t="n">
         <v>3079200</v>
@@ -8889,7 +8889,7 @@
         <v>19.78000068664551</v>
       </c>
       <c r="F243" t="n">
-        <v>16.47441101074219</v>
+        <v>16.47441673278809</v>
       </c>
       <c r="G243" t="n">
         <v>4016100</v>
@@ -8959,7 +8959,7 @@
         <v>19.57999992370605</v>
       </c>
       <c r="F245" t="n">
-        <v>16.6377067565918</v>
+        <v>16.63770866394043</v>
       </c>
       <c r="G245" t="n">
         <v>3866800</v>
@@ -8994,7 +8994,7 @@
         <v>20.89999961853027</v>
       </c>
       <c r="F246" t="n">
-        <v>17.75935363769531</v>
+        <v>17.75934982299805</v>
       </c>
       <c r="G246" t="n">
         <v>3263400</v>
@@ -9029,7 +9029,7 @@
         <v>21.03000068664551</v>
       </c>
       <c r="F247" t="n">
-        <v>17.86981773376465</v>
+        <v>17.86981582641602</v>
       </c>
       <c r="G247" t="n">
         <v>2525700</v>
@@ -9064,7 +9064,7 @@
         <v>22.01000022888184</v>
       </c>
       <c r="F248" t="n">
-        <v>18.70255279541016</v>
+        <v>18.70255088806152</v>
       </c>
       <c r="G248" t="n">
         <v>2304500</v>
@@ -9099,7 +9099,7 @@
         <v>21.56999969482422</v>
       </c>
       <c r="F249" t="n">
-        <v>18.32867050170898</v>
+        <v>18.32867240905762</v>
       </c>
       <c r="G249" t="n">
         <v>1934300</v>
@@ -9169,7 +9169,7 @@
         <v>19.47999954223633</v>
       </c>
       <c r="F251" t="n">
-        <v>16.73035430908203</v>
+        <v>16.7303581237793</v>
       </c>
       <c r="G251" t="n">
         <v>1537500</v>
@@ -9239,7 +9239,7 @@
         <v>21.61000061035156</v>
       </c>
       <c r="F253" t="n">
-        <v>18.55970573425293</v>
+        <v>18.5597038269043</v>
       </c>
       <c r="G253" t="n">
         <v>1577500</v>
@@ -9344,7 +9344,7 @@
         <v>23.64999961853027</v>
       </c>
       <c r="F256" t="n">
-        <v>20.31175231933594</v>
+        <v>20.3117561340332</v>
       </c>
       <c r="G256" t="n">
         <v>3058800</v>
@@ -9379,7 +9379,7 @@
         <v>23.43000030517578</v>
       </c>
       <c r="F257" t="n">
-        <v>20.46185874938965</v>
+        <v>20.46186065673828</v>
       </c>
       <c r="G257" t="n">
         <v>3174700</v>
@@ -9414,7 +9414,7 @@
         <v>24.28000068664551</v>
       </c>
       <c r="F258" t="n">
-        <v>21.20418357849121</v>
+        <v>21.20418167114258</v>
       </c>
       <c r="G258" t="n">
         <v>2089700</v>
@@ -9449,7 +9449,7 @@
         <v>24.69000053405762</v>
       </c>
       <c r="F259" t="n">
-        <v>21.5622444152832</v>
+        <v>21.56224250793457</v>
       </c>
       <c r="G259" t="n">
         <v>3197200</v>
@@ -9484,7 +9484,7 @@
         <v>24.69000053405762</v>
       </c>
       <c r="F260" t="n">
-        <v>21.5622444152832</v>
+        <v>21.56224250793457</v>
       </c>
       <c r="G260" t="n">
         <v>3404700</v>
@@ -9554,7 +9554,7 @@
         <v>25.65999984741211</v>
       </c>
       <c r="F262" t="n">
-        <v>22.40936470031738</v>
+        <v>22.40936279296875</v>
       </c>
       <c r="G262" t="n">
         <v>5701300</v>
@@ -9589,7 +9589,7 @@
         <v>25.42000007629395</v>
       </c>
       <c r="F263" t="n">
-        <v>22.83078002929688</v>
+        <v>22.83077812194824</v>
       </c>
       <c r="G263" t="n">
         <v>1872600</v>
@@ -9624,7 +9624,7 @@
         <v>26.60000038146973</v>
       </c>
       <c r="F264" t="n">
-        <v>23.89059066772461</v>
+        <v>23.89058685302734</v>
       </c>
       <c r="G264" t="n">
         <v>5527300</v>
@@ -9659,7 +9659,7 @@
         <v>25.57999992370605</v>
       </c>
       <c r="F265" t="n">
-        <v>22.97447967529297</v>
+        <v>22.97448348999023</v>
       </c>
       <c r="G265" t="n">
         <v>5402200</v>
@@ -9694,7 +9694,7 @@
         <v>25.30999946594238</v>
       </c>
       <c r="F266" t="n">
-        <v>22.73198509216309</v>
+        <v>22.73198318481445</v>
       </c>
       <c r="G266" t="n">
         <v>3125800</v>
@@ -9729,7 +9729,7 @@
         <v>25.70999908447266</v>
       </c>
       <c r="F267" t="n">
-        <v>23.09123802185059</v>
+        <v>23.09123992919922</v>
       </c>
       <c r="G267" t="n">
         <v>3889600</v>
@@ -9904,7 +9904,7 @@
         <v>23.92000007629395</v>
       </c>
       <c r="F272" t="n">
-        <v>21.81971549987793</v>
+        <v>21.81971740722656</v>
       </c>
       <c r="G272" t="n">
         <v>6231200</v>
@@ -9939,7 +9939,7 @@
         <v>21.3700008392334</v>
       </c>
       <c r="F273" t="n">
-        <v>19.49361801147461</v>
+        <v>19.49361610412598</v>
       </c>
       <c r="G273" t="n">
         <v>7454300</v>
@@ -9974,7 +9974,7 @@
         <v>23.07999992370605</v>
       </c>
       <c r="F274" t="n">
-        <v>21.0534725189209</v>
+        <v>21.05347061157227</v>
       </c>
       <c r="G274" t="n">
         <v>4635600</v>
@@ -10009,7 +10009,7 @@
         <v>22.56999969482422</v>
       </c>
       <c r="F275" t="n">
-        <v>20.83195304870605</v>
+        <v>20.83195114135742</v>
       </c>
       <c r="G275" t="n">
         <v>3059700</v>
@@ -10044,7 +10044,7 @@
         <v>24.72999954223633</v>
       </c>
       <c r="F276" t="n">
-        <v>22.82561874389648</v>
+        <v>22.82561683654785</v>
       </c>
       <c r="G276" t="n">
         <v>8232900</v>
@@ -10114,7 +10114,7 @@
         <v>26.20999908447266</v>
       </c>
       <c r="F278" t="n">
-        <v>24.19164848327637</v>
+        <v>24.19164657592773</v>
       </c>
       <c r="G278" t="n">
         <v>6485800</v>
@@ -10149,7 +10149,7 @@
         <v>26.47999954223633</v>
       </c>
       <c r="F279" t="n">
-        <v>24.44085311889648</v>
+        <v>24.44085693359375</v>
       </c>
       <c r="G279" t="n">
         <v>6086600</v>
@@ -10219,7 +10219,7 @@
         <v>25.8799991607666</v>
       </c>
       <c r="F281" t="n">
-        <v>24.32705497741699</v>
+        <v>24.32705688476562</v>
       </c>
       <c r="G281" t="n">
         <v>5821200</v>
@@ -10254,7 +10254,7 @@
         <v>24.85000038146973</v>
       </c>
       <c r="F282" t="n">
-        <v>23.35886573791504</v>
+        <v>23.35886192321777</v>
       </c>
       <c r="G282" t="n">
         <v>6276400</v>
@@ -10289,7 +10289,7 @@
         <v>22.84000015258789</v>
       </c>
       <c r="F283" t="n">
-        <v>21.46947479248047</v>
+        <v>21.46947288513184</v>
       </c>
       <c r="G283" t="n">
         <v>6658300</v>
@@ -10324,7 +10324,7 @@
         <v>22.70000076293945</v>
       </c>
       <c r="F284" t="n">
-        <v>21.33787727355957</v>
+        <v>21.33787536621094</v>
       </c>
       <c r="G284" t="n">
         <v>5335800</v>
@@ -10359,7 +10359,7 @@
         <v>23.78000068664551</v>
       </c>
       <c r="F285" t="n">
-        <v>22.35306930541992</v>
+        <v>22.35306739807129</v>
       </c>
       <c r="G285" t="n">
         <v>3399500</v>
@@ -10429,7 +10429,7 @@
         <v>24.32999992370605</v>
       </c>
       <c r="F287" t="n">
-        <v>23.06809425354004</v>
+        <v>23.06809043884277</v>
       </c>
       <c r="G287" t="n">
         <v>2480100</v>
@@ -10464,7 +10464,7 @@
         <v>22.90999984741211</v>
       </c>
       <c r="F288" t="n">
-        <v>21.72174263000488</v>
+        <v>21.72174072265625</v>
       </c>
       <c r="G288" t="n">
         <v>8880400</v>
@@ -10534,7 +10534,7 @@
         <v>19.94000053405762</v>
       </c>
       <c r="F290" t="n">
-        <v>18.90578651428223</v>
+        <v>18.90578460693359</v>
       </c>
       <c r="G290" t="n">
         <v>5759400</v>
@@ -10569,7 +10569,7 @@
         <v>21.14999961853027</v>
       </c>
       <c r="F291" t="n">
-        <v>20.05302810668945</v>
+        <v>20.05302619934082</v>
       </c>
       <c r="G291" t="n">
         <v>4485400</v>
@@ -10744,7 +10744,7 @@
         <v>21.92000007629395</v>
       </c>
       <c r="F296" t="n">
-        <v>21.18394660949707</v>
+        <v>21.18394470214844</v>
       </c>
       <c r="G296" t="n">
         <v>8109000</v>
@@ -10989,7 +10989,7 @@
         <v>27.27000045776367</v>
       </c>
       <c r="F303" t="n">
-        <v>26.59467124938965</v>
+        <v>26.59466934204102</v>
       </c>
       <c r="G303" t="n">
         <v>4172000</v>
@@ -11129,7 +11129,7 @@
         <v>25.77000045776367</v>
       </c>
       <c r="F307" t="n">
-        <v>25.48780822753906</v>
+        <v>25.48780632019043</v>
       </c>
       <c r="G307" t="n">
         <v>5285100</v>
@@ -11234,7 +11234,7 @@
         <v>23.29000091552734</v>
       </c>
       <c r="F310" t="n">
-        <v>23.03496360778809</v>
+        <v>23.03496551513672</v>
       </c>
       <c r="G310" t="n">
         <v>5712500</v>
@@ -11295,31 +11295,31 @@
         <v>23.32999992370605</v>
       </c>
       <c r="C312" t="n">
-        <v>23.45999908447266</v>
+        <v>23.47999954223633</v>
       </c>
       <c r="D312" t="n">
         <v>23.31500053405762</v>
       </c>
       <c r="E312" t="n">
-        <v>23.45999908447266</v>
+        <v>23.46999931335449</v>
       </c>
       <c r="F312" t="n">
-        <v>23.45999908447266</v>
+        <v>23.46999931335449</v>
       </c>
       <c r="G312" t="n">
-        <v>1618132</v>
+        <v>1928343</v>
       </c>
       <c r="H312" t="n">
-        <v>0.01164288677003311</v>
+        <v>0.01207411698355321</v>
       </c>
       <c r="I312" t="n">
-        <v>0.0481386534055173</v>
+        <v>0.04813925236400682</v>
       </c>
       <c r="J312" t="n">
-        <v>-0.06384678434028679</v>
+        <v>-0.06344773289994554</v>
       </c>
       <c r="K312" t="n">
-        <v>-0.06384678434028679</v>
+        <v>-0.06344773289994554</v>
       </c>
     </row>
   </sheetData>
